--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarkokov/PycharmProjects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimitarkokov/PycharmProjects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713F5007-898E-0B4E-AD44-8CB658678097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB70879-3D95-434F-A027-1BA9067F119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="460" windowWidth="38380" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6040" yWindow="8980" windowWidth="38380" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="4" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="assignee_lookup" sheetId="5" r:id="rId3"/>
     <sheet name="task_type_lookup" sheetId="2" r:id="rId4"/>
     <sheet name="person_task" sheetId="3" r:id="rId5"/>
+    <sheet name="caseitem_task" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="754">
   <si>
     <t>table_name</t>
   </si>
@@ -698,9 +699,6 @@
     <t>include_values = {"col": "Status", "values": ["ACTIVE", "INACTIVE"]}</t>
   </si>
   <si>
-    <t>Case, Status</t>
-  </si>
-  <si>
     <t>CWGN</t>
   </si>
   <si>
@@ -2277,6 +2275,18 @@
   </si>
   <si>
     <t>C52</t>
+  </si>
+  <si>
+    <t>caseitem_task</t>
+  </si>
+  <si>
+    <t>caseitem_id</t>
+  </si>
+  <si>
+    <t>cases:id</t>
+  </si>
+  <si>
+    <t>Case, Status, Order No</t>
   </si>
 </sst>
 </file>
@@ -2690,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF42D79-4151-C94E-B150-CAB1CD330C33}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2751,7 +2761,7 @@
         <v>223</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2765,6 +2775,20 @@
         <v>205</v>
       </c>
       <c r="E3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>750</v>
+      </c>
+      <c r="E4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2777,9 +2801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2910,10 +2934,10 @@
         <v>34</v>
       </c>
       <c r="J3" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L3" s="30" t="s">
         <v>240</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>241</v>
       </c>
       <c r="M3" s="7">
         <v>2657</v>
@@ -2950,7 +2974,7 @@
         <v>42</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P4" s="19" t="s">
         <v>21</v>
@@ -4659,7 +4683,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>17</v>
@@ -4671,7 +4695,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>17</v>
@@ -4683,7 +4707,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>17</v>
@@ -4695,7 +4719,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>17</v>
@@ -4707,7 +4731,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>17</v>
@@ -4719,7 +4743,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>17</v>
@@ -4731,7 +4755,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>17</v>
@@ -4743,7 +4767,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>17</v>
@@ -4755,7 +4779,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>17</v>
@@ -4767,7 +4791,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>17</v>
@@ -4779,7 +4803,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>17</v>
@@ -4791,7 +4815,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>17</v>
@@ -4803,7 +4827,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>17</v>
@@ -4815,7 +4839,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>17</v>
@@ -4827,7 +4851,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>17</v>
@@ -4839,7 +4863,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>17</v>
@@ -4851,7 +4875,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>17</v>
@@ -4863,7 +4887,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>17</v>
@@ -4875,7 +4899,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>17</v>
@@ -4887,7 +4911,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>17</v>
@@ -4899,7 +4923,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>17</v>
@@ -4911,7 +4935,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>17</v>
@@ -4923,7 +4947,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>17</v>
@@ -4935,7 +4959,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>17</v>
@@ -4947,7 +4971,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>17</v>
@@ -4959,7 +4983,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" s="32" t="s">
         <v>17</v>
@@ -4971,7 +4995,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>17</v>
@@ -4983,7 +5007,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>17</v>
@@ -4995,7 +5019,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>17</v>
@@ -5007,7 +5031,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>17</v>
@@ -5019,7 +5043,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" s="32" t="s">
         <v>17</v>
@@ -5031,7 +5055,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>17</v>
@@ -5043,7 +5067,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" s="32" t="s">
         <v>17</v>
@@ -5055,7 +5079,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>17</v>
@@ -5067,7 +5091,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="32" t="s">
         <v>17</v>
@@ -5079,7 +5103,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B37" s="32" t="s">
         <v>17</v>
@@ -5091,7 +5115,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>17</v>
@@ -5103,7 +5127,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>17</v>
@@ -5115,7 +5139,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>17</v>
@@ -5127,7 +5151,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>17</v>
@@ -5139,7 +5163,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>17</v>
@@ -5151,7 +5175,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>17</v>
@@ -5163,7 +5187,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>17</v>
@@ -5175,7 +5199,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>17</v>
@@ -5187,7 +5211,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>17</v>
@@ -5199,7 +5223,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>17</v>
@@ -5211,7 +5235,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>17</v>
@@ -5223,7 +5247,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>17</v>
@@ -5235,7 +5259,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>17</v>
@@ -5247,7 +5271,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>17</v>
@@ -5259,7 +5283,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>17</v>
@@ -5271,7 +5295,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>17</v>
@@ -5283,7 +5307,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>17</v>
@@ -5295,7 +5319,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B55" s="32" t="s">
         <v>17</v>
@@ -5307,7 +5331,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B56" s="32" t="s">
         <v>17</v>
@@ -5319,7 +5343,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B57" s="32" t="s">
         <v>17</v>
@@ -5331,7 +5355,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B58" s="32" t="s">
         <v>17</v>
@@ -5343,7 +5367,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B59" s="32" t="s">
         <v>17</v>
@@ -5355,7 +5379,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B60" s="32" t="s">
         <v>17</v>
@@ -5367,7 +5391,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B61" s="32" t="s">
         <v>17</v>
@@ -5379,7 +5403,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B62" s="32" t="s">
         <v>17</v>
@@ -5391,7 +5415,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B63" s="32" t="s">
         <v>17</v>
@@ -5403,7 +5427,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>17</v>
@@ -5415,7 +5439,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>17</v>
@@ -5427,7 +5451,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B66" s="32" t="s">
         <v>17</v>
@@ -5439,7 +5463,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B67" s="32" t="s">
         <v>17</v>
@@ -5451,7 +5475,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B68" s="32" t="s">
         <v>17</v>
@@ -5463,7 +5487,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B69" s="32" t="s">
         <v>17</v>
@@ -5475,7 +5499,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B70" s="32" t="s">
         <v>17</v>
@@ -5487,7 +5511,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>17</v>
@@ -5499,7 +5523,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B72" s="32" t="s">
         <v>17</v>
@@ -5511,7 +5535,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B73" s="32" t="s">
         <v>17</v>
@@ -5523,7 +5547,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B74" s="32" t="s">
         <v>17</v>
@@ -5535,7 +5559,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B75" s="32" t="s">
         <v>17</v>
@@ -5547,7 +5571,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B76" s="32" t="s">
         <v>17</v>
@@ -5559,7 +5583,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B77" s="32" t="s">
         <v>17</v>
@@ -5571,7 +5595,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B78" s="32" t="s">
         <v>17</v>
@@ -5583,7 +5607,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B79" s="32" t="s">
         <v>17</v>
@@ -5595,7 +5619,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B80" s="32" t="s">
         <v>17</v>
@@ -5607,7 +5631,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B81" s="32" t="s">
         <v>17</v>
@@ -5619,7 +5643,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B82" s="32" t="s">
         <v>17</v>
@@ -5631,7 +5655,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B83" s="32" t="s">
         <v>17</v>
@@ -5643,7 +5667,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B84" s="32" t="s">
         <v>17</v>
@@ -5655,7 +5679,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B85" s="32" t="s">
         <v>17</v>
@@ -5667,7 +5691,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B86" s="32" t="s">
         <v>17</v>
@@ -5679,7 +5703,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B87" s="32" t="s">
         <v>17</v>
@@ -5691,7 +5715,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B88" s="32" t="s">
         <v>17</v>
@@ -5703,7 +5727,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B89" s="32" t="s">
         <v>17</v>
@@ -5715,7 +5739,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B90" s="32" t="s">
         <v>17</v>
@@ -5727,7 +5751,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B91" s="32" t="s">
         <v>17</v>
@@ -5739,7 +5763,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B92" s="32" t="s">
         <v>17</v>
@@ -5751,7 +5775,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B93" s="32" t="s">
         <v>17</v>
@@ -5763,7 +5787,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B94" s="32" t="s">
         <v>17</v>
@@ -5775,7 +5799,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B95" s="32" t="s">
         <v>17</v>
@@ -5787,7 +5811,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B96" s="32" t="s">
         <v>17</v>
@@ -5799,7 +5823,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B97" s="32" t="s">
         <v>17</v>
@@ -5811,7 +5835,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B98" s="32" t="s">
         <v>17</v>
@@ -5823,7 +5847,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B99" s="32" t="s">
         <v>17</v>
@@ -5835,7 +5859,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B100" s="32" t="s">
         <v>17</v>
@@ -5847,7 +5871,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B101" s="32" t="s">
         <v>17</v>
@@ -5859,7 +5883,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B102" s="32" t="s">
         <v>17</v>
@@ -5871,7 +5895,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B103" s="32" t="s">
         <v>17</v>
@@ -5883,7 +5907,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B104" s="32" t="s">
         <v>17</v>
@@ -5895,7 +5919,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B105" s="32" t="s">
         <v>17</v>
@@ -5907,7 +5931,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B106" s="32" t="s">
         <v>17</v>
@@ -5919,7 +5943,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B107" s="32" t="s">
         <v>17</v>
@@ -5931,7 +5955,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B108" s="32" t="s">
         <v>17</v>
@@ -5943,7 +5967,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B109" s="32" t="s">
         <v>17</v>
@@ -5955,7 +5979,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B110" s="32" t="s">
         <v>17</v>
@@ -5967,7 +5991,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B111" s="32" t="s">
         <v>17</v>
@@ -5979,7 +6003,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B112" s="32" t="s">
         <v>17</v>
@@ -5991,7 +6015,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B113" s="32" t="s">
         <v>17</v>
@@ -6003,7 +6027,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B114" s="32" t="s">
         <v>17</v>
@@ -6015,7 +6039,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B115" s="32" t="s">
         <v>17</v>
@@ -6027,7 +6051,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B116" s="32" t="s">
         <v>17</v>
@@ -6039,7 +6063,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B117" s="32" t="s">
         <v>17</v>
@@ -6051,7 +6075,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B118" s="32" t="s">
         <v>17</v>
@@ -6063,7 +6087,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B119" s="32" t="s">
         <v>17</v>
@@ -6075,7 +6099,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B120" s="32" t="s">
         <v>17</v>
@@ -6087,7 +6111,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B121" s="32" t="s">
         <v>17</v>
@@ -6099,7 +6123,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B122" s="32" t="s">
         <v>17</v>
@@ -6111,7 +6135,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B123" s="32" t="s">
         <v>17</v>
@@ -6123,7 +6147,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B124" s="32" t="s">
         <v>17</v>
@@ -6135,7 +6159,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B125" s="32" t="s">
         <v>17</v>
@@ -6147,7 +6171,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B126" s="32" t="s">
         <v>17</v>
@@ -6159,7 +6183,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B127" s="32" t="s">
         <v>17</v>
@@ -6171,7 +6195,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B128" s="32" t="s">
         <v>17</v>
@@ -6183,7 +6207,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B129" s="32" t="s">
         <v>17</v>
@@ -6195,7 +6219,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B130" s="32" t="s">
         <v>17</v>
@@ -6207,7 +6231,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B131" s="32" t="s">
         <v>17</v>
@@ -6219,7 +6243,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B132" s="32" t="s">
         <v>17</v>
@@ -6231,7 +6255,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B133" s="32" t="s">
         <v>17</v>
@@ -6243,7 +6267,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B134" s="32" t="s">
         <v>17</v>
@@ -6255,7 +6279,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B135" s="32" t="s">
         <v>17</v>
@@ -6267,7 +6291,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B136" s="32" t="s">
         <v>17</v>
@@ -6279,7 +6303,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B137" s="32" t="s">
         <v>17</v>
@@ -6291,7 +6315,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B138" s="32" t="s">
         <v>17</v>
@@ -6303,7 +6327,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B139" s="32" t="s">
         <v>17</v>
@@ -6315,7 +6339,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B140" s="32" t="s">
         <v>17</v>
@@ -6327,7 +6351,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>17</v>
@@ -6339,7 +6363,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B142" s="32" t="s">
         <v>17</v>
@@ -6351,7 +6375,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B143" s="32" t="s">
         <v>17</v>
@@ -6363,7 +6387,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B144" s="32" t="s">
         <v>17</v>
@@ -6375,7 +6399,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B145" s="32" t="s">
         <v>17</v>
@@ -6387,7 +6411,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B146" s="32" t="s">
         <v>17</v>
@@ -6399,7 +6423,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B147" s="32" t="s">
         <v>17</v>
@@ -6411,7 +6435,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B148" s="32" t="s">
         <v>17</v>
@@ -6423,7 +6447,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B149" s="32" t="s">
         <v>17</v>
@@ -6435,7 +6459,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B150" s="32" t="s">
         <v>17</v>
@@ -6447,7 +6471,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B151" s="32" t="s">
         <v>17</v>
@@ -6459,7 +6483,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B152" s="32" t="s">
         <v>17</v>
@@ -6471,7 +6495,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B153" s="32" t="s">
         <v>17</v>
@@ -6483,7 +6507,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B154" s="32" t="s">
         <v>17</v>
@@ -6495,7 +6519,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B155" s="32" t="s">
         <v>17</v>
@@ -6507,7 +6531,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B156" s="32" t="s">
         <v>17</v>
@@ -6519,7 +6543,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B157" s="32" t="s">
         <v>17</v>
@@ -6531,7 +6555,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B158" s="32" t="s">
         <v>17</v>
@@ -6543,7 +6567,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B159" s="32" t="s">
         <v>17</v>
@@ -6555,7 +6579,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B160" s="32" t="s">
         <v>17</v>
@@ -6567,7 +6591,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B161" s="32" t="s">
         <v>17</v>
@@ -6579,7 +6603,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B162" s="32" t="s">
         <v>17</v>
@@ -6591,7 +6615,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B163" s="32" t="s">
         <v>17</v>
@@ -6603,7 +6627,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B164" s="32" t="s">
         <v>17</v>
@@ -6615,7 +6639,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B165" s="32" t="s">
         <v>17</v>
@@ -6627,7 +6651,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B166" s="32" t="s">
         <v>17</v>
@@ -6639,7 +6663,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B167" s="32" t="s">
         <v>17</v>
@@ -6651,7 +6675,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B168" s="32" t="s">
         <v>17</v>
@@ -6663,7 +6687,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B169" s="32" t="s">
         <v>17</v>
@@ -6675,7 +6699,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B170" s="32" t="s">
         <v>17</v>
@@ -6687,7 +6711,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B171" s="32" t="s">
         <v>17</v>
@@ -6699,7 +6723,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B172" s="32" t="s">
         <v>17</v>
@@ -6711,7 +6735,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B173" s="32" t="s">
         <v>17</v>
@@ -6723,7 +6747,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B174" s="32" t="s">
         <v>17</v>
@@ -6735,7 +6759,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B175" s="32" t="s">
         <v>17</v>
@@ -6747,7 +6771,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B176" s="32" t="s">
         <v>17</v>
@@ -6759,7 +6783,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B177" s="32" t="s">
         <v>17</v>
@@ -6771,7 +6795,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B178" s="32" t="s">
         <v>17</v>
@@ -6783,7 +6807,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B179" s="32" t="s">
         <v>17</v>
@@ -6795,7 +6819,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B180" s="32" t="s">
         <v>17</v>
@@ -6807,7 +6831,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B181" s="32" t="s">
         <v>17</v>
@@ -6819,7 +6843,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B182" s="32" t="s">
         <v>17</v>
@@ -6831,7 +6855,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B183" s="32" t="s">
         <v>17</v>
@@ -6843,7 +6867,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B184" s="32" t="s">
         <v>17</v>
@@ -6855,7 +6879,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B185" s="32" t="s">
         <v>17</v>
@@ -6867,7 +6891,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B186" s="32" t="s">
         <v>17</v>
@@ -6879,7 +6903,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B187" s="32" t="s">
         <v>17</v>
@@ -6891,7 +6915,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B188" s="32" t="s">
         <v>17</v>
@@ -6903,7 +6927,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B189" s="32" t="s">
         <v>17</v>
@@ -6915,7 +6939,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B190" s="32" t="s">
         <v>17</v>
@@ -6927,7 +6951,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B191" s="32" t="s">
         <v>17</v>
@@ -6939,7 +6963,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B192" s="32" t="s">
         <v>17</v>
@@ -6951,7 +6975,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B193" s="32" t="s">
         <v>17</v>
@@ -6963,7 +6987,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B194" s="32" t="s">
         <v>17</v>
@@ -6975,7 +6999,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B195" s="32" t="s">
         <v>17</v>
@@ -6987,7 +7011,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B196" s="32" t="s">
         <v>17</v>
@@ -6999,7 +7023,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B197" s="32" t="s">
         <v>17</v>
@@ -7011,7 +7035,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B198" s="32" t="s">
         <v>17</v>
@@ -7023,7 +7047,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B199" s="32" t="s">
         <v>17</v>
@@ -7035,7 +7059,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B200" s="32" t="s">
         <v>17</v>
@@ -7047,7 +7071,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B201" s="32" t="s">
         <v>17</v>
@@ -7059,7 +7083,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B202" s="32" t="s">
         <v>17</v>
@@ -7071,7 +7095,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B203" s="32" t="s">
         <v>17</v>
@@ -7083,7 +7107,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B204" s="32" t="s">
         <v>17</v>
@@ -7095,7 +7119,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B205" s="32" t="s">
         <v>17</v>
@@ -7107,7 +7131,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B206" s="32" t="s">
         <v>17</v>
@@ -7119,7 +7143,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B207" s="32" t="s">
         <v>17</v>
@@ -7131,7 +7155,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B208" s="32" t="s">
         <v>17</v>
@@ -7143,7 +7167,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B209" s="32" t="s">
         <v>17</v>
@@ -7155,7 +7179,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B210" s="32" t="s">
         <v>17</v>
@@ -7167,7 +7191,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B211" s="32" t="s">
         <v>17</v>
@@ -7179,7 +7203,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B212" s="32" t="s">
         <v>17</v>
@@ -7191,7 +7215,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B213" s="32" t="s">
         <v>17</v>
@@ -7203,7 +7227,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B214" s="32" t="s">
         <v>17</v>
@@ -7215,7 +7239,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B215" s="32" t="s">
         <v>17</v>
@@ -7227,7 +7251,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B216" s="32" t="s">
         <v>17</v>
@@ -7239,7 +7263,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B217" s="32" t="s">
         <v>17</v>
@@ -7251,7 +7275,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B218" s="32" t="s">
         <v>17</v>
@@ -7263,7 +7287,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B219" s="32" t="s">
         <v>17</v>
@@ -7275,7 +7299,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B220" s="32" t="s">
         <v>17</v>
@@ -7287,7 +7311,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="32" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B221" s="32" t="s">
         <v>17</v>
@@ -7299,7 +7323,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B222" s="32" t="s">
         <v>17</v>
@@ -7311,7 +7335,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B223" s="32" t="s">
         <v>17</v>
@@ -7323,7 +7347,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B224" s="32" t="s">
         <v>17</v>
@@ -7335,7 +7359,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B225" s="32" t="s">
         <v>17</v>
@@ -7347,7 +7371,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B226" s="32" t="s">
         <v>17</v>
@@ -7359,7 +7383,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B227" s="32" t="s">
         <v>17</v>
@@ -7371,7 +7395,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B228" s="32" t="s">
         <v>17</v>
@@ -7383,7 +7407,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B229" s="32" t="s">
         <v>17</v>
@@ -7395,7 +7419,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="32" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B230" s="32" t="s">
         <v>17</v>
@@ -7407,7 +7431,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B231" s="32" t="s">
         <v>17</v>
@@ -7419,7 +7443,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B232" s="32" t="s">
         <v>17</v>
@@ -7431,7 +7455,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B233" s="32" t="s">
         <v>17</v>
@@ -7443,7 +7467,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B234" s="32" t="s">
         <v>17</v>
@@ -7455,7 +7479,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B235" s="32" t="s">
         <v>17</v>
@@ -7467,7 +7491,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B236" s="32" t="s">
         <v>17</v>
@@ -7479,7 +7503,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B237" s="32" t="s">
         <v>17</v>
@@ -7491,7 +7515,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B238" s="32" t="s">
         <v>17</v>
@@ -7503,7 +7527,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B239" s="32" t="s">
         <v>17</v>
@@ -7515,7 +7539,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B240" s="32" t="s">
         <v>17</v>
@@ -7527,7 +7551,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B241" s="32" t="s">
         <v>17</v>
@@ -7539,7 +7563,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B242" s="32" t="s">
         <v>17</v>
@@ -7551,7 +7575,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B243" s="32" t="s">
         <v>17</v>
@@ -7563,7 +7587,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="32" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B244" s="32" t="s">
         <v>17</v>
@@ -7575,7 +7599,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B245" s="32" t="s">
         <v>17</v>
@@ -7587,7 +7611,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B246" s="32" t="s">
         <v>17</v>
@@ -7599,7 +7623,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B247" s="32" t="s">
         <v>17</v>
@@ -7611,7 +7635,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B248" s="32" t="s">
         <v>17</v>
@@ -7623,7 +7647,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B249" s="32" t="s">
         <v>17</v>
@@ -7635,7 +7659,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B250" s="32" t="s">
         <v>17</v>
@@ -7647,7 +7671,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B251" s="32" t="s">
         <v>17</v>
@@ -7659,7 +7683,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B252" s="32" t="s">
         <v>17</v>
@@ -7671,7 +7695,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B253" s="32" t="s">
         <v>17</v>
@@ -7683,7 +7707,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B254" s="32" t="s">
         <v>17</v>
@@ -7695,7 +7719,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B255" s="32" t="s">
         <v>17</v>
@@ -7707,7 +7731,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B256" s="32" t="s">
         <v>17</v>
@@ -7719,7 +7743,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B257" s="32" t="s">
         <v>17</v>
@@ -7731,7 +7755,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B258" s="32" t="s">
         <v>17</v>
@@ -7743,7 +7767,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B259" s="32" t="s">
         <v>17</v>
@@ -7755,7 +7779,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B260" s="32" t="s">
         <v>17</v>
@@ -7767,7 +7791,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B261" s="32" t="s">
         <v>17</v>
@@ -7779,7 +7803,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B262" s="32" t="s">
         <v>17</v>
@@ -7791,7 +7815,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B263" s="32" t="s">
         <v>17</v>
@@ -7803,7 +7827,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B264" s="32" t="s">
         <v>17</v>
@@ -7815,7 +7839,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B265" s="32" t="s">
         <v>17</v>
@@ -7827,7 +7851,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B266" s="32" t="s">
         <v>17</v>
@@ -7839,7 +7863,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B267" s="32" t="s">
         <v>17</v>
@@ -7851,7 +7875,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="32" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B268" s="32" t="s">
         <v>17</v>
@@ -7863,7 +7887,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B269" s="32" t="s">
         <v>17</v>
@@ -7875,7 +7899,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B270" s="32" t="s">
         <v>17</v>
@@ -7887,7 +7911,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B271" s="32" t="s">
         <v>17</v>
@@ -7899,7 +7923,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B272" s="32" t="s">
         <v>17</v>
@@ -7911,7 +7935,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B273" s="32" t="s">
         <v>17</v>
@@ -7923,7 +7947,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B274" s="32" t="s">
         <v>17</v>
@@ -7935,7 +7959,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B275" s="32" t="s">
         <v>17</v>
@@ -7947,7 +7971,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B276" s="32" t="s">
         <v>17</v>
@@ -7959,7 +7983,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="32" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B277" s="32" t="s">
         <v>17</v>
@@ -7971,7 +7995,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B278" s="32" t="s">
         <v>17</v>
@@ -7983,7 +8007,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B279" s="32" t="s">
         <v>17</v>
@@ -7995,7 +8019,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B280" s="32" t="s">
         <v>17</v>
@@ -8007,7 +8031,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B281" s="32" t="s">
         <v>17</v>
@@ -8019,7 +8043,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B282" s="32" t="s">
         <v>17</v>
@@ -8031,7 +8055,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B283" s="32" t="s">
         <v>17</v>
@@ -8043,7 +8067,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B284" s="32" t="s">
         <v>17</v>
@@ -8055,7 +8079,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B285" s="32" t="s">
         <v>17</v>
@@ -8067,7 +8091,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B286" s="32" t="s">
         <v>17</v>
@@ -8079,7 +8103,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B287" s="32" t="s">
         <v>17</v>
@@ -8091,7 +8115,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B288" s="32" t="s">
         <v>17</v>
@@ -8103,7 +8127,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B289" s="32" t="s">
         <v>17</v>
@@ -8115,7 +8139,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B290" s="32" t="s">
         <v>17</v>
@@ -8127,7 +8151,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B291" s="32" t="s">
         <v>17</v>
@@ -8139,7 +8163,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B292" s="32" t="s">
         <v>17</v>
@@ -8151,7 +8175,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B293" s="32" t="s">
         <v>17</v>
@@ -8163,7 +8187,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B294" s="32" t="s">
         <v>17</v>
@@ -8175,7 +8199,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B295" s="32" t="s">
         <v>17</v>
@@ -8187,7 +8211,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B296" s="32" t="s">
         <v>17</v>
@@ -8199,7 +8223,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B297" s="32" t="s">
         <v>17</v>
@@ -8211,7 +8235,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B298" s="32" t="s">
         <v>17</v>
@@ -8223,7 +8247,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B299" s="32" t="s">
         <v>17</v>
@@ -8235,7 +8259,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B300" s="32" t="s">
         <v>17</v>
@@ -8247,7 +8271,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B301" s="32" t="s">
         <v>17</v>
@@ -8259,7 +8283,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B302" s="32" t="s">
         <v>17</v>
@@ -8271,7 +8295,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B303" s="32" t="s">
         <v>17</v>
@@ -8283,7 +8307,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B304" s="32" t="s">
         <v>17</v>
@@ -8295,7 +8319,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B305" s="32" t="s">
         <v>17</v>
@@ -8307,7 +8331,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B306" s="32" t="s">
         <v>17</v>
@@ -8319,7 +8343,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B307" s="32" t="s">
         <v>17</v>
@@ -8331,7 +8355,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B308" s="32" t="s">
         <v>17</v>
@@ -8343,7 +8367,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B309" s="32" t="s">
         <v>17</v>
@@ -8355,7 +8379,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B310" s="32" t="s">
         <v>17</v>
@@ -8367,7 +8391,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B311" s="32" t="s">
         <v>17</v>
@@ -8379,7 +8403,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B312" s="32" t="s">
         <v>17</v>
@@ -8391,7 +8415,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B313" s="32" t="s">
         <v>17</v>
@@ -8403,7 +8427,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B314" s="32" t="s">
         <v>17</v>
@@ -8415,7 +8439,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B315" s="32" t="s">
         <v>17</v>
@@ -8427,7 +8451,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B316" s="32" t="s">
         <v>17</v>
@@ -8439,7 +8463,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B317" s="32" t="s">
         <v>17</v>
@@ -8451,7 +8475,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B318" s="32" t="s">
         <v>17</v>
@@ -8463,7 +8487,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B319" s="32" t="s">
         <v>17</v>
@@ -8475,7 +8499,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B320" s="32" t="s">
         <v>17</v>
@@ -8487,7 +8511,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B321" s="32" t="s">
         <v>17</v>
@@ -8499,7 +8523,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B322" s="32" t="s">
         <v>17</v>
@@ -8511,7 +8535,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B323" s="32" t="s">
         <v>17</v>
@@ -8523,7 +8547,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B324" s="32" t="s">
         <v>17</v>
@@ -8535,7 +8559,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="32" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B325" s="32" t="s">
         <v>17</v>
@@ -8547,7 +8571,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B326" s="32" t="s">
         <v>17</v>
@@ -8559,7 +8583,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B327" s="32" t="s">
         <v>17</v>
@@ -8571,7 +8595,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B328" s="32" t="s">
         <v>17</v>
@@ -8583,7 +8607,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B329" s="32" t="s">
         <v>17</v>
@@ -8595,7 +8619,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B330" s="32" t="s">
         <v>17</v>
@@ -8607,7 +8631,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="32" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B331" s="32" t="s">
         <v>17</v>
@@ -8619,7 +8643,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B332" s="32" t="s">
         <v>17</v>
@@ -8631,7 +8655,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B333" s="32" t="s">
         <v>17</v>
@@ -8643,7 +8667,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B334" s="32" t="s">
         <v>17</v>
@@ -8655,7 +8679,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B335" s="32" t="s">
         <v>17</v>
@@ -8667,7 +8691,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B336" s="32" t="s">
         <v>17</v>
@@ -8679,7 +8703,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B337" s="32" t="s">
         <v>17</v>
@@ -8691,7 +8715,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B338" s="32" t="s">
         <v>17</v>
@@ -8703,7 +8727,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B339" s="32" t="s">
         <v>17</v>
@@ -8715,7 +8739,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B340" s="32" t="s">
         <v>17</v>
@@ -8727,7 +8751,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B341" s="32" t="s">
         <v>17</v>
@@ -8739,7 +8763,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B342" s="32" t="s">
         <v>17</v>
@@ -8751,7 +8775,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B343" s="32" t="s">
         <v>17</v>
@@ -8763,7 +8787,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B344" s="32" t="s">
         <v>17</v>
@@ -8775,7 +8799,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B345" s="32" t="s">
         <v>17</v>
@@ -8787,7 +8811,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="32" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B346" s="32" t="s">
         <v>17</v>
@@ -8799,7 +8823,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B347" s="32" t="s">
         <v>17</v>
@@ -8811,7 +8835,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B348" s="32" t="s">
         <v>17</v>
@@ -8823,7 +8847,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B349" s="32" t="s">
         <v>17</v>
@@ -8835,7 +8859,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B350" s="32" t="s">
         <v>17</v>
@@ -8847,7 +8871,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B351" s="32" t="s">
         <v>17</v>
@@ -8859,7 +8883,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B352" s="32" t="s">
         <v>17</v>
@@ -8871,7 +8895,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B353" s="32" t="s">
         <v>17</v>
@@ -8883,7 +8907,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B354" s="32" t="s">
         <v>17</v>
@@ -8895,7 +8919,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B355" s="32" t="s">
         <v>17</v>
@@ -8907,7 +8931,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B356" s="32" t="s">
         <v>17</v>
@@ -8919,7 +8943,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B357" s="32" t="s">
         <v>17</v>
@@ -8931,7 +8955,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B358" s="32" t="s">
         <v>17</v>
@@ -8943,7 +8967,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B359" s="32" t="s">
         <v>17</v>
@@ -8955,7 +8979,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="32" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B360" s="32" t="s">
         <v>17</v>
@@ -8967,7 +8991,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="32" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B361" s="32" t="s">
         <v>17</v>
@@ -8979,7 +9003,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B362" s="32" t="s">
         <v>17</v>
@@ -8991,7 +9015,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B363" s="32" t="s">
         <v>17</v>
@@ -9003,7 +9027,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B364" s="32" t="s">
         <v>17</v>
@@ -9015,7 +9039,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B365" s="32" t="s">
         <v>17</v>
@@ -9027,7 +9051,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B366" s="32" t="s">
         <v>17</v>
@@ -9039,7 +9063,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="32" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B367" s="32" t="s">
         <v>17</v>
@@ -9051,7 +9075,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B368" s="32" t="s">
         <v>17</v>
@@ -9063,7 +9087,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B369" s="32" t="s">
         <v>17</v>
@@ -9075,7 +9099,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="32" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B370" s="32" t="s">
         <v>17</v>
@@ -9087,7 +9111,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B371" s="32" t="s">
         <v>17</v>
@@ -9099,7 +9123,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B372" s="32" t="s">
         <v>17</v>
@@ -9111,7 +9135,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B373" s="32" t="s">
         <v>17</v>
@@ -9123,7 +9147,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="32" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B374" s="32" t="s">
         <v>17</v>
@@ -9135,7 +9159,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="32" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B375" s="32" t="s">
         <v>17</v>
@@ -9147,7 +9171,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="32" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B376" s="32" t="s">
         <v>17</v>
@@ -9159,7 +9183,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B377" s="32" t="s">
         <v>17</v>
@@ -9171,7 +9195,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="32" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B378" s="32" t="s">
         <v>17</v>
@@ -9183,7 +9207,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B379" s="32" t="s">
         <v>17</v>
@@ -9195,7 +9219,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B380" s="32" t="s">
         <v>17</v>
@@ -9207,7 +9231,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B381" s="32" t="s">
         <v>17</v>
@@ -9219,7 +9243,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="32" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B382" s="32" t="s">
         <v>17</v>
@@ -9231,7 +9255,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B383" s="32" t="s">
         <v>17</v>
@@ -9243,7 +9267,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B384" s="32" t="s">
         <v>17</v>
@@ -9255,7 +9279,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B385" s="32" t="s">
         <v>17</v>
@@ -9267,7 +9291,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B386" s="32" t="s">
         <v>17</v>
@@ -9279,7 +9303,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B387" s="32" t="s">
         <v>17</v>
@@ -9291,7 +9315,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B388" s="32" t="s">
         <v>17</v>
@@ -9303,7 +9327,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B389" s="32" t="s">
         <v>17</v>
@@ -9315,7 +9339,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B390" s="32" t="s">
         <v>17</v>
@@ -9327,7 +9351,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B391" s="32" t="s">
         <v>17</v>
@@ -9339,7 +9363,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B392" s="32" t="s">
         <v>17</v>
@@ -9351,7 +9375,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B393" s="32" t="s">
         <v>17</v>
@@ -9363,7 +9387,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B394" s="32" t="s">
         <v>17</v>
@@ -9375,7 +9399,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="32" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B395" s="32" t="s">
         <v>17</v>
@@ -9387,7 +9411,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B396" s="32" t="s">
         <v>17</v>
@@ -9399,7 +9423,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B397" s="32" t="s">
         <v>17</v>
@@ -9411,7 +9435,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B398" s="32" t="s">
         <v>17</v>
@@ -9423,7 +9447,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B399" s="32" t="s">
         <v>17</v>
@@ -9435,7 +9459,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="32" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B400" s="32" t="s">
         <v>17</v>
@@ -9447,7 +9471,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="32" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B401" s="32" t="s">
         <v>17</v>
@@ -9459,7 +9483,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="32" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B402" s="32" t="s">
         <v>17</v>
@@ -9471,7 +9495,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="32" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B403" s="32" t="s">
         <v>17</v>
@@ -9483,7 +9507,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B404" s="32" t="s">
         <v>17</v>
@@ -9495,7 +9519,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="32" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B405" s="32" t="s">
         <v>17</v>
@@ -9507,7 +9531,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="32" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B406" s="32" t="s">
         <v>17</v>
@@ -9519,7 +9543,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="32" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B407" s="32" t="s">
         <v>17</v>
@@ -9531,7 +9555,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="32" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B408" s="32" t="s">
         <v>17</v>
@@ -9543,7 +9567,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="32" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B409" s="32" t="s">
         <v>17</v>
@@ -9555,7 +9579,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="32" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B410" s="32" t="s">
         <v>17</v>
@@ -9567,7 +9591,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B411" s="32" t="s">
         <v>17</v>
@@ -9579,7 +9603,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="32" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B412" s="32" t="s">
         <v>17</v>
@@ -9591,7 +9615,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="32" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B413" s="32" t="s">
         <v>17</v>
@@ -9603,7 +9627,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B414" s="32" t="s">
         <v>17</v>
@@ -9615,7 +9639,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="32" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B415" s="32" t="s">
         <v>17</v>
@@ -9627,7 +9651,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="32" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B416" s="32" t="s">
         <v>17</v>
@@ -9639,7 +9663,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B417" s="32" t="s">
         <v>17</v>
@@ -9651,7 +9675,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B418" s="32" t="s">
         <v>17</v>
@@ -9663,7 +9687,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B419" s="32" t="s">
         <v>17</v>
@@ -9675,7 +9699,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="32" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B420" s="32" t="s">
         <v>17</v>
@@ -9687,7 +9711,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="32" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B421" s="32" t="s">
         <v>17</v>
@@ -9699,7 +9723,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="32" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B422" s="32" t="s">
         <v>17</v>
@@ -9711,7 +9735,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="32" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B423" s="32" t="s">
         <v>17</v>
@@ -9723,7 +9747,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B424" s="32" t="s">
         <v>17</v>
@@ -9735,7 +9759,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B425" s="32" t="s">
         <v>17</v>
@@ -9747,7 +9771,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="32" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B426" s="32" t="s">
         <v>17</v>
@@ -9759,7 +9783,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="32" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B427" s="32" t="s">
         <v>17</v>
@@ -9771,7 +9795,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="32" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B428" s="32" t="s">
         <v>17</v>
@@ -9783,7 +9807,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B429" s="32" t="s">
         <v>17</v>
@@ -9795,7 +9819,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B430" s="32" t="s">
         <v>17</v>
@@ -9807,7 +9831,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B431" s="32" t="s">
         <v>17</v>
@@ -9819,7 +9843,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B432" s="32" t="s">
         <v>17</v>
@@ -9831,7 +9855,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B433" s="32" t="s">
         <v>17</v>
@@ -9843,7 +9867,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B434" s="32" t="s">
         <v>17</v>
@@ -9855,7 +9879,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="32" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B435" s="32" t="s">
         <v>17</v>
@@ -9867,7 +9891,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="32" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B436" s="32" t="s">
         <v>17</v>
@@ -9879,7 +9903,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="32" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B437" s="32" t="s">
         <v>17</v>
@@ -9891,7 +9915,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="32" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B438" s="32" t="s">
         <v>17</v>
@@ -9903,7 +9927,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B439" s="32" t="s">
         <v>17</v>
@@ -9915,7 +9939,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="32" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B440" s="32" t="s">
         <v>17</v>
@@ -9927,7 +9951,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="32" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B441" s="32" t="s">
         <v>17</v>
@@ -9939,7 +9963,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="32" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B442" s="32" t="s">
         <v>17</v>
@@ -9951,7 +9975,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="32" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B443" s="32" t="s">
         <v>17</v>
@@ -9963,7 +9987,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="32" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B444" s="32" t="s">
         <v>17</v>
@@ -9975,7 +9999,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="32" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B445" s="32" t="s">
         <v>17</v>
@@ -9987,7 +10011,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="32" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B446" s="32" t="s">
         <v>17</v>
@@ -9999,7 +10023,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="32" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B447" s="32" t="s">
         <v>17</v>
@@ -10011,7 +10035,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="32" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B448" s="32" t="s">
         <v>17</v>
@@ -10023,7 +10047,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="32" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B449" s="32" t="s">
         <v>17</v>
@@ -10035,7 +10059,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="32" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B450" s="32" t="s">
         <v>17</v>
@@ -10047,7 +10071,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="32" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B451" s="32" t="s">
         <v>17</v>
@@ -10059,7 +10083,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="32" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B452" s="32" t="s">
         <v>17</v>
@@ -10071,7 +10095,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B453" s="32" t="s">
         <v>17</v>
@@ -10083,7 +10107,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B454" s="32" t="s">
         <v>17</v>
@@ -10095,7 +10119,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="32" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B455" s="32" t="s">
         <v>17</v>
@@ -10107,7 +10131,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B456" s="32" t="s">
         <v>17</v>
@@ -10119,7 +10143,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B457" s="32" t="s">
         <v>17</v>
@@ -10131,7 +10155,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B458" s="32" t="s">
         <v>17</v>
@@ -10143,7 +10167,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B459" s="32" t="s">
         <v>17</v>
@@ -10155,7 +10179,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="32" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B460" s="32" t="s">
         <v>17</v>
@@ -10167,7 +10191,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B461" s="32" t="s">
         <v>17</v>
@@ -10179,7 +10203,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="32" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B462" s="32" t="s">
         <v>17</v>
@@ -10191,7 +10215,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B463" s="32" t="s">
         <v>17</v>
@@ -10203,7 +10227,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B464" s="32" t="s">
         <v>17</v>
@@ -10215,7 +10239,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="32" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B465" s="32" t="s">
         <v>17</v>
@@ -10227,7 +10251,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="32" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B466" s="32" t="s">
         <v>17</v>
@@ -10239,7 +10263,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="32" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B467" s="32" t="s">
         <v>17</v>
@@ -10251,7 +10275,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="32" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B468" s="32" t="s">
         <v>17</v>
@@ -10263,7 +10287,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B469" s="32" t="s">
         <v>17</v>
@@ -10275,7 +10299,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B470" s="32" t="s">
         <v>17</v>
@@ -10287,7 +10311,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="32" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B471" s="32" t="s">
         <v>17</v>
@@ -10299,7 +10323,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B472" s="32" t="s">
         <v>17</v>
@@ -10311,7 +10335,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B473" s="32" t="s">
         <v>17</v>
@@ -10323,7 +10347,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="32" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B474" s="32" t="s">
         <v>17</v>
@@ -10335,7 +10359,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="32" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B475" s="32" t="s">
         <v>17</v>
@@ -10347,7 +10371,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="32" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B476" s="32" t="s">
         <v>17</v>
@@ -10359,7 +10383,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="32" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B477" s="32" t="s">
         <v>17</v>
@@ -10371,7 +10395,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="32" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B478" s="32" t="s">
         <v>17</v>
@@ -10383,7 +10407,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="32" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B479" s="32" t="s">
         <v>17</v>
@@ -10395,7 +10419,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="32" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B480" s="32" t="s">
         <v>17</v>
@@ -10407,7 +10431,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B481" s="32" t="s">
         <v>17</v>
@@ -10419,7 +10443,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="32" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B482" s="32" t="s">
         <v>17</v>
@@ -10431,7 +10455,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B483" s="32" t="s">
         <v>17</v>
@@ -10443,7 +10467,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="32" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B484" s="32" t="s">
         <v>17</v>
@@ -10455,7 +10479,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="32" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B485" s="32" t="s">
         <v>17</v>
@@ -10467,7 +10491,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B486" s="32" t="s">
         <v>17</v>
@@ -10479,7 +10503,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B487" s="32" t="s">
         <v>17</v>
@@ -10491,7 +10515,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B488" s="32" t="s">
         <v>17</v>
@@ -10503,7 +10527,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B489" s="32" t="s">
         <v>17</v>
@@ -10515,7 +10539,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="32" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B490" s="32" t="s">
         <v>17</v>
@@ -10527,7 +10551,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="32" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B491" s="32" t="s">
         <v>17</v>
@@ -10539,7 +10563,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B492" s="32" t="s">
         <v>17</v>
@@ -10551,7 +10575,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="32" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B493" s="32" t="s">
         <v>17</v>
@@ -10563,7 +10587,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="32" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B494" s="32" t="s">
         <v>17</v>
@@ -10575,7 +10599,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B495" s="32" t="s">
         <v>17</v>
@@ -10587,7 +10611,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="32" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B496" s="32" t="s">
         <v>17</v>
@@ -10599,7 +10623,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="32" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B497" s="32" t="s">
         <v>17</v>
@@ -10611,7 +10635,7 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="32" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B498" s="32" t="s">
         <v>17</v>
@@ -10623,7 +10647,7 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B499" s="32" t="s">
         <v>17</v>
@@ -10635,7 +10659,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="32" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B500" s="32" t="s">
         <v>17</v>
@@ -10647,7 +10671,7 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="32" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B501" s="32" t="s">
         <v>17</v>
@@ -10659,7 +10683,7 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="32" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B502" s="32" t="s">
         <v>17</v>
@@ -10671,7 +10695,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="32" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B503" s="32" t="s">
         <v>17</v>
@@ -10683,7 +10707,7 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="32" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B504" s="32" t="s">
         <v>17</v>
@@ -10695,7 +10719,7 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="32" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B505" s="32" t="s">
         <v>17</v>
@@ -10707,7 +10731,7 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B506" s="32" t="s">
         <v>17</v>
@@ -10719,7 +10743,7 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B507" s="32" t="s">
         <v>17</v>
@@ -10731,7 +10755,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B508" s="32" t="s">
         <v>17</v>
@@ -10743,7 +10767,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="32" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B509" s="32" t="s">
         <v>17</v>
@@ -10755,7 +10779,7 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="32" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B510" s="32" t="s">
         <v>17</v>
@@ -13774,7 +13798,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -13810,7 +13834,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -13846,7 +13870,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -13882,7 +13906,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -13918,7 +13942,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -13954,7 +13978,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -13990,7 +14014,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -14026,7 +14050,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -14062,7 +14086,7 @@
         <v>67</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -14098,7 +14122,7 @@
         <v>56</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -14134,7 +14158,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -14170,7 +14194,7 @@
         <v>56</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -14206,7 +14230,7 @@
         <v>59</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -14242,7 +14266,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -14278,7 +14302,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -14314,7 +14338,7 @@
         <v>75</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -14350,7 +14374,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -14386,7 +14410,7 @@
         <v>56</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -14422,7 +14446,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -14458,7 +14482,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -14494,7 +14518,7 @@
         <v>81</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -14530,7 +14554,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -14566,7 +14590,7 @@
         <v>84</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -14602,7 +14626,7 @@
         <v>86</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -14638,7 +14662,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -14674,7 +14698,7 @@
         <v>59</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -14710,7 +14734,7 @@
         <v>90</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -14746,7 +14770,7 @@
         <v>92</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -14782,7 +14806,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -14818,7 +14842,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -14854,7 +14878,7 @@
         <v>56</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -14890,7 +14914,7 @@
         <v>97</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
@@ -14926,7 +14950,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -14962,7 +14986,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -14998,7 +15022,7 @@
         <v>101</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -15034,7 +15058,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -15070,7 +15094,7 @@
         <v>56</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
@@ -15106,7 +15130,7 @@
         <v>56</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
@@ -15142,7 +15166,7 @@
         <v>101</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
@@ -15178,7 +15202,7 @@
         <v>92</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
@@ -15214,7 +15238,7 @@
         <v>56</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
@@ -15250,7 +15274,7 @@
         <v>109</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
@@ -15286,7 +15310,7 @@
         <v>59</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -15322,7 +15346,7 @@
         <v>97</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -15358,7 +15382,7 @@
         <v>84</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
@@ -15394,7 +15418,7 @@
         <v>84</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -15430,7 +15454,7 @@
         <v>115</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
@@ -15466,7 +15490,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
@@ -15502,7 +15526,7 @@
         <v>56</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
@@ -15538,7 +15562,7 @@
         <v>90</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
@@ -15574,7 +15598,7 @@
         <v>56</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
@@ -15610,7 +15634,7 @@
         <v>56</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
@@ -15646,7 +15670,7 @@
         <v>56</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
@@ -15682,7 +15706,7 @@
         <v>123</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
@@ -15718,7 +15742,7 @@
         <v>56</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
@@ -15754,7 +15778,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
@@ -15790,7 +15814,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
@@ -15826,7 +15850,7 @@
         <v>56</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
@@ -15862,7 +15886,7 @@
         <v>56</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
@@ -15898,7 +15922,7 @@
         <v>56</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
@@ -15934,7 +15958,7 @@
         <v>56</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
@@ -15970,7 +15994,7 @@
         <v>132</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
@@ -16006,7 +16030,7 @@
         <v>56</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
@@ -16042,7 +16066,7 @@
         <v>56</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
@@ -16078,7 +16102,7 @@
         <v>56</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
@@ -16114,7 +16138,7 @@
         <v>56</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
@@ -16150,7 +16174,7 @@
         <v>56</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
@@ -16186,7 +16210,7 @@
         <v>59</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
@@ -16222,7 +16246,7 @@
         <v>56</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
@@ -16258,7 +16282,7 @@
         <v>84</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
@@ -16294,7 +16318,7 @@
         <v>84</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
@@ -16330,7 +16354,7 @@
         <v>59</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
@@ -16366,7 +16390,7 @@
         <v>144</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
@@ -16402,7 +16426,7 @@
         <v>144</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
@@ -16438,7 +16462,7 @@
         <v>144</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
@@ -16474,7 +16498,7 @@
         <v>101</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
@@ -16510,7 +16534,7 @@
         <v>123</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
@@ -16546,7 +16570,7 @@
         <v>67</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
@@ -16582,7 +16606,7 @@
         <v>67</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
@@ -16618,7 +16642,7 @@
         <v>56</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
@@ -16654,7 +16678,7 @@
         <v>75</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
@@ -16690,7 +16714,7 @@
         <v>56</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
@@ -16726,7 +16750,7 @@
         <v>59</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
@@ -16762,7 +16786,7 @@
         <v>92</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
@@ -16798,7 +16822,7 @@
         <v>84</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
@@ -16834,7 +16858,7 @@
         <v>84</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
@@ -16870,7 +16894,7 @@
         <v>84</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -16906,7 +16930,7 @@
         <v>59</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
@@ -16942,7 +16966,7 @@
         <v>56</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -16978,7 +17002,7 @@
         <v>56</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -17014,7 +17038,7 @@
         <v>56</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -17050,7 +17074,7 @@
         <v>56</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -17086,7 +17110,7 @@
         <v>56</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
@@ -17122,7 +17146,7 @@
         <v>67</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -17158,7 +17182,7 @@
         <v>167</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
@@ -17194,7 +17218,7 @@
         <v>56</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -17230,7 +17254,7 @@
         <v>56</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
@@ -17266,7 +17290,7 @@
         <v>171</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
@@ -17302,7 +17326,7 @@
         <v>84</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E100" s="28"/>
       <c r="F100" s="28"/>
@@ -17338,7 +17362,7 @@
         <v>97</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="28"/>
@@ -17374,7 +17398,7 @@
         <v>97</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
@@ -17410,7 +17434,7 @@
         <v>56</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E103" s="28"/>
       <c r="F103" s="28"/>
@@ -17446,7 +17470,7 @@
         <v>56</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
@@ -17482,7 +17506,7 @@
         <v>56</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E105" s="28"/>
       <c r="F105" s="28"/>
@@ -17518,7 +17542,7 @@
         <v>56</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="28"/>
@@ -17554,7 +17578,7 @@
         <v>56</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="28"/>
@@ -17590,7 +17614,7 @@
         <v>56</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
@@ -17626,7 +17650,7 @@
         <v>182</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="28"/>
@@ -17662,7 +17686,7 @@
         <v>123</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E110" s="28"/>
       <c r="F110" s="28"/>
@@ -17698,7 +17722,7 @@
         <v>56</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E111" s="28"/>
       <c r="F111" s="28"/>
@@ -17734,7 +17758,7 @@
         <v>56</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E112" s="28"/>
       <c r="F112" s="28"/>
@@ -17770,7 +17794,7 @@
         <v>56</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="28"/>
@@ -17806,7 +17830,7 @@
         <v>56</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
@@ -17842,7 +17866,7 @@
         <v>56</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="28"/>
@@ -17878,7 +17902,7 @@
         <v>56</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
@@ -17914,7 +17938,7 @@
         <v>59</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
@@ -17950,7 +17974,7 @@
         <v>59</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E118" s="28"/>
       <c r="F118" s="28"/>
@@ -17986,7 +18010,7 @@
         <v>59</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="28"/>
@@ -18022,7 +18046,7 @@
         <v>59</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
@@ -18058,7 +18082,7 @@
         <v>59</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
@@ -18094,7 +18118,7 @@
         <v>59</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
@@ -18130,7 +18154,7 @@
         <v>59</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
@@ -18166,7 +18190,7 @@
         <v>59</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
@@ -18202,7 +18226,7 @@
         <v>59</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="28"/>
@@ -18238,7 +18262,7 @@
         <v>59</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="28"/>
@@ -18274,7 +18298,7 @@
         <v>59</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="28"/>
@@ -18310,7 +18334,7 @@
         <v>59</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
@@ -18346,7 +18370,7 @@
         <v>59</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E129" s="28"/>
       <c r="F129" s="28"/>
@@ -18382,7 +18406,7 @@
         <v>204</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
@@ -42856,6 +42880,1544 @@
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="6" t="s">
         <v>205</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" ht="14">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" ht="14">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="14">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="14">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="14">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="14">
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="14">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="14">
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="14">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="14">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="14">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="14">
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="2:2" ht="14">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="2:2" ht="14">
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="2:2" ht="14">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="2:2" ht="14">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B67" s="11"/>
+    </row>
+    <row r="68" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="69" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B70" s="11"/>
+    </row>
+    <row r="71" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B71" s="11"/>
+    </row>
+    <row r="72" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="73" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B82" s="11"/>
+    </row>
+    <row r="83" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B83" s="11"/>
+    </row>
+    <row r="84" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B85" s="11"/>
+    </row>
+    <row r="86" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B86" s="11"/>
+    </row>
+    <row r="87" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B87" s="11"/>
+    </row>
+    <row r="88" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="89" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="90" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B90" s="11"/>
+    </row>
+    <row r="91" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B91" s="11"/>
+    </row>
+    <row r="92" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B92" s="11"/>
+    </row>
+    <row r="93" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="94" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B94" s="11"/>
+    </row>
+    <row r="95" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B95" s="11"/>
+    </row>
+    <row r="96" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B96" s="11"/>
+    </row>
+    <row r="97" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="98" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B98" s="11"/>
+    </row>
+    <row r="99" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B99" s="11"/>
+    </row>
+    <row r="100" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B100" s="11"/>
+    </row>
+    <row r="101" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B101" s="11"/>
+    </row>
+    <row r="102" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B102" s="11"/>
+    </row>
+    <row r="103" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B103" s="11"/>
+    </row>
+    <row r="104" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B104" s="11"/>
+    </row>
+    <row r="105" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B105" s="11"/>
+    </row>
+    <row r="106" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B106" s="11"/>
+    </row>
+    <row r="107" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B107" s="11"/>
+    </row>
+    <row r="108" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B108" s="11"/>
+    </row>
+    <row r="109" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B109" s="11"/>
+    </row>
+    <row r="110" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B110" s="11"/>
+    </row>
+    <row r="111" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B111" s="11"/>
+    </row>
+    <row r="112" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B112" s="11"/>
+    </row>
+    <row r="113" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B113" s="11"/>
+    </row>
+    <row r="114" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B114" s="11"/>
+    </row>
+    <row r="115" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B115" s="11"/>
+    </row>
+    <row r="116" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B116" s="11"/>
+    </row>
+    <row r="117" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B117" s="11"/>
+    </row>
+    <row r="118" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B118" s="11"/>
+    </row>
+    <row r="119" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B119" s="11"/>
+    </row>
+    <row r="120" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B120" s="11"/>
+    </row>
+    <row r="121" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B122" s="11"/>
+    </row>
+    <row r="123" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B126" s="11"/>
+    </row>
+    <row r="127" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B128" s="11"/>
+    </row>
+    <row r="129" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B129" s="11"/>
+    </row>
+    <row r="130" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B130" s="11"/>
+    </row>
+    <row r="131" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B131" s="11"/>
+    </row>
+    <row r="132" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B132" s="11"/>
+    </row>
+    <row r="133" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B133" s="11"/>
+    </row>
+    <row r="134" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B134" s="11"/>
+    </row>
+    <row r="135" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B135" s="11"/>
+    </row>
+    <row r="136" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B136" s="11"/>
+    </row>
+    <row r="137" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B137" s="11"/>
+    </row>
+    <row r="138" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B138" s="11"/>
+    </row>
+    <row r="139" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B139" s="11"/>
+    </row>
+    <row r="140" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B140" s="11"/>
+    </row>
+    <row r="141" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B141" s="11"/>
+    </row>
+    <row r="142" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B142" s="11"/>
+    </row>
+    <row r="143" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B143" s="11"/>
+    </row>
+    <row r="144" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B144" s="11"/>
+    </row>
+    <row r="145" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B145" s="11"/>
+    </row>
+    <row r="146" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B146" s="11"/>
+    </row>
+    <row r="147" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B147" s="11"/>
+    </row>
+    <row r="148" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B148" s="11"/>
+    </row>
+    <row r="149" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B149" s="11"/>
+    </row>
+    <row r="150" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B150" s="11"/>
+    </row>
+    <row r="151" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B151" s="11"/>
+    </row>
+    <row r="152" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B152" s="11"/>
+    </row>
+    <row r="153" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B153" s="11"/>
+    </row>
+    <row r="154" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B154" s="11"/>
+    </row>
+    <row r="155" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B155" s="11"/>
+    </row>
+    <row r="156" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B156" s="11"/>
+    </row>
+    <row r="157" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B157" s="11"/>
+    </row>
+    <row r="158" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B158" s="11"/>
+    </row>
+    <row r="159" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B159" s="11"/>
+    </row>
+    <row r="160" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B160" s="11"/>
+    </row>
+    <row r="161" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B161" s="11"/>
+    </row>
+    <row r="162" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B162" s="11"/>
+    </row>
+    <row r="163" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B163" s="11"/>
+    </row>
+    <row r="164" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B164" s="11"/>
+    </row>
+    <row r="165" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B165" s="11"/>
+    </row>
+    <row r="166" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B166" s="11"/>
+    </row>
+    <row r="167" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B167" s="11"/>
+    </row>
+    <row r="168" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B168" s="11"/>
+    </row>
+    <row r="169" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B169" s="11"/>
+    </row>
+    <row r="170" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B170" s="11"/>
+    </row>
+    <row r="171" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B171" s="11"/>
+    </row>
+    <row r="172" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B172" s="11"/>
+    </row>
+    <row r="173" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B173" s="11"/>
+    </row>
+    <row r="174" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B174" s="11"/>
+    </row>
+    <row r="175" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B175" s="11"/>
+    </row>
+    <row r="176" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B176" s="11"/>
+    </row>
+    <row r="177" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B177" s="11"/>
+    </row>
+    <row r="178" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B178" s="11"/>
+    </row>
+    <row r="179" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B179" s="11"/>
+    </row>
+    <row r="180" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B180" s="11"/>
+    </row>
+    <row r="181" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B181" s="11"/>
+    </row>
+    <row r="182" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B182" s="11"/>
+    </row>
+    <row r="183" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B183" s="11"/>
+    </row>
+    <row r="184" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B184" s="11"/>
+    </row>
+    <row r="185" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B185" s="11"/>
+    </row>
+    <row r="186" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B186" s="11"/>
+    </row>
+    <row r="187" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B187" s="11"/>
+    </row>
+    <row r="188" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B188" s="11"/>
+    </row>
+    <row r="189" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B189" s="11"/>
+    </row>
+    <row r="190" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B190" s="11"/>
+    </row>
+    <row r="191" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B191" s="11"/>
+    </row>
+    <row r="192" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B192" s="11"/>
+    </row>
+    <row r="193" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B193" s="11"/>
+    </row>
+    <row r="194" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B194" s="11"/>
+    </row>
+    <row r="195" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B195" s="11"/>
+    </row>
+    <row r="196" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B196" s="11"/>
+    </row>
+    <row r="197" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B197" s="11"/>
+    </row>
+    <row r="198" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B198" s="11"/>
+    </row>
+    <row r="199" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B199" s="11"/>
+    </row>
+    <row r="200" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B200" s="11"/>
+    </row>
+    <row r="201" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B201" s="11"/>
+    </row>
+    <row r="202" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B202" s="11"/>
+    </row>
+    <row r="203" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B203" s="11"/>
+    </row>
+    <row r="204" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B204" s="11"/>
+    </row>
+    <row r="205" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B205" s="11"/>
+    </row>
+    <row r="206" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B206" s="11"/>
+    </row>
+    <row r="207" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B207" s="11"/>
+    </row>
+    <row r="208" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B208" s="11"/>
+    </row>
+    <row r="209" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B209" s="11"/>
+    </row>
+    <row r="210" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B210" s="11"/>
+    </row>
+    <row r="211" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B211" s="11"/>
+    </row>
+    <row r="212" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B212" s="11"/>
+    </row>
+    <row r="213" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B213" s="11"/>
+    </row>
+    <row r="214" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B214" s="11"/>
+    </row>
+    <row r="215" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B215" s="11"/>
+    </row>
+    <row r="216" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B216" s="11"/>
+    </row>
+    <row r="217" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B217" s="11"/>
+    </row>
+    <row r="218" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B218" s="11"/>
+    </row>
+    <row r="219" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B219" s="11"/>
+    </row>
+    <row r="220" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B220" s="11"/>
+    </row>
+    <row r="221" spans="2:2" ht="13"/>
+    <row r="222" spans="2:2" ht="13"/>
+    <row r="223" spans="2:2" ht="13"/>
+    <row r="224" spans="2:2" ht="13"/>
+    <row r="225" ht="13"/>
+    <row r="226" ht="13"/>
+    <row r="227" ht="13"/>
+    <row r="228" ht="13"/>
+    <row r="229" ht="13"/>
+    <row r="230" ht="13"/>
+    <row r="231" ht="13"/>
+    <row r="232" ht="13"/>
+    <row r="233" ht="13"/>
+    <row r="234" ht="13"/>
+    <row r="235" ht="13"/>
+    <row r="236" ht="13"/>
+    <row r="237" ht="13"/>
+    <row r="238" ht="13"/>
+    <row r="239" ht="13"/>
+    <row r="240" ht="13"/>
+    <row r="241" ht="13"/>
+    <row r="242" ht="13"/>
+    <row r="243" ht="13"/>
+    <row r="244" ht="13"/>
+    <row r="245" ht="13"/>
+    <row r="246" ht="13"/>
+    <row r="247" ht="13"/>
+    <row r="248" ht="13"/>
+    <row r="249" ht="13"/>
+    <row r="250" ht="13"/>
+    <row r="251" ht="13"/>
+    <row r="252" ht="13"/>
+    <row r="253" ht="13"/>
+    <row r="254" ht="13"/>
+    <row r="255" ht="13"/>
+    <row r="256" ht="13"/>
+    <row r="257" ht="13"/>
+    <row r="258" ht="13"/>
+    <row r="259" ht="13"/>
+    <row r="260" ht="13"/>
+    <row r="261" ht="13"/>
+    <row r="262" ht="13"/>
+    <row r="263" ht="13"/>
+    <row r="264" ht="13"/>
+    <row r="265" ht="13"/>
+    <row r="266" ht="13"/>
+    <row r="267" ht="13"/>
+    <row r="268" ht="13"/>
+    <row r="269" ht="13"/>
+    <row r="270" ht="13"/>
+    <row r="271" ht="13"/>
+    <row r="272" ht="13"/>
+    <row r="273" ht="13"/>
+    <row r="274" ht="13"/>
+    <row r="275" ht="13"/>
+    <row r="276" ht="13"/>
+    <row r="277" ht="13"/>
+    <row r="278" ht="13"/>
+    <row r="279" ht="13"/>
+    <row r="280" ht="13"/>
+    <row r="281" ht="13"/>
+    <row r="282" ht="13"/>
+    <row r="283" ht="13"/>
+    <row r="284" ht="13"/>
+    <row r="285" ht="13"/>
+    <row r="286" ht="13"/>
+    <row r="287" ht="13"/>
+    <row r="288" ht="13"/>
+    <row r="289" ht="13"/>
+    <row r="290" ht="13"/>
+    <row r="291" ht="13"/>
+    <row r="292" ht="13"/>
+    <row r="293" ht="13"/>
+    <row r="294" ht="13"/>
+    <row r="295" ht="13"/>
+    <row r="296" ht="13"/>
+    <row r="297" ht="13"/>
+    <row r="298" ht="13"/>
+    <row r="299" ht="13"/>
+    <row r="300" ht="13"/>
+    <row r="301" ht="13"/>
+    <row r="302" ht="13"/>
+    <row r="303" ht="13"/>
+    <row r="304" ht="13"/>
+    <row r="305" ht="13"/>
+    <row r="306" ht="13"/>
+    <row r="307" ht="13"/>
+    <row r="308" ht="13"/>
+    <row r="309" ht="13"/>
+    <row r="310" ht="13"/>
+    <row r="311" ht="13"/>
+    <row r="312" ht="13"/>
+    <row r="313" ht="13"/>
+    <row r="314" ht="13"/>
+    <row r="315" ht="13"/>
+    <row r="316" ht="13"/>
+    <row r="317" ht="13"/>
+    <row r="318" ht="13"/>
+    <row r="319" ht="13"/>
+    <row r="320" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
+    <row r="1000" ht="13"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B59F15-B4D4-F34B-AA69-6ACF30709DAB}">
+  <dimension ref="A1:N1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="14" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15">
+      <c r="A2" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15">
+      <c r="A3" s="6" t="s">
+        <v>750</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/OPG/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliot.smith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC19187-0F09-F04A-82D0-4E3D75AAE787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5962683A-0F6A-1D45-A200-CB848563F584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="8980" windowWidth="38380" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="960" windowWidth="38380" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="720">
   <si>
     <t>table_name</t>
   </si>
@@ -132,12 +132,6 @@
     <t>SUP_ACTIVITY</t>
   </si>
   <si>
-    <t>NEXT_ACTIVITY_DUE</t>
-  </si>
-  <si>
-    <t>Next Due</t>
-  </si>
-  <si>
     <t>activedate</t>
   </si>
   <si>
@@ -2088,9 +2082,6 @@
     <t>cases:id</t>
   </si>
   <si>
-    <t>Case, Status, Order No</t>
-  </si>
-  <si>
     <t>B48</t>
   </si>
   <si>
@@ -2188,6 +2179,12 @@
   </si>
   <si>
     <t>V32</t>
+  </si>
+  <si>
+    <t>Mapped from Target or Start Date casrec column in tasks transform</t>
+  </si>
+  <si>
+    <t>Case, Status, Order No, Target</t>
   </si>
 </sst>
 </file>
@@ -2603,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF42D79-4151-C94E-B150-CAB1CD330C33}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2618,28 +2615,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1">
       <c r="A1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2653,44 +2650,44 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H2" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2704,7 +2701,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2835,10 +2832,10 @@
         <v>34</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M3" s="7">
         <v>2657</v>
@@ -2869,13 +2866,13 @@
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P4" s="19" t="s">
         <v>21</v>
@@ -2918,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="15" customFormat="1" ht="15">
@@ -2963,18 +2960,15 @@
       <c r="E8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="7"/>
       <c r="P8" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="Q8" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15">
       <c r="A9" s="6" t="s">
@@ -2984,7 +2978,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>33</v>
@@ -2996,10 +2990,10 @@
         <v>34</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>21</v>
@@ -3013,7 +3007,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>27</v>
@@ -3037,7 +3031,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>27</v>
@@ -3049,10 +3043,10 @@
         <v>34</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
@@ -3066,7 +3060,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>33</v>
@@ -3086,7 +3080,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>33</v>
@@ -3098,10 +3092,10 @@
         <v>34</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>21</v>
@@ -3115,10 +3109,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="6" t="b">
         <v>0</v>
@@ -3138,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>19</v>
@@ -4558,7 +4552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DF6ECF-5AE3-8A43-AD4D-9889B3A07CBB}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4572,21 +4566,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14">
       <c r="A1" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>17</v>
@@ -4598,7 +4592,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="30" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>17</v>
@@ -4610,7 +4604,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>17</v>
@@ -4622,7 +4616,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>17</v>
@@ -4634,7 +4628,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="30" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>17</v>
@@ -4646,7 +4640,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>17</v>
@@ -4658,7 +4652,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="30" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>17</v>
@@ -4670,7 +4664,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="30" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>17</v>
@@ -4682,7 +4676,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>17</v>
@@ -4694,7 +4688,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>17</v>
@@ -4706,7 +4700,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="30" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>17</v>
@@ -4718,7 +4712,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>17</v>
@@ -4730,7 +4724,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="30" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>17</v>
@@ -4742,7 +4736,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>17</v>
@@ -4754,7 +4748,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="30" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>17</v>
@@ -4766,7 +4760,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="30" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>17</v>
@@ -4778,7 +4772,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>17</v>
@@ -4790,7 +4784,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>17</v>
@@ -4802,7 +4796,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>17</v>
@@ -4814,7 +4808,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>17</v>
@@ -4826,7 +4820,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>17</v>
@@ -4838,7 +4832,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>17</v>
@@ -4850,7 +4844,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="30" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>17</v>
@@ -4862,7 +4856,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>17</v>
@@ -4874,7 +4868,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>17</v>
@@ -4886,7 +4880,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="30" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>17</v>
@@ -4898,7 +4892,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>17</v>
@@ -4910,7 +4904,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>17</v>
@@ -4922,7 +4916,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="30" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>17</v>
@@ -4934,7 +4928,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>17</v>
@@ -4946,7 +4940,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="30" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>17</v>
@@ -4958,7 +4952,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>17</v>
@@ -4970,7 +4964,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="30" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>17</v>
@@ -4982,7 +4976,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>17</v>
@@ -4994,7 +4988,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>17</v>
@@ -5006,7 +5000,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="30" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>17</v>
@@ -5018,7 +5012,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>17</v>
@@ -5030,7 +5024,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>17</v>
@@ -5042,7 +5036,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="30" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>17</v>
@@ -5054,7 +5048,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>17</v>
@@ -5066,7 +5060,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>17</v>
@@ -5078,7 +5072,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="30" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>17</v>
@@ -5090,7 +5084,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="30" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>17</v>
@@ -5102,7 +5096,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="30" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>17</v>
@@ -5114,7 +5108,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="30" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>17</v>
@@ -5126,7 +5120,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>17</v>
@@ -5138,7 +5132,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>17</v>
@@ -5150,7 +5144,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>17</v>
@@ -5162,7 +5156,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="30" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>17</v>
@@ -5174,7 +5168,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="30" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>17</v>
@@ -5186,7 +5180,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="30" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>17</v>
@@ -5198,7 +5192,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>17</v>
@@ -5210,7 +5204,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="30" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>17</v>
@@ -5222,7 +5216,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>17</v>
@@ -5234,7 +5228,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>17</v>
@@ -5246,7 +5240,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>17</v>
@@ -5258,7 +5252,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B58" s="30" t="s">
         <v>17</v>
@@ -5270,7 +5264,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B59" s="30" t="s">
         <v>17</v>
@@ -5282,7 +5276,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="30" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>17</v>
@@ -5294,7 +5288,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="30" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>17</v>
@@ -5306,7 +5300,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>17</v>
@@ -5318,7 +5312,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="30" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>17</v>
@@ -5330,7 +5324,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="30" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>17</v>
@@ -5342,7 +5336,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>17</v>
@@ -5354,7 +5348,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="30" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>17</v>
@@ -5366,7 +5360,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>17</v>
@@ -5378,7 +5372,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>17</v>
@@ -5390,7 +5384,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>17</v>
@@ -5402,7 +5396,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>17</v>
@@ -5414,7 +5408,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="30" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>17</v>
@@ -5426,7 +5420,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="30" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>17</v>
@@ -5438,7 +5432,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="30" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>17</v>
@@ -5450,7 +5444,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B74" s="30" t="s">
         <v>17</v>
@@ -5462,7 +5456,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>17</v>
@@ -5474,7 +5468,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>17</v>
@@ -5486,7 +5480,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="30" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>17</v>
@@ -5498,7 +5492,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="30" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>17</v>
@@ -5510,7 +5504,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>17</v>
@@ -5522,7 +5516,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>17</v>
@@ -5534,7 +5528,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>17</v>
@@ -5546,7 +5540,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>17</v>
@@ -5558,7 +5552,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>17</v>
@@ -5570,7 +5564,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="30" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>17</v>
@@ -5582,7 +5576,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="30" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>17</v>
@@ -5594,7 +5588,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="30" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>17</v>
@@ -5606,7 +5600,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="30" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>17</v>
@@ -5618,7 +5612,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="30" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>17</v>
@@ -5630,7 +5624,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B89" s="30" t="s">
         <v>17</v>
@@ -5642,7 +5636,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>17</v>
@@ -5654,7 +5648,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>17</v>
@@ -5666,7 +5660,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>17</v>
@@ -5678,7 +5672,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>17</v>
@@ -5690,7 +5684,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="30" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>17</v>
@@ -5702,7 +5696,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>17</v>
@@ -5714,7 +5708,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>17</v>
@@ -5726,7 +5720,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>17</v>
@@ -5738,7 +5732,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>17</v>
@@ -5750,7 +5744,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="30" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>17</v>
@@ -5762,7 +5756,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="30" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>17</v>
@@ -5774,7 +5768,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="30" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>17</v>
@@ -5786,7 +5780,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>17</v>
@@ -5798,7 +5792,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>17</v>
@@ -5810,7 +5804,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>17</v>
@@ -5822,7 +5816,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>17</v>
@@ -5834,7 +5828,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>17</v>
@@ -5846,7 +5840,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>17</v>
@@ -5858,7 +5852,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="30" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>17</v>
@@ -5870,7 +5864,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="30" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>17</v>
@@ -5882,7 +5876,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>17</v>
@@ -5894,7 +5888,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B111" s="30" t="s">
         <v>17</v>
@@ -5906,7 +5900,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>17</v>
@@ -5918,7 +5912,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="30" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>17</v>
@@ -5930,7 +5924,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>17</v>
@@ -5942,7 +5936,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="30" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>17</v>
@@ -5954,7 +5948,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>17</v>
@@ -5966,7 +5960,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="30" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>17</v>
@@ -5978,7 +5972,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="30" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>17</v>
@@ -5990,7 +5984,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="30" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>17</v>
@@ -6002,7 +5996,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="30" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>17</v>
@@ -6014,7 +6008,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>17</v>
@@ -6026,7 +6020,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>17</v>
@@ -6038,7 +6032,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="30" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>17</v>
@@ -6050,7 +6044,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="30" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>17</v>
@@ -6062,7 +6056,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>17</v>
@@ -6074,7 +6068,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>17</v>
@@ -6086,7 +6080,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="30" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>17</v>
@@ -6098,7 +6092,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>17</v>
@@ -6110,7 +6104,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="30" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B129" s="30" t="s">
         <v>17</v>
@@ -6122,7 +6116,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B130" s="30" t="s">
         <v>17</v>
@@ -6134,7 +6128,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B131" s="30" t="s">
         <v>17</v>
@@ -6146,7 +6140,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B132" s="30" t="s">
         <v>17</v>
@@ -6158,7 +6152,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B133" s="30" t="s">
         <v>17</v>
@@ -6170,7 +6164,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="30" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B134" s="30" t="s">
         <v>17</v>
@@ -6182,7 +6176,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="30" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B135" s="30" t="s">
         <v>17</v>
@@ -6194,7 +6188,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B136" s="30" t="s">
         <v>17</v>
@@ -6206,7 +6200,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B137" s="30" t="s">
         <v>17</v>
@@ -6218,7 +6212,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="30" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B138" s="30" t="s">
         <v>17</v>
@@ -6230,7 +6224,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="30" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B139" s="30" t="s">
         <v>17</v>
@@ -6242,7 +6236,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="30" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B140" s="30" t="s">
         <v>17</v>
@@ -6254,7 +6248,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B141" s="30" t="s">
         <v>17</v>
@@ -6266,7 +6260,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="30" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B142" s="30" t="s">
         <v>17</v>
@@ -6278,7 +6272,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B143" s="30" t="s">
         <v>17</v>
@@ -6290,7 +6284,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B144" s="30" t="s">
         <v>17</v>
@@ -6302,7 +6296,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B145" s="30" t="s">
         <v>17</v>
@@ -6314,7 +6308,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B146" s="30" t="s">
         <v>17</v>
@@ -6326,7 +6320,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="30" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B147" s="30" t="s">
         <v>17</v>
@@ -6338,7 +6332,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="30" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B148" s="30" t="s">
         <v>17</v>
@@ -6350,7 +6344,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B149" s="30" t="s">
         <v>17</v>
@@ -6362,7 +6356,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="30" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B150" s="30" t="s">
         <v>17</v>
@@ -6374,7 +6368,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="30" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B151" s="30" t="s">
         <v>17</v>
@@ -6386,7 +6380,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="30" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B152" s="30" t="s">
         <v>17</v>
@@ -6398,7 +6392,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="30" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B153" s="30" t="s">
         <v>17</v>
@@ -6410,7 +6404,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B154" s="30" t="s">
         <v>17</v>
@@ -6422,7 +6416,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="30" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B155" s="30" t="s">
         <v>17</v>
@@ -6434,7 +6428,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B156" s="30" t="s">
         <v>17</v>
@@ -6446,7 +6440,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="30" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B157" s="30" t="s">
         <v>17</v>
@@ -6458,7 +6452,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B158" s="30" t="s">
         <v>17</v>
@@ -6470,7 +6464,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B159" s="30" t="s">
         <v>17</v>
@@ -6482,7 +6476,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="30" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B160" s="30" t="s">
         <v>17</v>
@@ -6494,7 +6488,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B161" s="30" t="s">
         <v>17</v>
@@ -6506,7 +6500,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B162" s="30" t="s">
         <v>17</v>
@@ -6518,7 +6512,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B163" s="30" t="s">
         <v>17</v>
@@ -6530,7 +6524,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="30" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B164" s="30" t="s">
         <v>17</v>
@@ -6542,7 +6536,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B165" s="30" t="s">
         <v>17</v>
@@ -6554,7 +6548,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B166" s="30" t="s">
         <v>17</v>
@@ -6566,7 +6560,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B167" s="30" t="s">
         <v>17</v>
@@ -6578,7 +6572,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="30" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B168" s="30" t="s">
         <v>17</v>
@@ -6590,7 +6584,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="30" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B169" s="30" t="s">
         <v>17</v>
@@ -6602,7 +6596,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" s="30" t="s">
         <v>17</v>
@@ -6614,7 +6608,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B171" s="30" t="s">
         <v>17</v>
@@ -6626,7 +6620,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B172" s="30" t="s">
         <v>17</v>
@@ -6638,7 +6632,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="30" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B173" s="30" t="s">
         <v>17</v>
@@ -6650,7 +6644,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B174" s="30" t="s">
         <v>17</v>
@@ -6662,7 +6656,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B175" s="30" t="s">
         <v>17</v>
@@ -6674,7 +6668,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B176" s="30" t="s">
         <v>17</v>
@@ -6686,7 +6680,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="30" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B177" s="30" t="s">
         <v>17</v>
@@ -6698,7 +6692,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="30" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B178" s="30" t="s">
         <v>17</v>
@@ -6710,7 +6704,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="30" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B179" s="30" t="s">
         <v>17</v>
@@ -6722,7 +6716,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B180" s="30" t="s">
         <v>17</v>
@@ -6734,7 +6728,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B181" s="30" t="s">
         <v>17</v>
@@ -6746,7 +6740,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B182" s="30" t="s">
         <v>17</v>
@@ -6758,7 +6752,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B183" s="30" t="s">
         <v>17</v>
@@ -6770,7 +6764,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B184" s="30" t="s">
         <v>17</v>
@@ -6782,7 +6776,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="30" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B185" s="30" t="s">
         <v>17</v>
@@ -6794,7 +6788,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B186" s="30" t="s">
         <v>17</v>
@@ -6806,7 +6800,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="30" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B187" s="30" t="s">
         <v>17</v>
@@ -6818,7 +6812,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B188" s="30" t="s">
         <v>17</v>
@@ -6830,7 +6824,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B189" s="30" t="s">
         <v>17</v>
@@ -6842,7 +6836,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="30" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B190" s="30" t="s">
         <v>17</v>
@@ -6854,7 +6848,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="30" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B191" s="30" t="s">
         <v>17</v>
@@ -6866,7 +6860,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="30" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B192" s="30" t="s">
         <v>17</v>
@@ -6878,7 +6872,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B193" s="30" t="s">
         <v>17</v>
@@ -6890,7 +6884,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B194" s="30" t="s">
         <v>17</v>
@@ -6902,7 +6896,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B195" s="30" t="s">
         <v>17</v>
@@ -6914,7 +6908,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="30" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B196" s="30" t="s">
         <v>17</v>
@@ -6926,7 +6920,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B197" s="30" t="s">
         <v>17</v>
@@ -6938,7 +6932,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B198" s="30" t="s">
         <v>17</v>
@@ -6950,7 +6944,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B199" s="30" t="s">
         <v>17</v>
@@ -6962,7 +6956,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B200" s="30" t="s">
         <v>17</v>
@@ -6974,7 +6968,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="30" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B201" s="30" t="s">
         <v>17</v>
@@ -6986,7 +6980,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="30" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B202" s="30" t="s">
         <v>17</v>
@@ -6998,7 +6992,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B203" s="30" t="s">
         <v>17</v>
@@ -7010,7 +7004,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="30" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B204" s="30" t="s">
         <v>17</v>
@@ -7022,7 +7016,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B205" s="30" t="s">
         <v>17</v>
@@ -7034,7 +7028,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B206" s="30" t="s">
         <v>17</v>
@@ -7046,7 +7040,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="30" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B207" s="30" t="s">
         <v>17</v>
@@ -7058,7 +7052,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B208" s="30" t="s">
         <v>17</v>
@@ -7070,7 +7064,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="30" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B209" s="30" t="s">
         <v>17</v>
@@ -7082,7 +7076,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="30" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B210" s="30" t="s">
         <v>17</v>
@@ -7094,7 +7088,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="30" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B211" s="30" t="s">
         <v>17</v>
@@ -7106,7 +7100,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="30" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B212" s="30" t="s">
         <v>17</v>
@@ -7118,7 +7112,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="30" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B213" s="30" t="s">
         <v>17</v>
@@ -7130,7 +7124,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B214" s="30" t="s">
         <v>17</v>
@@ -7142,7 +7136,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B215" s="30" t="s">
         <v>17</v>
@@ -7154,7 +7148,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="30" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B216" s="30" t="s">
         <v>17</v>
@@ -7166,7 +7160,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="30" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B217" s="30" t="s">
         <v>17</v>
@@ -7178,7 +7172,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="30" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B218" s="30" t="s">
         <v>17</v>
@@ -7190,7 +7184,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B219" s="30" t="s">
         <v>17</v>
@@ -7202,7 +7196,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B220" s="30" t="s">
         <v>17</v>
@@ -7214,7 +7208,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B221" s="30" t="s">
         <v>17</v>
@@ -7226,7 +7220,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="30" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B222" s="30" t="s">
         <v>17</v>
@@ -7238,7 +7232,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B223" s="30" t="s">
         <v>17</v>
@@ -7250,7 +7244,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="30" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B224" s="30" t="s">
         <v>17</v>
@@ -7262,7 +7256,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="30" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B225" s="30" t="s">
         <v>17</v>
@@ -7274,7 +7268,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="30" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B226" s="30" t="s">
         <v>17</v>
@@ -7286,7 +7280,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="30" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B227" s="30" t="s">
         <v>17</v>
@@ -7298,7 +7292,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B228" s="30" t="s">
         <v>17</v>
@@ -7310,7 +7304,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B229" s="30" t="s">
         <v>17</v>
@@ -7322,7 +7316,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="30" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B230" s="30" t="s">
         <v>17</v>
@@ -7334,7 +7328,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="30" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B231" s="30" t="s">
         <v>17</v>
@@ -7346,7 +7340,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="30" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B232" s="30" t="s">
         <v>17</v>
@@ -7358,7 +7352,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B233" s="30" t="s">
         <v>17</v>
@@ -7370,7 +7364,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B234" s="30" t="s">
         <v>17</v>
@@ -7382,7 +7376,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="30" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B235" s="30" t="s">
         <v>17</v>
@@ -7394,7 +7388,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B236" s="30" t="s">
         <v>17</v>
@@ -7406,7 +7400,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="30" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B237" s="30" t="s">
         <v>17</v>
@@ -7418,7 +7412,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="30" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B238" s="30" t="s">
         <v>17</v>
@@ -7430,7 +7424,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B239" s="30" t="s">
         <v>17</v>
@@ -7442,7 +7436,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B240" s="30" t="s">
         <v>17</v>
@@ -7454,7 +7448,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="30" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B241" s="30" t="s">
         <v>17</v>
@@ -7466,7 +7460,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="30" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B242" s="30" t="s">
         <v>17</v>
@@ -7478,7 +7472,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B243" s="30" t="s">
         <v>17</v>
@@ -7490,7 +7484,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="30" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B244" s="30" t="s">
         <v>17</v>
@@ -7502,7 +7496,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B245" s="30" t="s">
         <v>17</v>
@@ -7514,7 +7508,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="30" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B246" s="30" t="s">
         <v>17</v>
@@ -7526,7 +7520,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B247" s="30" t="s">
         <v>17</v>
@@ -7538,7 +7532,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B248" s="30" t="s">
         <v>17</v>
@@ -7550,7 +7544,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="30" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B249" s="30" t="s">
         <v>17</v>
@@ -7562,7 +7556,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B250" s="30" t="s">
         <v>17</v>
@@ -7574,7 +7568,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="30" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B251" s="30" t="s">
         <v>17</v>
@@ -7586,7 +7580,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B252" s="30" t="s">
         <v>17</v>
@@ -7598,7 +7592,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="30" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B253" s="30" t="s">
         <v>17</v>
@@ -7610,7 +7604,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B254" s="30" t="s">
         <v>17</v>
@@ -7622,7 +7616,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B255" s="30" t="s">
         <v>17</v>
@@ -7634,7 +7628,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="30" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B256" s="30" t="s">
         <v>17</v>
@@ -7646,7 +7640,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B257" s="30" t="s">
         <v>17</v>
@@ -7658,7 +7652,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B258" s="30" t="s">
         <v>17</v>
@@ -7670,7 +7664,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="30" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B259" s="30" t="s">
         <v>17</v>
@@ -7682,7 +7676,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="30" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B260" s="30" t="s">
         <v>17</v>
@@ -7694,7 +7688,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="30" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B261" s="30" t="s">
         <v>17</v>
@@ -7706,7 +7700,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B262" s="30" t="s">
         <v>17</v>
@@ -7718,7 +7712,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="30" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B263" s="30" t="s">
         <v>17</v>
@@ -7730,7 +7724,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="30" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B264" s="30" t="s">
         <v>17</v>
@@ -7742,7 +7736,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="30" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B265" s="30" t="s">
         <v>17</v>
@@ -7754,7 +7748,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="30" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B266" s="30" t="s">
         <v>17</v>
@@ -7766,7 +7760,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B267" s="30" t="s">
         <v>17</v>
@@ -7778,7 +7772,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B268" s="30" t="s">
         <v>17</v>
@@ -7790,7 +7784,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B269" s="30" t="s">
         <v>17</v>
@@ -7802,7 +7796,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B270" s="30" t="s">
         <v>17</v>
@@ -7814,7 +7808,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="30" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B271" s="30" t="s">
         <v>17</v>
@@ -7826,7 +7820,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="30" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B272" s="30" t="s">
         <v>17</v>
@@ -7838,7 +7832,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B273" s="30" t="s">
         <v>17</v>
@@ -7850,7 +7844,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="30" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B274" s="30" t="s">
         <v>17</v>
@@ -7862,7 +7856,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B275" s="30" t="s">
         <v>17</v>
@@ -7874,7 +7868,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="30" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B276" s="30" t="s">
         <v>17</v>
@@ -7886,7 +7880,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B277" s="30" t="s">
         <v>17</v>
@@ -7898,7 +7892,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B278" s="30" t="s">
         <v>17</v>
@@ -7910,7 +7904,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B279" s="30" t="s">
         <v>17</v>
@@ -7922,7 +7916,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="30" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B280" s="30" t="s">
         <v>17</v>
@@ -7934,7 +7928,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B281" s="30" t="s">
         <v>17</v>
@@ -7946,7 +7940,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="30" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B282" s="30" t="s">
         <v>17</v>
@@ -7958,7 +7952,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="30" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B283" s="30" t="s">
         <v>17</v>
@@ -7970,7 +7964,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B284" s="30" t="s">
         <v>17</v>
@@ -7982,7 +7976,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B285" s="30" t="s">
         <v>17</v>
@@ -7994,7 +7988,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B286" s="30" t="s">
         <v>17</v>
@@ -8006,7 +8000,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="30" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B287" s="30" t="s">
         <v>17</v>
@@ -8018,7 +8012,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B288" s="30" t="s">
         <v>17</v>
@@ -8030,7 +8024,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B289" s="30" t="s">
         <v>17</v>
@@ -8042,7 +8036,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="30" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B290" s="30" t="s">
         <v>17</v>
@@ -8054,7 +8048,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="30" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B291" s="30" t="s">
         <v>17</v>
@@ -8066,7 +8060,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="30" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B292" s="30" t="s">
         <v>17</v>
@@ -8078,7 +8072,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B293" s="30" t="s">
         <v>17</v>
@@ -8090,7 +8084,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="30" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B294" s="30" t="s">
         <v>17</v>
@@ -8102,7 +8096,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B295" s="30" t="s">
         <v>17</v>
@@ -8114,7 +8108,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="30" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B296" s="30" t="s">
         <v>17</v>
@@ -8126,7 +8120,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B297" s="30" t="s">
         <v>17</v>
@@ -8138,7 +8132,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B298" s="30" t="s">
         <v>17</v>
@@ -8150,7 +8144,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="30" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B299" s="30" t="s">
         <v>17</v>
@@ -8162,7 +8156,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="30" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B300" s="30" t="s">
         <v>17</v>
@@ -8174,7 +8168,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="30" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B301" s="30" t="s">
         <v>17</v>
@@ -8186,7 +8180,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B302" s="30" t="s">
         <v>17</v>
@@ -8198,7 +8192,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B303" s="30" t="s">
         <v>17</v>
@@ -8210,7 +8204,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B304" s="30" t="s">
         <v>17</v>
@@ -8222,7 +8216,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B305" s="30" t="s">
         <v>17</v>
@@ -8234,7 +8228,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="30" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B306" s="30" t="s">
         <v>17</v>
@@ -8246,7 +8240,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B307" s="30" t="s">
         <v>17</v>
@@ -8258,7 +8252,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B308" s="30" t="s">
         <v>17</v>
@@ -8270,7 +8264,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B309" s="30" t="s">
         <v>17</v>
@@ -8282,7 +8276,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="30" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B310" s="30" t="s">
         <v>17</v>
@@ -8294,7 +8288,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B311" s="30" t="s">
         <v>17</v>
@@ -8306,7 +8300,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B312" s="30" t="s">
         <v>17</v>
@@ -8318,7 +8312,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B313" s="30" t="s">
         <v>17</v>
@@ -8330,7 +8324,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="30" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B314" s="30" t="s">
         <v>17</v>
@@ -8342,7 +8336,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B315" s="30" t="s">
         <v>17</v>
@@ -8354,7 +8348,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B316" s="30" t="s">
         <v>17</v>
@@ -8366,7 +8360,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B317" s="30" t="s">
         <v>17</v>
@@ -8378,7 +8372,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B318" s="30" t="s">
         <v>17</v>
@@ -8390,7 +8384,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="30" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B319" s="30" t="s">
         <v>17</v>
@@ -8402,7 +8396,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="30" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B320" s="30" t="s">
         <v>17</v>
@@ -8414,7 +8408,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="30" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B321" s="30" t="s">
         <v>17</v>
@@ -8426,7 +8420,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="30" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B322" s="30" t="s">
         <v>17</v>
@@ -8438,7 +8432,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="30" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B323" s="30" t="s">
         <v>17</v>
@@ -8450,7 +8444,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="30" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B324" s="30" t="s">
         <v>17</v>
@@ -8462,7 +8456,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B325" s="30" t="s">
         <v>17</v>
@@ -8474,7 +8468,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B326" s="30" t="s">
         <v>17</v>
@@ -8486,7 +8480,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="30" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B327" s="30" t="s">
         <v>17</v>
@@ -8498,7 +8492,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B328" s="30" t="s">
         <v>17</v>
@@ -8510,7 +8504,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B329" s="30" t="s">
         <v>17</v>
@@ -8522,7 +8516,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="30" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B330" s="30" t="s">
         <v>17</v>
@@ -8534,7 +8528,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B331" s="30" t="s">
         <v>17</v>
@@ -8546,7 +8540,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="30" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B332" s="30" t="s">
         <v>17</v>
@@ -8558,7 +8552,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="30" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B333" s="30" t="s">
         <v>17</v>
@@ -8570,7 +8564,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B334" s="30" t="s">
         <v>17</v>
@@ -8582,7 +8576,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="30" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B335" s="30" t="s">
         <v>17</v>
@@ -8594,7 +8588,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B336" s="30" t="s">
         <v>17</v>
@@ -8606,7 +8600,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B337" s="30" t="s">
         <v>17</v>
@@ -8618,7 +8612,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B338" s="30" t="s">
         <v>17</v>
@@ -8630,7 +8624,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B339" s="30" t="s">
         <v>17</v>
@@ -8642,7 +8636,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="30" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B340" s="30" t="s">
         <v>17</v>
@@ -8654,7 +8648,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B341" s="30" t="s">
         <v>17</v>
@@ -8666,7 +8660,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="30" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B342" s="30" t="s">
         <v>17</v>
@@ -8678,7 +8672,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="30" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B343" s="30" t="s">
         <v>17</v>
@@ -8690,7 +8684,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="30" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B344" s="30" t="s">
         <v>17</v>
@@ -8702,7 +8696,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="30" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B345" s="30" t="s">
         <v>17</v>
@@ -8714,7 +8708,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B346" s="30" t="s">
         <v>17</v>
@@ -8726,7 +8720,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="30" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B347" s="30" t="s">
         <v>17</v>
@@ -8738,7 +8732,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="30" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B348" s="30" t="s">
         <v>17</v>
@@ -8750,7 +8744,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B349" s="30" t="s">
         <v>17</v>
@@ -8762,7 +8756,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="30" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B350" s="30" t="s">
         <v>17</v>
@@ -8774,7 +8768,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B351" s="30" t="s">
         <v>17</v>
@@ -8786,7 +8780,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="30" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B352" s="30" t="s">
         <v>17</v>
@@ -8798,7 +8792,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="30" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B353" s="30" t="s">
         <v>17</v>
@@ -8810,7 +8804,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B354" s="30" t="s">
         <v>17</v>
@@ -8822,7 +8816,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B355" s="30" t="s">
         <v>17</v>
@@ -8834,7 +8828,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B356" s="30" t="s">
         <v>17</v>
@@ -8846,7 +8840,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="30" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B357" s="30" t="s">
         <v>17</v>
@@ -8858,7 +8852,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="30" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B358" s="30" t="s">
         <v>17</v>
@@ -8870,7 +8864,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B359" s="30" t="s">
         <v>17</v>
@@ -8882,7 +8876,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="30" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B360" s="30" t="s">
         <v>17</v>
@@ -8894,7 +8888,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="30" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B361" s="30" t="s">
         <v>17</v>
@@ -8906,7 +8900,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B362" s="30" t="s">
         <v>17</v>
@@ -8918,7 +8912,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B363" s="30" t="s">
         <v>17</v>
@@ -8930,7 +8924,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B364" s="30" t="s">
         <v>17</v>
@@ -8942,7 +8936,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="30" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B365" s="30" t="s">
         <v>17</v>
@@ -8954,7 +8948,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="30" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B366" s="30" t="s">
         <v>17</v>
@@ -8966,7 +8960,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B367" s="30" t="s">
         <v>17</v>
@@ -8978,7 +8972,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B368" s="30" t="s">
         <v>17</v>
@@ -8990,7 +8984,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="30" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B369" s="30" t="s">
         <v>17</v>
@@ -9002,7 +8996,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B370" s="30" t="s">
         <v>17</v>
@@ -9014,7 +9008,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="30" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B371" s="30" t="s">
         <v>17</v>
@@ -9026,7 +9020,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B372" s="30" t="s">
         <v>17</v>
@@ -9038,7 +9032,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="30" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B373" s="30" t="s">
         <v>17</v>
@@ -9050,7 +9044,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="30" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B374" s="30" t="s">
         <v>17</v>
@@ -9062,7 +9056,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B375" s="30" t="s">
         <v>17</v>
@@ -9074,7 +9068,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B376" s="30" t="s">
         <v>17</v>
@@ -9086,7 +9080,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="30" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B377" s="30" t="s">
         <v>17</v>
@@ -9098,7 +9092,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="30" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B378" s="30" t="s">
         <v>17</v>
@@ -9110,7 +9104,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B379" s="30" t="s">
         <v>17</v>
@@ -9122,7 +9116,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B380" s="30" t="s">
         <v>17</v>
@@ -9134,7 +9128,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="30" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B381" s="30" t="s">
         <v>17</v>
@@ -9146,7 +9140,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B382" s="30" t="s">
         <v>17</v>
@@ -9158,7 +9152,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="30" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B383" s="30" t="s">
         <v>17</v>
@@ -9170,7 +9164,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="30" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B384" s="30" t="s">
         <v>17</v>
@@ -9182,7 +9176,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="30" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B385" s="30" t="s">
         <v>17</v>
@@ -9194,7 +9188,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B386" s="30" t="s">
         <v>17</v>
@@ -9206,7 +9200,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="30" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B387" s="30" t="s">
         <v>17</v>
@@ -9218,7 +9212,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="30" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B388" s="30" t="s">
         <v>17</v>
@@ -9230,7 +9224,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B389" s="30" t="s">
         <v>17</v>
@@ -9242,7 +9236,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B390" s="30" t="s">
         <v>17</v>
@@ -9254,7 +9248,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B391" s="30" t="s">
         <v>17</v>
@@ -9266,7 +9260,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="30" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B392" s="30" t="s">
         <v>17</v>
@@ -9278,7 +9272,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="30" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B393" s="30" t="s">
         <v>17</v>
@@ -9290,7 +9284,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B394" s="30" t="s">
         <v>17</v>
@@ -9302,7 +9296,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="30" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B395" s="30" t="s">
         <v>17</v>
@@ -9314,7 +9308,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B396" s="30" t="s">
         <v>17</v>
@@ -9326,7 +9320,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B397" s="30" t="s">
         <v>17</v>
@@ -9338,7 +9332,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B398" s="30" t="s">
         <v>17</v>
@@ -9350,7 +9344,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="30" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B399" s="30" t="s">
         <v>17</v>
@@ -9362,7 +9356,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="30" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B400" s="30" t="s">
         <v>17</v>
@@ -9374,7 +9368,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B401" s="30" t="s">
         <v>17</v>
@@ -9386,7 +9380,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="30" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B402" s="30" t="s">
         <v>17</v>
@@ -9398,7 +9392,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="30" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B403" s="30" t="s">
         <v>17</v>
@@ -9410,7 +9404,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B404" s="30" t="s">
         <v>17</v>
@@ -9422,7 +9416,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="30" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B405" s="30" t="s">
         <v>17</v>
@@ -9434,7 +9428,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B406" s="30" t="s">
         <v>17</v>
@@ -9446,7 +9440,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B407" s="30" t="s">
         <v>17</v>
@@ -9458,7 +9452,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B408" s="30" t="s">
         <v>17</v>
@@ -9470,7 +9464,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B409" s="30" t="s">
         <v>17</v>
@@ -9482,7 +9476,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="30" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B410" s="30" t="s">
         <v>17</v>
@@ -9494,7 +9488,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="30" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B411" s="30" t="s">
         <v>17</v>
@@ -9506,7 +9500,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="30" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B412" s="30" t="s">
         <v>17</v>
@@ -9518,7 +9512,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B413" s="30" t="s">
         <v>17</v>
@@ -9530,7 +9524,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="30" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B414" s="30" t="s">
         <v>17</v>
@@ -9542,7 +9536,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B415" s="30" t="s">
         <v>17</v>
@@ -9554,7 +9548,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="30" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B416" s="30" t="s">
         <v>17</v>
@@ -9566,7 +9560,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B417" s="30" t="s">
         <v>17</v>
@@ -9578,7 +9572,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="30" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B418" s="30" t="s">
         <v>17</v>
@@ -9590,7 +9584,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B419" s="30" t="s">
         <v>17</v>
@@ -9602,7 +9596,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B420" s="30" t="s">
         <v>17</v>
@@ -9614,7 +9608,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="30" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B421" s="30" t="s">
         <v>17</v>
@@ -9626,7 +9620,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B422" s="30" t="s">
         <v>17</v>
@@ -9638,7 +9632,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B423" s="30" t="s">
         <v>17</v>
@@ -9650,7 +9644,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B424" s="30" t="s">
         <v>17</v>
@@ -9662,7 +9656,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B425" s="30" t="s">
         <v>17</v>
@@ -9674,7 +9668,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="30" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B426" s="30" t="s">
         <v>17</v>
@@ -9686,7 +9680,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B427" s="30" t="s">
         <v>17</v>
@@ -9698,7 +9692,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B428" s="30" t="s">
         <v>17</v>
@@ -9710,7 +9704,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B429" s="30" t="s">
         <v>17</v>
@@ -9722,7 +9716,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="30" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B430" s="30" t="s">
         <v>17</v>
@@ -9734,7 +9728,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="30" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B431" s="30" t="s">
         <v>17</v>
@@ -9746,7 +9740,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B432" s="30" t="s">
         <v>17</v>
@@ -9758,7 +9752,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B433" s="30" t="s">
         <v>17</v>
@@ -9770,7 +9764,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="30" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B434" s="30" t="s">
         <v>17</v>
@@ -9782,7 +9776,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B435" s="30" t="s">
         <v>17</v>
@@ -9794,7 +9788,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B436" s="30" t="s">
         <v>17</v>
@@ -9806,7 +9800,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B437" s="30" t="s">
         <v>17</v>
@@ -9818,7 +9812,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B438" s="30" t="s">
         <v>17</v>
@@ -9830,7 +9824,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="30" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B439" s="30" t="s">
         <v>17</v>
@@ -9842,7 +9836,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B440" s="30" t="s">
         <v>17</v>
@@ -9854,7 +9848,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B441" s="30" t="s">
         <v>17</v>
@@ -9866,7 +9860,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B442" s="30" t="s">
         <v>17</v>
@@ -9878,7 +9872,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B443" s="30" t="s">
         <v>17</v>
@@ -9890,7 +9884,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="30" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B444" s="30" t="s">
         <v>17</v>
@@ -9902,7 +9896,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="30" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B445" s="30" t="s">
         <v>17</v>
@@ -9914,7 +9908,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B446" s="30" t="s">
         <v>17</v>
@@ -9926,7 +9920,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="30" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B447" s="30" t="s">
         <v>17</v>
@@ -9938,7 +9932,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="30" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B448" s="30" t="s">
         <v>17</v>
@@ -9950,7 +9944,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="30" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B449" s="30" t="s">
         <v>17</v>
@@ -9962,7 +9956,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="30" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B450" s="30" t="s">
         <v>17</v>
@@ -9974,7 +9968,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="30" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B451" s="30" t="s">
         <v>17</v>
@@ -9986,7 +9980,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="30" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B452" s="30" t="s">
         <v>17</v>
@@ -9998,7 +9992,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B453" s="30" t="s">
         <v>17</v>
@@ -10010,7 +10004,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="30" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B454" s="30" t="s">
         <v>17</v>
@@ -10022,7 +10016,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B455" s="30" t="s">
         <v>17</v>
@@ -10034,7 +10028,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="30" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B456" s="30" t="s">
         <v>17</v>
@@ -10046,7 +10040,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B457" s="30" t="s">
         <v>17</v>
@@ -10058,7 +10052,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="30" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B458" s="30" t="s">
         <v>17</v>
@@ -10070,7 +10064,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="30" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B459" s="30" t="s">
         <v>17</v>
@@ -10082,7 +10076,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="30" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B460" s="30" t="s">
         <v>17</v>
@@ -10094,7 +10088,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="30" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B461" s="30" t="s">
         <v>17</v>
@@ -10106,7 +10100,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="30" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B462" s="30" t="s">
         <v>17</v>
@@ -10118,7 +10112,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B463" s="30" t="s">
         <v>17</v>
@@ -10130,7 +10124,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="30" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B464" s="30" t="s">
         <v>17</v>
@@ -10142,7 +10136,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="30" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B465" s="30" t="s">
         <v>17</v>
@@ -10154,7 +10148,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B466" s="30" t="s">
         <v>17</v>
@@ -10166,7 +10160,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B467" s="30" t="s">
         <v>17</v>
@@ -10178,7 +10172,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B468" s="30" t="s">
         <v>17</v>
@@ -10190,7 +10184,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="30" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B469" s="30" t="s">
         <v>17</v>
@@ -10202,7 +10196,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B470" s="30" t="s">
         <v>17</v>
@@ -10214,7 +10208,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B471" s="30" t="s">
         <v>17</v>
@@ -10226,7 +10220,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B472" s="30" t="s">
         <v>17</v>
@@ -10238,7 +10232,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B473" s="30" t="s">
         <v>17</v>
@@ -10250,7 +10244,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B474" s="30" t="s">
         <v>17</v>
@@ -10262,7 +10256,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B475" s="30" t="s">
         <v>17</v>
@@ -10274,7 +10268,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B476" s="30" t="s">
         <v>17</v>
@@ -10286,7 +10280,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B477" s="30" t="s">
         <v>17</v>
@@ -13458,16 +13452,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
@@ -13494,16 +13488,16 @@
     </row>
     <row r="2" spans="1:26" ht="15">
       <c r="A2" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -13530,16 +13524,16 @@
     </row>
     <row r="3" spans="1:26" ht="15">
       <c r="A3" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -13566,16 +13560,16 @@
     </row>
     <row r="4" spans="1:26" ht="15">
       <c r="A4" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -13602,16 +13596,16 @@
     </row>
     <row r="5" spans="1:26" ht="15">
       <c r="A5" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -13638,16 +13632,16 @@
     </row>
     <row r="6" spans="1:26" ht="15">
       <c r="A6" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -13674,16 +13668,16 @@
     </row>
     <row r="7" spans="1:26" ht="15">
       <c r="A7" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -13710,16 +13704,16 @@
     </row>
     <row r="8" spans="1:26" ht="15">
       <c r="A8" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -13746,16 +13740,16 @@
     </row>
     <row r="9" spans="1:26" ht="15">
       <c r="A9" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -13782,16 +13776,16 @@
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -13818,16 +13812,16 @@
     </row>
     <row r="11" spans="1:26" ht="15">
       <c r="A11" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -13854,16 +13848,16 @@
     </row>
     <row r="12" spans="1:26" ht="15">
       <c r="A12" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -13890,16 +13884,16 @@
     </row>
     <row r="13" spans="1:26" ht="15">
       <c r="A13" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -13926,16 +13920,16 @@
     </row>
     <row r="14" spans="1:26" ht="15">
       <c r="A14" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -13962,16 +13956,16 @@
     </row>
     <row r="15" spans="1:26" ht="15">
       <c r="A15" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -13998,16 +13992,16 @@
     </row>
     <row r="16" spans="1:26" ht="15">
       <c r="A16" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -14034,16 +14028,16 @@
     </row>
     <row r="17" spans="1:26" ht="15">
       <c r="A17" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -14070,16 +14064,16 @@
     </row>
     <row r="18" spans="1:26" ht="15">
       <c r="A18" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -14106,16 +14100,16 @@
     </row>
     <row r="19" spans="1:26" ht="15">
       <c r="A19" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -14142,16 +14136,16 @@
     </row>
     <row r="20" spans="1:26" ht="15">
       <c r="A20" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -14178,16 +14172,16 @@
     </row>
     <row r="21" spans="1:26" ht="15">
       <c r="A21" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -14214,16 +14208,16 @@
     </row>
     <row r="22" spans="1:26" ht="15">
       <c r="A22" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -14250,16 +14244,16 @@
     </row>
     <row r="23" spans="1:26" ht="15">
       <c r="A23" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -14286,16 +14280,16 @@
     </row>
     <row r="24" spans="1:26" ht="15">
       <c r="A24" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -14322,16 +14316,16 @@
     </row>
     <row r="25" spans="1:26" ht="15">
       <c r="A25" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -14358,16 +14352,16 @@
     </row>
     <row r="26" spans="1:26" ht="15">
       <c r="A26" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -14394,16 +14388,16 @@
     </row>
     <row r="27" spans="1:26" ht="15">
       <c r="A27" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -14430,16 +14424,16 @@
     </row>
     <row r="28" spans="1:26" ht="15">
       <c r="A28" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -14466,16 +14460,16 @@
     </row>
     <row r="29" spans="1:26" ht="15">
       <c r="A29" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -14502,16 +14496,16 @@
     </row>
     <row r="30" spans="1:26" ht="15">
       <c r="A30" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -14538,16 +14532,16 @@
     </row>
     <row r="31" spans="1:26" ht="15">
       <c r="A31" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -14574,16 +14568,16 @@
     </row>
     <row r="32" spans="1:26" ht="15">
       <c r="A32" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -14610,16 +14604,16 @@
     </row>
     <row r="33" spans="1:26" ht="15">
       <c r="A33" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
@@ -14646,16 +14640,16 @@
     </row>
     <row r="34" spans="1:26" ht="15">
       <c r="A34" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -14682,16 +14676,16 @@
     </row>
     <row r="35" spans="1:26" ht="15">
       <c r="A35" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -14718,16 +14712,16 @@
     </row>
     <row r="36" spans="1:26" ht="15">
       <c r="A36" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -14754,16 +14748,16 @@
     </row>
     <row r="37" spans="1:26" ht="15">
       <c r="A37" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -14790,16 +14784,16 @@
     </row>
     <row r="38" spans="1:26" ht="15">
       <c r="A38" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
@@ -14826,16 +14820,16 @@
     </row>
     <row r="39" spans="1:26" ht="15">
       <c r="A39" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
@@ -14862,16 +14856,16 @@
     </row>
     <row r="40" spans="1:26" ht="15">
       <c r="A40" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
@@ -14898,16 +14892,16 @@
     </row>
     <row r="41" spans="1:26" ht="15">
       <c r="A41" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
@@ -14934,16 +14928,16 @@
     </row>
     <row r="42" spans="1:26" ht="15">
       <c r="A42" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
@@ -14970,16 +14964,16 @@
     </row>
     <row r="43" spans="1:26" ht="15">
       <c r="A43" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
@@ -15006,16 +15000,16 @@
     </row>
     <row r="44" spans="1:26" ht="15">
       <c r="A44" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -15042,16 +15036,16 @@
     </row>
     <row r="45" spans="1:26" ht="15">
       <c r="A45" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -15078,16 +15072,16 @@
     </row>
     <row r="46" spans="1:26" ht="15">
       <c r="A46" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
@@ -15114,16 +15108,16 @@
     </row>
     <row r="47" spans="1:26" ht="15">
       <c r="A47" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -15150,16 +15144,16 @@
     </row>
     <row r="48" spans="1:26" ht="15">
       <c r="A48" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
@@ -15186,16 +15180,16 @@
     </row>
     <row r="49" spans="1:26" ht="15">
       <c r="A49" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
@@ -15222,16 +15216,16 @@
     </row>
     <row r="50" spans="1:26" ht="15">
       <c r="A50" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
@@ -15258,16 +15252,16 @@
     </row>
     <row r="51" spans="1:26" ht="15">
       <c r="A51" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B51" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
@@ -15294,16 +15288,16 @@
     </row>
     <row r="52" spans="1:26" ht="15">
       <c r="A52" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
@@ -15330,16 +15324,16 @@
     </row>
     <row r="53" spans="1:26" ht="15">
       <c r="A53" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
@@ -15366,16 +15360,16 @@
     </row>
     <row r="54" spans="1:26" ht="15">
       <c r="A54" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
@@ -15402,16 +15396,16 @@
     </row>
     <row r="55" spans="1:26" ht="15">
       <c r="A55" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B55" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
@@ -15438,16 +15432,16 @@
     </row>
     <row r="56" spans="1:26" ht="15">
       <c r="A56" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
@@ -15474,16 +15468,16 @@
     </row>
     <row r="57" spans="1:26" ht="15">
       <c r="A57" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
@@ -15510,16 +15504,16 @@
     </row>
     <row r="58" spans="1:26" ht="15">
       <c r="A58" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
@@ -15546,16 +15540,16 @@
     </row>
     <row r="59" spans="1:26" ht="15">
       <c r="A59" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B59" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
@@ -15582,16 +15576,16 @@
     </row>
     <row r="60" spans="1:26" ht="15">
       <c r="A60" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B60" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
@@ -15618,16 +15612,16 @@
     </row>
     <row r="61" spans="1:26" ht="15">
       <c r="A61" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B61" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
@@ -15654,16 +15648,16 @@
     </row>
     <row r="62" spans="1:26" ht="15">
       <c r="A62" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B62" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
@@ -15690,16 +15684,16 @@
     </row>
     <row r="63" spans="1:26" ht="15">
       <c r="A63" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B63" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
@@ -15726,16 +15720,16 @@
     </row>
     <row r="64" spans="1:26" ht="15">
       <c r="A64" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B64" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
@@ -15762,16 +15756,16 @@
     </row>
     <row r="65" spans="1:26" ht="15">
       <c r="A65" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B65" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
@@ -15798,16 +15792,16 @@
     </row>
     <row r="66" spans="1:26" ht="15">
       <c r="A66" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B66" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
@@ -15834,16 +15828,16 @@
     </row>
     <row r="67" spans="1:26" ht="15">
       <c r="A67" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
@@ -15870,16 +15864,16 @@
     </row>
     <row r="68" spans="1:26" ht="15">
       <c r="A68" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B68" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
@@ -15906,16 +15900,16 @@
     </row>
     <row r="69" spans="1:26" ht="15">
       <c r="A69" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B69" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
@@ -15942,16 +15936,16 @@
     </row>
     <row r="70" spans="1:26" ht="15">
       <c r="A70" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B70" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
@@ -15978,16 +15972,16 @@
     </row>
     <row r="71" spans="1:26" ht="15">
       <c r="A71" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
@@ -16014,16 +16008,16 @@
     </row>
     <row r="72" spans="1:26" ht="15">
       <c r="A72" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
@@ -16050,16 +16044,16 @@
     </row>
     <row r="73" spans="1:26" ht="15">
       <c r="A73" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
@@ -16086,16 +16080,16 @@
     </row>
     <row r="74" spans="1:26" ht="15">
       <c r="A74" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B74" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
@@ -16122,16 +16116,16 @@
     </row>
     <row r="75" spans="1:26" ht="15">
       <c r="A75" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
@@ -16158,16 +16152,16 @@
     </row>
     <row r="76" spans="1:26" ht="15">
       <c r="A76" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B76" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
@@ -16194,16 +16188,16 @@
     </row>
     <row r="77" spans="1:26" ht="15">
       <c r="A77" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B77" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
@@ -16230,16 +16224,16 @@
     </row>
     <row r="78" spans="1:26" ht="15">
       <c r="A78" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
@@ -16266,16 +16260,16 @@
     </row>
     <row r="79" spans="1:26" ht="15">
       <c r="A79" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
@@ -16302,16 +16296,16 @@
     </row>
     <row r="80" spans="1:26" ht="15">
       <c r="A80" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B80" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
@@ -16338,16 +16332,16 @@
     </row>
     <row r="81" spans="1:26" ht="15">
       <c r="A81" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B81" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
@@ -16374,16 +16368,16 @@
     </row>
     <row r="82" spans="1:26" ht="15">
       <c r="A82" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B82" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
@@ -16410,16 +16404,16 @@
     </row>
     <row r="83" spans="1:26" ht="15">
       <c r="A83" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B83" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
@@ -16446,16 +16440,16 @@
     </row>
     <row r="84" spans="1:26" ht="15">
       <c r="A84" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B84" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
@@ -16482,16 +16476,16 @@
     </row>
     <row r="85" spans="1:26" ht="15">
       <c r="A85" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
@@ -16518,16 +16512,16 @@
     </row>
     <row r="86" spans="1:26" ht="15">
       <c r="A86" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
@@ -16554,16 +16548,16 @@
     </row>
     <row r="87" spans="1:26" ht="15">
       <c r="A87" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
@@ -16590,16 +16584,16 @@
     </row>
     <row r="88" spans="1:26" ht="15">
       <c r="A88" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -16626,16 +16620,16 @@
     </row>
     <row r="89" spans="1:26" ht="15">
       <c r="A89" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B89" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
@@ -16662,16 +16656,16 @@
     </row>
     <row r="90" spans="1:26" ht="15">
       <c r="A90" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B90" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -16698,16 +16692,16 @@
     </row>
     <row r="91" spans="1:26" ht="15">
       <c r="A91" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B91" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -16734,16 +16728,16 @@
     </row>
     <row r="92" spans="1:26" ht="15">
       <c r="A92" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B92" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -16770,16 +16764,16 @@
     </row>
     <row r="93" spans="1:26" ht="15">
       <c r="A93" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B93" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -16806,16 +16800,16 @@
     </row>
     <row r="94" spans="1:26" ht="15">
       <c r="A94" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B94" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
@@ -16842,16 +16836,16 @@
     </row>
     <row r="95" spans="1:26" ht="15">
       <c r="A95" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B95" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -16878,16 +16872,16 @@
     </row>
     <row r="96" spans="1:26" ht="15">
       <c r="A96" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B96" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
@@ -16914,16 +16908,16 @@
     </row>
     <row r="97" spans="1:26" ht="15">
       <c r="A97" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B97" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -16950,16 +16944,16 @@
     </row>
     <row r="98" spans="1:26" ht="15">
       <c r="A98" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B98" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
@@ -16986,16 +16980,16 @@
     </row>
     <row r="99" spans="1:26" ht="15">
       <c r="A99" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B99" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
@@ -17022,16 +17016,16 @@
     </row>
     <row r="100" spans="1:26" ht="15">
       <c r="A100" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B100" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E100" s="28"/>
       <c r="F100" s="28"/>
@@ -17058,16 +17052,16 @@
     </row>
     <row r="101" spans="1:26" ht="15">
       <c r="A101" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B101" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="28"/>
@@ -17094,16 +17088,16 @@
     </row>
     <row r="102" spans="1:26" ht="15">
       <c r="A102" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B102" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
@@ -17130,16 +17124,16 @@
     </row>
     <row r="103" spans="1:26" ht="15">
       <c r="A103" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B103" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E103" s="28"/>
       <c r="F103" s="28"/>
@@ -17166,16 +17160,16 @@
     </row>
     <row r="104" spans="1:26" ht="15">
       <c r="A104" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B104" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
@@ -17202,16 +17196,16 @@
     </row>
     <row r="105" spans="1:26" ht="15">
       <c r="A105" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B105" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E105" s="28"/>
       <c r="F105" s="28"/>
@@ -17238,16 +17232,16 @@
     </row>
     <row r="106" spans="1:26" ht="15">
       <c r="A106" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B106" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="28"/>
@@ -17274,16 +17268,16 @@
     </row>
     <row r="107" spans="1:26" ht="15">
       <c r="A107" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B107" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="28"/>
@@ -17310,16 +17304,16 @@
     </row>
     <row r="108" spans="1:26" ht="15">
       <c r="A108" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B108" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
@@ -17346,16 +17340,16 @@
     </row>
     <row r="109" spans="1:26" ht="15">
       <c r="A109" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B109" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="28"/>
@@ -17382,16 +17376,16 @@
     </row>
     <row r="110" spans="1:26" ht="15">
       <c r="A110" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B110" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E110" s="28"/>
       <c r="F110" s="28"/>
@@ -17418,16 +17412,16 @@
     </row>
     <row r="111" spans="1:26" ht="15">
       <c r="A111" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B111" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E111" s="28"/>
       <c r="F111" s="28"/>
@@ -17454,16 +17448,16 @@
     </row>
     <row r="112" spans="1:26" ht="15">
       <c r="A112" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B112" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E112" s="28"/>
       <c r="F112" s="28"/>
@@ -17490,16 +17484,16 @@
     </row>
     <row r="113" spans="1:26" ht="15">
       <c r="A113" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B113" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="28"/>
@@ -17526,16 +17520,16 @@
     </row>
     <row r="114" spans="1:26" ht="15">
       <c r="A114" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B114" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
@@ -17562,16 +17556,16 @@
     </row>
     <row r="115" spans="1:26" ht="15">
       <c r="A115" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B115" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="28"/>
@@ -17598,16 +17592,16 @@
     </row>
     <row r="116" spans="1:26" ht="15">
       <c r="A116" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B116" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
@@ -17634,16 +17628,16 @@
     </row>
     <row r="117" spans="1:26" ht="15">
       <c r="A117" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B117" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
@@ -17670,16 +17664,16 @@
     </row>
     <row r="118" spans="1:26" ht="15">
       <c r="A118" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B118" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E118" s="28"/>
       <c r="F118" s="28"/>
@@ -17706,16 +17700,16 @@
     </row>
     <row r="119" spans="1:26" ht="15">
       <c r="A119" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B119" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="28"/>
@@ -17742,16 +17736,16 @@
     </row>
     <row r="120" spans="1:26" ht="15">
       <c r="A120" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B120" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
@@ -17778,16 +17772,16 @@
     </row>
     <row r="121" spans="1:26" ht="15">
       <c r="A121" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B121" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
@@ -17814,16 +17808,16 @@
     </row>
     <row r="122" spans="1:26" ht="15">
       <c r="A122" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B122" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
@@ -17850,16 +17844,16 @@
     </row>
     <row r="123" spans="1:26" ht="15">
       <c r="A123" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B123" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
@@ -17886,16 +17880,16 @@
     </row>
     <row r="124" spans="1:26" ht="15">
       <c r="A124" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B124" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
@@ -17922,16 +17916,16 @@
     </row>
     <row r="125" spans="1:26" ht="15">
       <c r="A125" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B125" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="28"/>
@@ -17958,16 +17952,16 @@
     </row>
     <row r="126" spans="1:26" ht="15">
       <c r="A126" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B126" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="28"/>
@@ -17994,16 +17988,16 @@
     </row>
     <row r="127" spans="1:26" ht="15">
       <c r="A127" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B127" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="28"/>
@@ -18030,16 +18024,16 @@
     </row>
     <row r="128" spans="1:26" ht="15">
       <c r="A128" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B128" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
@@ -18066,16 +18060,16 @@
     </row>
     <row r="129" spans="1:26" ht="15">
       <c r="A129" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B129" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E129" s="28"/>
       <c r="F129" s="28"/>
@@ -18102,16 +18096,16 @@
     </row>
     <row r="130" spans="1:26" ht="15">
       <c r="A130" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B130" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
@@ -42564,13 +42558,13 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -42579,18 +42573,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
@@ -42599,7 +42593,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14">
@@ -44102,13 +44096,13 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -44117,18 +44111,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
@@ -44137,7 +44131,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14">

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliot.smith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/OPG/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5962683A-0F6A-1D45-A200-CB848563F584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B40C3CA-DDD0-CF49-9663-67E531826A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="960" windowWidth="38380" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8660" yWindow="9140" windowWidth="40920" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="4" r:id="rId1"/>
@@ -690,9 +690,6 @@
     <t>Not started</t>
   </si>
   <si>
-    <t>include_values = {"col": "Status", "values": ["ACTIVE", "INACTIVE"]}</t>
-  </si>
-  <si>
     <t>CWGN</t>
   </si>
   <si>
@@ -2185,6 +2182,9 @@
   </si>
   <si>
     <t>Case, Status, Order No, Target</t>
+  </si>
+  <si>
+    <t>include_values = {"col": "Status", "values": ["ACTIVE"]}</t>
   </si>
 </sst>
 </file>
@@ -2601,7 +2601,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2656,10 +2656,10 @@
         <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>719</v>
       </c>
       <c r="H2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2678,13 +2678,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E4" t="s">
         <v>218</v>
@@ -2832,10 +2832,10 @@
         <v>34</v>
       </c>
       <c r="J3" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L3" s="30" t="s">
         <v>237</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>238</v>
       </c>
       <c r="M3" s="7">
         <v>2657</v>
@@ -2872,7 +2872,7 @@
         <v>40</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P4" s="19" t="s">
         <v>21</v>
@@ -2967,7 +2967,7 @@
         <v>21</v>
       </c>
       <c r="Q8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15">
@@ -4580,7 +4580,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>17</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>17</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>17</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>17</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>17</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>17</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>17</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>17</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>17</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>17</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>17</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>17</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>17</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>17</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>17</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="30" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>17</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>17</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>17</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>17</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>17</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>17</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>17</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>17</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>17</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>17</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>17</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>17</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>17</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>17</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>17</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>17</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>17</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>17</v>
@@ -4976,7 +4976,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>17</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>17</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>17</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>17</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>17</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>17</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>17</v>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>17</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>17</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>17</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>17</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>17</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>17</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>17</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>17</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>17</v>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>17</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>17</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>17</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>17</v>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>17</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>17</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>17</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B58" s="30" t="s">
         <v>17</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B59" s="30" t="s">
         <v>17</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>17</v>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>17</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>17</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>17</v>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>17</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>17</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="30" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>17</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="30" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>17</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="30" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>17</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>17</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>17</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>17</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>17</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>17</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B74" s="30" t="s">
         <v>17</v>
@@ -5456,7 +5456,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>17</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>17</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>17</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>17</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>17</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>17</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>17</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>17</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>17</v>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>17</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>17</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>17</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="30" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>17</v>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>17</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B89" s="30" t="s">
         <v>17</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>17</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>17</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>17</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>17</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>17</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>17</v>
@@ -5708,7 +5708,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>17</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>17</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>17</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>17</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>17</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>17</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>17</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>17</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>17</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>17</v>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>17</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>17</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>17</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>17</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>17</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B111" s="30" t="s">
         <v>17</v>
@@ -5900,7 +5900,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>17</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>17</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>17</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>17</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>17</v>
@@ -5960,7 +5960,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>17</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="30" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>17</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>17</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>17</v>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>17</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>17</v>
@@ -6032,7 +6032,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>17</v>
@@ -6044,7 +6044,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>17</v>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>17</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>17</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>17</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>17</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B129" s="30" t="s">
         <v>17</v>
@@ -6116,7 +6116,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B130" s="30" t="s">
         <v>17</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B131" s="30" t="s">
         <v>17</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B132" s="30" t="s">
         <v>17</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B133" s="30" t="s">
         <v>17</v>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B134" s="30" t="s">
         <v>17</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B135" s="30" t="s">
         <v>17</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B136" s="30" t="s">
         <v>17</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B137" s="30" t="s">
         <v>17</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B138" s="30" t="s">
         <v>17</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B139" s="30" t="s">
         <v>17</v>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B140" s="30" t="s">
         <v>17</v>
@@ -6248,7 +6248,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B141" s="30" t="s">
         <v>17</v>
@@ -6260,7 +6260,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="30" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B142" s="30" t="s">
         <v>17</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B143" s="30" t="s">
         <v>17</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B144" s="30" t="s">
         <v>17</v>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B145" s="30" t="s">
         <v>17</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B146" s="30" t="s">
         <v>17</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B147" s="30" t="s">
         <v>17</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B148" s="30" t="s">
         <v>17</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B149" s="30" t="s">
         <v>17</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B150" s="30" t="s">
         <v>17</v>
@@ -6368,7 +6368,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B151" s="30" t="s">
         <v>17</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B152" s="30" t="s">
         <v>17</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B153" s="30" t="s">
         <v>17</v>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B154" s="30" t="s">
         <v>17</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="30" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B155" s="30" t="s">
         <v>17</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B156" s="30" t="s">
         <v>17</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B157" s="30" t="s">
         <v>17</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B158" s="30" t="s">
         <v>17</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B159" s="30" t="s">
         <v>17</v>
@@ -6476,7 +6476,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="30" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B160" s="30" t="s">
         <v>17</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B161" s="30" t="s">
         <v>17</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B162" s="30" t="s">
         <v>17</v>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B163" s="30" t="s">
         <v>17</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B164" s="30" t="s">
         <v>17</v>
@@ -6536,7 +6536,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B165" s="30" t="s">
         <v>17</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B166" s="30" t="s">
         <v>17</v>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B167" s="30" t="s">
         <v>17</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B168" s="30" t="s">
         <v>17</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B169" s="30" t="s">
         <v>17</v>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B170" s="30" t="s">
         <v>17</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B171" s="30" t="s">
         <v>17</v>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B172" s="30" t="s">
         <v>17</v>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B173" s="30" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B174" s="30" t="s">
         <v>17</v>
@@ -6656,7 +6656,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B175" s="30" t="s">
         <v>17</v>
@@ -6668,7 +6668,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B176" s="30" t="s">
         <v>17</v>
@@ -6680,7 +6680,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B177" s="30" t="s">
         <v>17</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B178" s="30" t="s">
         <v>17</v>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B179" s="30" t="s">
         <v>17</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B180" s="30" t="s">
         <v>17</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B181" s="30" t="s">
         <v>17</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B182" s="30" t="s">
         <v>17</v>
@@ -6752,7 +6752,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B183" s="30" t="s">
         <v>17</v>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B184" s="30" t="s">
         <v>17</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="30" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B185" s="30" t="s">
         <v>17</v>
@@ -6788,7 +6788,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B186" s="30" t="s">
         <v>17</v>
@@ -6800,7 +6800,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B187" s="30" t="s">
         <v>17</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B188" s="30" t="s">
         <v>17</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B189" s="30" t="s">
         <v>17</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B190" s="30" t="s">
         <v>17</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B191" s="30" t="s">
         <v>17</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B192" s="30" t="s">
         <v>17</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B193" s="30" t="s">
         <v>17</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B194" s="30" t="s">
         <v>17</v>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B195" s="30" t="s">
         <v>17</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B196" s="30" t="s">
         <v>17</v>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B197" s="30" t="s">
         <v>17</v>
@@ -6932,7 +6932,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B198" s="30" t="s">
         <v>17</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B199" s="30" t="s">
         <v>17</v>
@@ -6956,7 +6956,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B200" s="30" t="s">
         <v>17</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B201" s="30" t="s">
         <v>17</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B202" s="30" t="s">
         <v>17</v>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B203" s="30" t="s">
         <v>17</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B204" s="30" t="s">
         <v>17</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B205" s="30" t="s">
         <v>17</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B206" s="30" t="s">
         <v>17</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B207" s="30" t="s">
         <v>17</v>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B208" s="30" t="s">
         <v>17</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="30" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B209" s="30" t="s">
         <v>17</v>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B210" s="30" t="s">
         <v>17</v>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B211" s="30" t="s">
         <v>17</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B212" s="30" t="s">
         <v>17</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B213" s="30" t="s">
         <v>17</v>
@@ -7124,7 +7124,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B214" s="30" t="s">
         <v>17</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B215" s="30" t="s">
         <v>17</v>
@@ -7148,7 +7148,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="30" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B216" s="30" t="s">
         <v>17</v>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B217" s="30" t="s">
         <v>17</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B218" s="30" t="s">
         <v>17</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B219" s="30" t="s">
         <v>17</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B220" s="30" t="s">
         <v>17</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B221" s="30" t="s">
         <v>17</v>
@@ -7220,7 +7220,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B222" s="30" t="s">
         <v>17</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B223" s="30" t="s">
         <v>17</v>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B224" s="30" t="s">
         <v>17</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B225" s="30" t="s">
         <v>17</v>
@@ -7268,7 +7268,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B226" s="30" t="s">
         <v>17</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B227" s="30" t="s">
         <v>17</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B228" s="30" t="s">
         <v>17</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B229" s="30" t="s">
         <v>17</v>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B230" s="30" t="s">
         <v>17</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B231" s="30" t="s">
         <v>17</v>
@@ -7340,7 +7340,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B232" s="30" t="s">
         <v>17</v>
@@ -7352,7 +7352,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B233" s="30" t="s">
         <v>17</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B234" s="30" t="s">
         <v>17</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B235" s="30" t="s">
         <v>17</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B236" s="30" t="s">
         <v>17</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B237" s="30" t="s">
         <v>17</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B238" s="30" t="s">
         <v>17</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B239" s="30" t="s">
         <v>17</v>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B240" s="30" t="s">
         <v>17</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B241" s="30" t="s">
         <v>17</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B242" s="30" t="s">
         <v>17</v>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B243" s="30" t="s">
         <v>17</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B244" s="30" t="s">
         <v>17</v>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B245" s="30" t="s">
         <v>17</v>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B246" s="30" t="s">
         <v>17</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B247" s="30" t="s">
         <v>17</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B248" s="30" t="s">
         <v>17</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B249" s="30" t="s">
         <v>17</v>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B250" s="30" t="s">
         <v>17</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B251" s="30" t="s">
         <v>17</v>
@@ -7580,7 +7580,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B252" s="30" t="s">
         <v>17</v>
@@ -7592,7 +7592,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B253" s="30" t="s">
         <v>17</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B254" s="30" t="s">
         <v>17</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B255" s="30" t="s">
         <v>17</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B256" s="30" t="s">
         <v>17</v>
@@ -7640,7 +7640,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B257" s="30" t="s">
         <v>17</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B258" s="30" t="s">
         <v>17</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B259" s="30" t="s">
         <v>17</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B260" s="30" t="s">
         <v>17</v>
@@ -7688,7 +7688,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B261" s="30" t="s">
         <v>17</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B262" s="30" t="s">
         <v>17</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B263" s="30" t="s">
         <v>17</v>
@@ -7724,7 +7724,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B264" s="30" t="s">
         <v>17</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B265" s="30" t="s">
         <v>17</v>
@@ -7748,7 +7748,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B266" s="30" t="s">
         <v>17</v>
@@ -7760,7 +7760,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B267" s="30" t="s">
         <v>17</v>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B268" s="30" t="s">
         <v>17</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B269" s="30" t="s">
         <v>17</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B270" s="30" t="s">
         <v>17</v>
@@ -7808,7 +7808,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B271" s="30" t="s">
         <v>17</v>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B272" s="30" t="s">
         <v>17</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B273" s="30" t="s">
         <v>17</v>
@@ -7844,7 +7844,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B274" s="30" t="s">
         <v>17</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B275" s="30" t="s">
         <v>17</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B276" s="30" t="s">
         <v>17</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B277" s="30" t="s">
         <v>17</v>
@@ -7892,7 +7892,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B278" s="30" t="s">
         <v>17</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B279" s="30" t="s">
         <v>17</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="30" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B280" s="30" t="s">
         <v>17</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B281" s="30" t="s">
         <v>17</v>
@@ -7940,7 +7940,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B282" s="30" t="s">
         <v>17</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B283" s="30" t="s">
         <v>17</v>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B284" s="30" t="s">
         <v>17</v>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B285" s="30" t="s">
         <v>17</v>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B286" s="30" t="s">
         <v>17</v>
@@ -8000,7 +8000,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B287" s="30" t="s">
         <v>17</v>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B288" s="30" t="s">
         <v>17</v>
@@ -8024,7 +8024,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B289" s="30" t="s">
         <v>17</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B290" s="30" t="s">
         <v>17</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="30" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B291" s="30" t="s">
         <v>17</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B292" s="30" t="s">
         <v>17</v>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B293" s="30" t="s">
         <v>17</v>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B294" s="30" t="s">
         <v>17</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B295" s="30" t="s">
         <v>17</v>
@@ -8108,7 +8108,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="30" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B296" s="30" t="s">
         <v>17</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B297" s="30" t="s">
         <v>17</v>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B298" s="30" t="s">
         <v>17</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B299" s="30" t="s">
         <v>17</v>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B300" s="30" t="s">
         <v>17</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B301" s="30" t="s">
         <v>17</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B302" s="30" t="s">
         <v>17</v>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B303" s="30" t="s">
         <v>17</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B304" s="30" t="s">
         <v>17</v>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B305" s="30" t="s">
         <v>17</v>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B306" s="30" t="s">
         <v>17</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B307" s="30" t="s">
         <v>17</v>
@@ -8252,7 +8252,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B308" s="30" t="s">
         <v>17</v>
@@ -8264,7 +8264,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B309" s="30" t="s">
         <v>17</v>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B310" s="30" t="s">
         <v>17</v>
@@ -8288,7 +8288,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B311" s="30" t="s">
         <v>17</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B312" s="30" t="s">
         <v>17</v>
@@ -8312,7 +8312,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B313" s="30" t="s">
         <v>17</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B314" s="30" t="s">
         <v>17</v>
@@ -8336,7 +8336,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B315" s="30" t="s">
         <v>17</v>
@@ -8348,7 +8348,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B316" s="30" t="s">
         <v>17</v>
@@ -8360,7 +8360,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B317" s="30" t="s">
         <v>17</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B318" s="30" t="s">
         <v>17</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B319" s="30" t="s">
         <v>17</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B320" s="30" t="s">
         <v>17</v>
@@ -8408,7 +8408,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B321" s="30" t="s">
         <v>17</v>
@@ -8420,7 +8420,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B322" s="30" t="s">
         <v>17</v>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B323" s="30" t="s">
         <v>17</v>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B324" s="30" t="s">
         <v>17</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B325" s="30" t="s">
         <v>17</v>
@@ -8468,7 +8468,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B326" s="30" t="s">
         <v>17</v>
@@ -8480,7 +8480,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B327" s="30" t="s">
         <v>17</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B328" s="30" t="s">
         <v>17</v>
@@ -8504,7 +8504,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B329" s="30" t="s">
         <v>17</v>
@@ -8516,7 +8516,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B330" s="30" t="s">
         <v>17</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B331" s="30" t="s">
         <v>17</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B332" s="30" t="s">
         <v>17</v>
@@ -8552,7 +8552,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B333" s="30" t="s">
         <v>17</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B334" s="30" t="s">
         <v>17</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B335" s="30" t="s">
         <v>17</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="30" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B336" s="30" t="s">
         <v>17</v>
@@ -8600,7 +8600,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B337" s="30" t="s">
         <v>17</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B338" s="30" t="s">
         <v>17</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B339" s="30" t="s">
         <v>17</v>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B340" s="30" t="s">
         <v>17</v>
@@ -8648,7 +8648,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B341" s="30" t="s">
         <v>17</v>
@@ -8660,7 +8660,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B342" s="30" t="s">
         <v>17</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B343" s="30" t="s">
         <v>17</v>
@@ -8684,7 +8684,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B344" s="30" t="s">
         <v>17</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B345" s="30" t="s">
         <v>17</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B346" s="30" t="s">
         <v>17</v>
@@ -8720,7 +8720,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B347" s="30" t="s">
         <v>17</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B348" s="30" t="s">
         <v>17</v>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B349" s="30" t="s">
         <v>17</v>
@@ -8756,7 +8756,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B350" s="30" t="s">
         <v>17</v>
@@ -8768,7 +8768,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B351" s="30" t="s">
         <v>17</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B352" s="30" t="s">
         <v>17</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B353" s="30" t="s">
         <v>17</v>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B354" s="30" t="s">
         <v>17</v>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B355" s="30" t="s">
         <v>17</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B356" s="30" t="s">
         <v>17</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B357" s="30" t="s">
         <v>17</v>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B358" s="30" t="s">
         <v>17</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B359" s="30" t="s">
         <v>17</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B360" s="30" t="s">
         <v>17</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B361" s="30" t="s">
         <v>17</v>
@@ -8900,7 +8900,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B362" s="30" t="s">
         <v>17</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B363" s="30" t="s">
         <v>17</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B364" s="30" t="s">
         <v>17</v>
@@ -8936,7 +8936,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B365" s="30" t="s">
         <v>17</v>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B366" s="30" t="s">
         <v>17</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B367" s="30" t="s">
         <v>17</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B368" s="30" t="s">
         <v>17</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B369" s="30" t="s">
         <v>17</v>
@@ -8996,7 +8996,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B370" s="30" t="s">
         <v>17</v>
@@ -9008,7 +9008,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B371" s="30" t="s">
         <v>17</v>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B372" s="30" t="s">
         <v>17</v>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B373" s="30" t="s">
         <v>17</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B374" s="30" t="s">
         <v>17</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B375" s="30" t="s">
         <v>17</v>
@@ -9068,7 +9068,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B376" s="30" t="s">
         <v>17</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B377" s="30" t="s">
         <v>17</v>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B378" s="30" t="s">
         <v>17</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B379" s="30" t="s">
         <v>17</v>
@@ -9116,7 +9116,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B380" s="30" t="s">
         <v>17</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B381" s="30" t="s">
         <v>17</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B382" s="30" t="s">
         <v>17</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B383" s="30" t="s">
         <v>17</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B384" s="30" t="s">
         <v>17</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B385" s="30" t="s">
         <v>17</v>
@@ -9188,7 +9188,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B386" s="30" t="s">
         <v>17</v>
@@ -9200,7 +9200,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B387" s="30" t="s">
         <v>17</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B388" s="30" t="s">
         <v>17</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="30" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B389" s="30" t="s">
         <v>17</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B390" s="30" t="s">
         <v>17</v>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B391" s="30" t="s">
         <v>17</v>
@@ -9260,7 +9260,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="30" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B392" s="30" t="s">
         <v>17</v>
@@ -9272,7 +9272,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="30" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B393" s="30" t="s">
         <v>17</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B394" s="30" t="s">
         <v>17</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B395" s="30" t="s">
         <v>17</v>
@@ -9308,7 +9308,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B396" s="30" t="s">
         <v>17</v>
@@ -9320,7 +9320,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B397" s="30" t="s">
         <v>17</v>
@@ -9332,7 +9332,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B398" s="30" t="s">
         <v>17</v>
@@ -9344,7 +9344,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B399" s="30" t="s">
         <v>17</v>
@@ -9356,7 +9356,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B400" s="30" t="s">
         <v>17</v>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B401" s="30" t="s">
         <v>17</v>
@@ -9380,7 +9380,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B402" s="30" t="s">
         <v>17</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B403" s="30" t="s">
         <v>17</v>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B404" s="30" t="s">
         <v>17</v>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B405" s="30" t="s">
         <v>17</v>
@@ -9428,7 +9428,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B406" s="30" t="s">
         <v>17</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B407" s="30" t="s">
         <v>17</v>
@@ -9452,7 +9452,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B408" s="30" t="s">
         <v>17</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B409" s="30" t="s">
         <v>17</v>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="30" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B410" s="30" t="s">
         <v>17</v>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B411" s="30" t="s">
         <v>17</v>
@@ -9500,7 +9500,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B412" s="30" t="s">
         <v>17</v>
@@ -9512,7 +9512,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B413" s="30" t="s">
         <v>17</v>
@@ -9524,7 +9524,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B414" s="30" t="s">
         <v>17</v>
@@ -9536,7 +9536,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B415" s="30" t="s">
         <v>17</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B416" s="30" t="s">
         <v>17</v>
@@ -9560,7 +9560,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B417" s="30" t="s">
         <v>17</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B418" s="30" t="s">
         <v>17</v>
@@ -9584,7 +9584,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B419" s="30" t="s">
         <v>17</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="30" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B420" s="30" t="s">
         <v>17</v>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B421" s="30" t="s">
         <v>17</v>
@@ -9620,7 +9620,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B422" s="30" t="s">
         <v>17</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B423" s="30" t="s">
         <v>17</v>
@@ -9644,7 +9644,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B424" s="30" t="s">
         <v>17</v>
@@ -9656,7 +9656,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B425" s="30" t="s">
         <v>17</v>
@@ -9668,7 +9668,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B426" s="30" t="s">
         <v>17</v>
@@ -9680,7 +9680,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B427" s="30" t="s">
         <v>17</v>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B428" s="30" t="s">
         <v>17</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B429" s="30" t="s">
         <v>17</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B430" s="30" t="s">
         <v>17</v>
@@ -9728,7 +9728,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B431" s="30" t="s">
         <v>17</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B432" s="30" t="s">
         <v>17</v>
@@ -9752,7 +9752,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B433" s="30" t="s">
         <v>17</v>
@@ -9764,7 +9764,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B434" s="30" t="s">
         <v>17</v>
@@ -9776,7 +9776,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B435" s="30" t="s">
         <v>17</v>
@@ -9788,7 +9788,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B436" s="30" t="s">
         <v>17</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B437" s="30" t="s">
         <v>17</v>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B438" s="30" t="s">
         <v>17</v>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B439" s="30" t="s">
         <v>17</v>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B440" s="30" t="s">
         <v>17</v>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B441" s="30" t="s">
         <v>17</v>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B442" s="30" t="s">
         <v>17</v>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B443" s="30" t="s">
         <v>17</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B444" s="30" t="s">
         <v>17</v>
@@ -9896,7 +9896,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B445" s="30" t="s">
         <v>17</v>
@@ -9908,7 +9908,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B446" s="30" t="s">
         <v>17</v>
@@ -9920,7 +9920,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="30" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B447" s="30" t="s">
         <v>17</v>
@@ -9932,7 +9932,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B448" s="30" t="s">
         <v>17</v>
@@ -9944,7 +9944,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B449" s="30" t="s">
         <v>17</v>
@@ -9956,7 +9956,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="30" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B450" s="30" t="s">
         <v>17</v>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B451" s="30" t="s">
         <v>17</v>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B452" s="30" t="s">
         <v>17</v>
@@ -9992,7 +9992,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B453" s="30" t="s">
         <v>17</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B454" s="30" t="s">
         <v>17</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B455" s="30" t="s">
         <v>17</v>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="30" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B456" s="30" t="s">
         <v>17</v>
@@ -10040,7 +10040,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="30" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B457" s="30" t="s">
         <v>17</v>
@@ -10052,7 +10052,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B458" s="30" t="s">
         <v>17</v>
@@ -10064,7 +10064,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B459" s="30" t="s">
         <v>17</v>
@@ -10076,7 +10076,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B460" s="30" t="s">
         <v>17</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B461" s="30" t="s">
         <v>17</v>
@@ -10100,7 +10100,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="30" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B462" s="30" t="s">
         <v>17</v>
@@ -10112,7 +10112,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B463" s="30" t="s">
         <v>17</v>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B464" s="30" t="s">
         <v>17</v>
@@ -10136,7 +10136,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B465" s="30" t="s">
         <v>17</v>
@@ -10148,7 +10148,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B466" s="30" t="s">
         <v>17</v>
@@ -10160,7 +10160,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B467" s="30" t="s">
         <v>17</v>
@@ -10172,7 +10172,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B468" s="30" t="s">
         <v>17</v>
@@ -10184,7 +10184,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B469" s="30" t="s">
         <v>17</v>
@@ -10196,7 +10196,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B470" s="30" t="s">
         <v>17</v>
@@ -10208,7 +10208,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B471" s="30" t="s">
         <v>17</v>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B472" s="30" t="s">
         <v>17</v>
@@ -10232,7 +10232,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B473" s="30" t="s">
         <v>17</v>
@@ -10244,7 +10244,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B474" s="30" t="s">
         <v>17</v>
@@ -10256,7 +10256,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B475" s="30" t="s">
         <v>17</v>
@@ -10268,7 +10268,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B476" s="30" t="s">
         <v>17</v>
@@ -10280,7 +10280,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B477" s="30" t="s">
         <v>17</v>
@@ -13497,7 +13497,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -13533,7 +13533,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -13569,7 +13569,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -13605,7 +13605,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -13641,7 +13641,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -13677,7 +13677,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -13713,7 +13713,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -13749,7 +13749,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -13785,7 +13785,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -13821,7 +13821,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -13857,7 +13857,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -13893,7 +13893,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -13929,7 +13929,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -13965,7 +13965,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -14001,7 +14001,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -14037,7 +14037,7 @@
         <v>73</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -14073,7 +14073,7 @@
         <v>54</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -14109,7 +14109,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -14145,7 +14145,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -14181,7 +14181,7 @@
         <v>54</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -14217,7 +14217,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -14253,7 +14253,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -14289,7 +14289,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -14325,7 +14325,7 @@
         <v>84</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -14361,7 +14361,7 @@
         <v>54</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -14397,7 +14397,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -14433,7 +14433,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -14469,7 +14469,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -14505,7 +14505,7 @@
         <v>54</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -14541,7 +14541,7 @@
         <v>54</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -14577,7 +14577,7 @@
         <v>54</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -14613,7 +14613,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
@@ -14649,7 +14649,7 @@
         <v>54</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -14685,7 +14685,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -14721,7 +14721,7 @@
         <v>99</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -14757,7 +14757,7 @@
         <v>57</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -14793,7 +14793,7 @@
         <v>54</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
@@ -14829,7 +14829,7 @@
         <v>54</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
@@ -14865,7 +14865,7 @@
         <v>99</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
@@ -14901,7 +14901,7 @@
         <v>90</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
@@ -14937,7 +14937,7 @@
         <v>54</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
@@ -14973,7 +14973,7 @@
         <v>107</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
@@ -15009,7 +15009,7 @@
         <v>57</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -15045,7 +15045,7 @@
         <v>95</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -15081,7 +15081,7 @@
         <v>82</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
@@ -15117,7 +15117,7 @@
         <v>82</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -15153,7 +15153,7 @@
         <v>113</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
@@ -15189,7 +15189,7 @@
         <v>54</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
@@ -15225,7 +15225,7 @@
         <v>54</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
@@ -15261,7 +15261,7 @@
         <v>88</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
@@ -15297,7 +15297,7 @@
         <v>54</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
@@ -15333,7 +15333,7 @@
         <v>54</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
@@ -15369,7 +15369,7 @@
         <v>54</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
@@ -15405,7 +15405,7 @@
         <v>121</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
@@ -15441,7 +15441,7 @@
         <v>54</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
@@ -15477,7 +15477,7 @@
         <v>54</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
@@ -15513,7 +15513,7 @@
         <v>54</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
@@ -15549,7 +15549,7 @@
         <v>54</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
@@ -15585,7 +15585,7 @@
         <v>54</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
@@ -15621,7 +15621,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
@@ -15657,7 +15657,7 @@
         <v>54</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
@@ -15693,7 +15693,7 @@
         <v>130</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
@@ -15729,7 +15729,7 @@
         <v>54</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
@@ -15765,7 +15765,7 @@
         <v>54</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
@@ -15801,7 +15801,7 @@
         <v>54</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
@@ -15837,7 +15837,7 @@
         <v>54</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
@@ -15873,7 +15873,7 @@
         <v>54</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
@@ -15909,7 +15909,7 @@
         <v>57</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
@@ -15945,7 +15945,7 @@
         <v>54</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
@@ -15981,7 +15981,7 @@
         <v>82</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
@@ -16017,7 +16017,7 @@
         <v>82</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
@@ -16053,7 +16053,7 @@
         <v>57</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
@@ -16089,7 +16089,7 @@
         <v>142</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
@@ -16125,7 +16125,7 @@
         <v>142</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
@@ -16161,7 +16161,7 @@
         <v>142</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
@@ -16197,7 +16197,7 @@
         <v>99</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
@@ -16233,7 +16233,7 @@
         <v>121</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
@@ -16269,7 +16269,7 @@
         <v>65</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
@@ -16305,7 +16305,7 @@
         <v>65</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
@@ -16341,7 +16341,7 @@
         <v>54</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
@@ -16377,7 +16377,7 @@
         <v>73</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
@@ -16413,7 +16413,7 @@
         <v>54</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
@@ -16449,7 +16449,7 @@
         <v>57</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
@@ -16485,7 +16485,7 @@
         <v>90</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
@@ -16521,7 +16521,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
@@ -16557,7 +16557,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
@@ -16593,7 +16593,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -16629,7 +16629,7 @@
         <v>57</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
@@ -16665,7 +16665,7 @@
         <v>54</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -16701,7 +16701,7 @@
         <v>54</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -16737,7 +16737,7 @@
         <v>54</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -16773,7 +16773,7 @@
         <v>54</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -16809,7 +16809,7 @@
         <v>54</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
@@ -16845,7 +16845,7 @@
         <v>65</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -16881,7 +16881,7 @@
         <v>165</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
@@ -16917,7 +16917,7 @@
         <v>54</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -16953,7 +16953,7 @@
         <v>54</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
@@ -16989,7 +16989,7 @@
         <v>169</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
@@ -17025,7 +17025,7 @@
         <v>82</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E100" s="28"/>
       <c r="F100" s="28"/>
@@ -17061,7 +17061,7 @@
         <v>95</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="28"/>
@@ -17097,7 +17097,7 @@
         <v>95</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
@@ -17133,7 +17133,7 @@
         <v>54</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E103" s="28"/>
       <c r="F103" s="28"/>
@@ -17169,7 +17169,7 @@
         <v>54</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
@@ -17205,7 +17205,7 @@
         <v>54</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E105" s="28"/>
       <c r="F105" s="28"/>
@@ -17241,7 +17241,7 @@
         <v>54</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="28"/>
@@ -17277,7 +17277,7 @@
         <v>54</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="28"/>
@@ -17313,7 +17313,7 @@
         <v>54</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
@@ -17349,7 +17349,7 @@
         <v>180</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="28"/>
@@ -17385,7 +17385,7 @@
         <v>121</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E110" s="28"/>
       <c r="F110" s="28"/>
@@ -17421,7 +17421,7 @@
         <v>54</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E111" s="28"/>
       <c r="F111" s="28"/>
@@ -17457,7 +17457,7 @@
         <v>54</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E112" s="28"/>
       <c r="F112" s="28"/>
@@ -17493,7 +17493,7 @@
         <v>54</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="28"/>
@@ -17529,7 +17529,7 @@
         <v>54</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
@@ -17565,7 +17565,7 @@
         <v>54</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="28"/>
@@ -17601,7 +17601,7 @@
         <v>54</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
@@ -17637,7 +17637,7 @@
         <v>57</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
@@ -17673,7 +17673,7 @@
         <v>57</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E118" s="28"/>
       <c r="F118" s="28"/>
@@ -17709,7 +17709,7 @@
         <v>57</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="28"/>
@@ -17745,7 +17745,7 @@
         <v>57</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
@@ -17781,7 +17781,7 @@
         <v>57</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
@@ -17817,7 +17817,7 @@
         <v>57</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
@@ -17853,7 +17853,7 @@
         <v>57</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
@@ -17889,7 +17889,7 @@
         <v>57</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
@@ -17925,7 +17925,7 @@
         <v>57</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="28"/>
@@ -17961,7 +17961,7 @@
         <v>57</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="28"/>
@@ -17997,7 +17997,7 @@
         <v>57</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="28"/>
@@ -18033,7 +18033,7 @@
         <v>57</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
@@ -18069,7 +18069,7 @@
         <v>57</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E129" s="28"/>
       <c r="F129" s="28"/>
@@ -18105,7 +18105,7 @@
         <v>202</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
@@ -44096,13 +44096,13 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -44111,12 +44111,12 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/OPG/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B40C3CA-DDD0-CF49-9663-67E531826A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F207BF-EEAA-7342-9BA3-91D72B7D2AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="9140" windowWidth="40920" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8660" yWindow="9140" windowWidth="40920" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="4" r:id="rId1"/>
@@ -2600,7 +2600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF42D79-4151-C94E-B150-CAB1CD330C33}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2699,9 +2699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2711,7 +2711,7 @@
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliot.smith/projects/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/OPG/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5962683A-0F6A-1D45-A200-CB848563F584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F207BF-EEAA-7342-9BA3-91D72B7D2AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="960" windowWidth="38380" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8660" yWindow="9140" windowWidth="40920" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="4" r:id="rId1"/>
@@ -690,9 +690,6 @@
     <t>Not started</t>
   </si>
   <si>
-    <t>include_values = {"col": "Status", "values": ["ACTIVE", "INACTIVE"]}</t>
-  </si>
-  <si>
     <t>CWGN</t>
   </si>
   <si>
@@ -2185,6 +2182,9 @@
   </si>
   <si>
     <t>Case, Status, Order No, Target</t>
+  </si>
+  <si>
+    <t>include_values = {"col": "Status", "values": ["ACTIVE"]}</t>
   </si>
 </sst>
 </file>
@@ -2600,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF42D79-4151-C94E-B150-CAB1CD330C33}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2656,10 +2656,10 @@
         <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>719</v>
       </c>
       <c r="H2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2678,13 +2678,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E4" t="s">
         <v>218</v>
@@ -2699,9 +2699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2711,7 +2711,7 @@
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
@@ -2832,10 +2832,10 @@
         <v>34</v>
       </c>
       <c r="J3" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L3" s="30" t="s">
         <v>237</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>238</v>
       </c>
       <c r="M3" s="7">
         <v>2657</v>
@@ -2872,7 +2872,7 @@
         <v>40</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P4" s="19" t="s">
         <v>21</v>
@@ -2967,7 +2967,7 @@
         <v>21</v>
       </c>
       <c r="Q8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15">
@@ -4580,7 +4580,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>17</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>17</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>17</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>17</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>17</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>17</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>17</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>17</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>17</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>17</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>17</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>17</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>17</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>17</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>17</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="30" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>17</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>17</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>17</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>17</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>17</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>17</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>17</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>17</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>17</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>17</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>17</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>17</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>17</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>17</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>17</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>17</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>17</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>17</v>
@@ -4976,7 +4976,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>17</v>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>17</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>17</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>17</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>17</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>17</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>17</v>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>17</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>17</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>17</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>17</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>17</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>17</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>17</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>17</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>17</v>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>17</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>17</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>17</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>17</v>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>17</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>17</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>17</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B58" s="30" t="s">
         <v>17</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B59" s="30" t="s">
         <v>17</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>17</v>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>17</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>17</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>17</v>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>17</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>17</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="30" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>17</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="30" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>17</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="30" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>17</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>17</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>17</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>17</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>17</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>17</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B74" s="30" t="s">
         <v>17</v>
@@ -5456,7 +5456,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>17</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>17</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>17</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>17</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>17</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>17</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>17</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>17</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>17</v>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>17</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>17</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>17</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="30" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>17</v>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>17</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B89" s="30" t="s">
         <v>17</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>17</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>17</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>17</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>17</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>17</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>17</v>
@@ -5708,7 +5708,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>17</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>17</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>17</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>17</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>17</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>17</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>17</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>17</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>17</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>17</v>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>17</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>17</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>17</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>17</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>17</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B111" s="30" t="s">
         <v>17</v>
@@ -5900,7 +5900,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>17</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>17</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>17</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>17</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>17</v>
@@ -5960,7 +5960,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>17</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="30" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>17</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>17</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>17</v>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>17</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>17</v>
@@ -6032,7 +6032,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>17</v>
@@ -6044,7 +6044,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>17</v>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>17</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>17</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>17</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>17</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B129" s="30" t="s">
         <v>17</v>
@@ -6116,7 +6116,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B130" s="30" t="s">
         <v>17</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B131" s="30" t="s">
         <v>17</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B132" s="30" t="s">
         <v>17</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B133" s="30" t="s">
         <v>17</v>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B134" s="30" t="s">
         <v>17</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B135" s="30" t="s">
         <v>17</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B136" s="30" t="s">
         <v>17</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B137" s="30" t="s">
         <v>17</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B138" s="30" t="s">
         <v>17</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B139" s="30" t="s">
         <v>17</v>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B140" s="30" t="s">
         <v>17</v>
@@ -6248,7 +6248,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B141" s="30" t="s">
         <v>17</v>
@@ -6260,7 +6260,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="30" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B142" s="30" t="s">
         <v>17</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B143" s="30" t="s">
         <v>17</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B144" s="30" t="s">
         <v>17</v>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B145" s="30" t="s">
         <v>17</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B146" s="30" t="s">
         <v>17</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B147" s="30" t="s">
         <v>17</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B148" s="30" t="s">
         <v>17</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B149" s="30" t="s">
         <v>17</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B150" s="30" t="s">
         <v>17</v>
@@ -6368,7 +6368,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B151" s="30" t="s">
         <v>17</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B152" s="30" t="s">
         <v>17</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B153" s="30" t="s">
         <v>17</v>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B154" s="30" t="s">
         <v>17</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="30" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B155" s="30" t="s">
         <v>17</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B156" s="30" t="s">
         <v>17</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B157" s="30" t="s">
         <v>17</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B158" s="30" t="s">
         <v>17</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B159" s="30" t="s">
         <v>17</v>
@@ -6476,7 +6476,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="30" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B160" s="30" t="s">
         <v>17</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B161" s="30" t="s">
         <v>17</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B162" s="30" t="s">
         <v>17</v>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B163" s="30" t="s">
         <v>17</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B164" s="30" t="s">
         <v>17</v>
@@ -6536,7 +6536,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B165" s="30" t="s">
         <v>17</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B166" s="30" t="s">
         <v>17</v>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B167" s="30" t="s">
         <v>17</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B168" s="30" t="s">
         <v>17</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B169" s="30" t="s">
         <v>17</v>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B170" s="30" t="s">
         <v>17</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B171" s="30" t="s">
         <v>17</v>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B172" s="30" t="s">
         <v>17</v>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B173" s="30" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B174" s="30" t="s">
         <v>17</v>
@@ -6656,7 +6656,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B175" s="30" t="s">
         <v>17</v>
@@ -6668,7 +6668,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B176" s="30" t="s">
         <v>17</v>
@@ -6680,7 +6680,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B177" s="30" t="s">
         <v>17</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B178" s="30" t="s">
         <v>17</v>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B179" s="30" t="s">
         <v>17</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B180" s="30" t="s">
         <v>17</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B181" s="30" t="s">
         <v>17</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B182" s="30" t="s">
         <v>17</v>
@@ -6752,7 +6752,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B183" s="30" t="s">
         <v>17</v>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B184" s="30" t="s">
         <v>17</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="30" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B185" s="30" t="s">
         <v>17</v>
@@ -6788,7 +6788,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B186" s="30" t="s">
         <v>17</v>
@@ -6800,7 +6800,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B187" s="30" t="s">
         <v>17</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B188" s="30" t="s">
         <v>17</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B189" s="30" t="s">
         <v>17</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B190" s="30" t="s">
         <v>17</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B191" s="30" t="s">
         <v>17</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B192" s="30" t="s">
         <v>17</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B193" s="30" t="s">
         <v>17</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B194" s="30" t="s">
         <v>17</v>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B195" s="30" t="s">
         <v>17</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B196" s="30" t="s">
         <v>17</v>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B197" s="30" t="s">
         <v>17</v>
@@ -6932,7 +6932,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B198" s="30" t="s">
         <v>17</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B199" s="30" t="s">
         <v>17</v>
@@ -6956,7 +6956,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B200" s="30" t="s">
         <v>17</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B201" s="30" t="s">
         <v>17</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B202" s="30" t="s">
         <v>17</v>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B203" s="30" t="s">
         <v>17</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B204" s="30" t="s">
         <v>17</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B205" s="30" t="s">
         <v>17</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B206" s="30" t="s">
         <v>17</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B207" s="30" t="s">
         <v>17</v>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B208" s="30" t="s">
         <v>17</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="30" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B209" s="30" t="s">
         <v>17</v>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B210" s="30" t="s">
         <v>17</v>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B211" s="30" t="s">
         <v>17</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B212" s="30" t="s">
         <v>17</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B213" s="30" t="s">
         <v>17</v>
@@ -7124,7 +7124,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B214" s="30" t="s">
         <v>17</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B215" s="30" t="s">
         <v>17</v>
@@ -7148,7 +7148,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="30" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B216" s="30" t="s">
         <v>17</v>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B217" s="30" t="s">
         <v>17</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B218" s="30" t="s">
         <v>17</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B219" s="30" t="s">
         <v>17</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B220" s="30" t="s">
         <v>17</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B221" s="30" t="s">
         <v>17</v>
@@ -7220,7 +7220,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B222" s="30" t="s">
         <v>17</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B223" s="30" t="s">
         <v>17</v>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B224" s="30" t="s">
         <v>17</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B225" s="30" t="s">
         <v>17</v>
@@ -7268,7 +7268,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B226" s="30" t="s">
         <v>17</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B227" s="30" t="s">
         <v>17</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B228" s="30" t="s">
         <v>17</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B229" s="30" t="s">
         <v>17</v>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B230" s="30" t="s">
         <v>17</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B231" s="30" t="s">
         <v>17</v>
@@ -7340,7 +7340,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B232" s="30" t="s">
         <v>17</v>
@@ -7352,7 +7352,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B233" s="30" t="s">
         <v>17</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B234" s="30" t="s">
         <v>17</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B235" s="30" t="s">
         <v>17</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B236" s="30" t="s">
         <v>17</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B237" s="30" t="s">
         <v>17</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B238" s="30" t="s">
         <v>17</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B239" s="30" t="s">
         <v>17</v>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B240" s="30" t="s">
         <v>17</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B241" s="30" t="s">
         <v>17</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B242" s="30" t="s">
         <v>17</v>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B243" s="30" t="s">
         <v>17</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B244" s="30" t="s">
         <v>17</v>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B245" s="30" t="s">
         <v>17</v>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B246" s="30" t="s">
         <v>17</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B247" s="30" t="s">
         <v>17</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B248" s="30" t="s">
         <v>17</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B249" s="30" t="s">
         <v>17</v>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B250" s="30" t="s">
         <v>17</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B251" s="30" t="s">
         <v>17</v>
@@ -7580,7 +7580,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B252" s="30" t="s">
         <v>17</v>
@@ -7592,7 +7592,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B253" s="30" t="s">
         <v>17</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B254" s="30" t="s">
         <v>17</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B255" s="30" t="s">
         <v>17</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B256" s="30" t="s">
         <v>17</v>
@@ -7640,7 +7640,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B257" s="30" t="s">
         <v>17</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B258" s="30" t="s">
         <v>17</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B259" s="30" t="s">
         <v>17</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B260" s="30" t="s">
         <v>17</v>
@@ -7688,7 +7688,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B261" s="30" t="s">
         <v>17</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B262" s="30" t="s">
         <v>17</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B263" s="30" t="s">
         <v>17</v>
@@ -7724,7 +7724,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B264" s="30" t="s">
         <v>17</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B265" s="30" t="s">
         <v>17</v>
@@ -7748,7 +7748,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B266" s="30" t="s">
         <v>17</v>
@@ -7760,7 +7760,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B267" s="30" t="s">
         <v>17</v>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B268" s="30" t="s">
         <v>17</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B269" s="30" t="s">
         <v>17</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B270" s="30" t="s">
         <v>17</v>
@@ -7808,7 +7808,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B271" s="30" t="s">
         <v>17</v>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B272" s="30" t="s">
         <v>17</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B273" s="30" t="s">
         <v>17</v>
@@ -7844,7 +7844,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B274" s="30" t="s">
         <v>17</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B275" s="30" t="s">
         <v>17</v>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B276" s="30" t="s">
         <v>17</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B277" s="30" t="s">
         <v>17</v>
@@ -7892,7 +7892,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B278" s="30" t="s">
         <v>17</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B279" s="30" t="s">
         <v>17</v>
@@ -7916,7 +7916,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="30" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B280" s="30" t="s">
         <v>17</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B281" s="30" t="s">
         <v>17</v>
@@ -7940,7 +7940,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B282" s="30" t="s">
         <v>17</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B283" s="30" t="s">
         <v>17</v>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B284" s="30" t="s">
         <v>17</v>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B285" s="30" t="s">
         <v>17</v>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B286" s="30" t="s">
         <v>17</v>
@@ -8000,7 +8000,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B287" s="30" t="s">
         <v>17</v>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B288" s="30" t="s">
         <v>17</v>
@@ -8024,7 +8024,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B289" s="30" t="s">
         <v>17</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B290" s="30" t="s">
         <v>17</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="30" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B291" s="30" t="s">
         <v>17</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B292" s="30" t="s">
         <v>17</v>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B293" s="30" t="s">
         <v>17</v>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B294" s="30" t="s">
         <v>17</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B295" s="30" t="s">
         <v>17</v>
@@ -8108,7 +8108,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="30" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B296" s="30" t="s">
         <v>17</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B297" s="30" t="s">
         <v>17</v>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B298" s="30" t="s">
         <v>17</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B299" s="30" t="s">
         <v>17</v>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B300" s="30" t="s">
         <v>17</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B301" s="30" t="s">
         <v>17</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B302" s="30" t="s">
         <v>17</v>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B303" s="30" t="s">
         <v>17</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B304" s="30" t="s">
         <v>17</v>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B305" s="30" t="s">
         <v>17</v>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B306" s="30" t="s">
         <v>17</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B307" s="30" t="s">
         <v>17</v>
@@ -8252,7 +8252,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B308" s="30" t="s">
         <v>17</v>
@@ -8264,7 +8264,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B309" s="30" t="s">
         <v>17</v>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B310" s="30" t="s">
         <v>17</v>
@@ -8288,7 +8288,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B311" s="30" t="s">
         <v>17</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B312" s="30" t="s">
         <v>17</v>
@@ -8312,7 +8312,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B313" s="30" t="s">
         <v>17</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B314" s="30" t="s">
         <v>17</v>
@@ -8336,7 +8336,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B315" s="30" t="s">
         <v>17</v>
@@ -8348,7 +8348,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B316" s="30" t="s">
         <v>17</v>
@@ -8360,7 +8360,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B317" s="30" t="s">
         <v>17</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B318" s="30" t="s">
         <v>17</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B319" s="30" t="s">
         <v>17</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B320" s="30" t="s">
         <v>17</v>
@@ -8408,7 +8408,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B321" s="30" t="s">
         <v>17</v>
@@ -8420,7 +8420,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B322" s="30" t="s">
         <v>17</v>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B323" s="30" t="s">
         <v>17</v>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B324" s="30" t="s">
         <v>17</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B325" s="30" t="s">
         <v>17</v>
@@ -8468,7 +8468,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B326" s="30" t="s">
         <v>17</v>
@@ -8480,7 +8480,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B327" s="30" t="s">
         <v>17</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B328" s="30" t="s">
         <v>17</v>
@@ -8504,7 +8504,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B329" s="30" t="s">
         <v>17</v>
@@ -8516,7 +8516,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B330" s="30" t="s">
         <v>17</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B331" s="30" t="s">
         <v>17</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B332" s="30" t="s">
         <v>17</v>
@@ -8552,7 +8552,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B333" s="30" t="s">
         <v>17</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B334" s="30" t="s">
         <v>17</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B335" s="30" t="s">
         <v>17</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="30" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B336" s="30" t="s">
         <v>17</v>
@@ -8600,7 +8600,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B337" s="30" t="s">
         <v>17</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B338" s="30" t="s">
         <v>17</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B339" s="30" t="s">
         <v>17</v>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B340" s="30" t="s">
         <v>17</v>
@@ -8648,7 +8648,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B341" s="30" t="s">
         <v>17</v>
@@ -8660,7 +8660,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B342" s="30" t="s">
         <v>17</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B343" s="30" t="s">
         <v>17</v>
@@ -8684,7 +8684,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B344" s="30" t="s">
         <v>17</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B345" s="30" t="s">
         <v>17</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B346" s="30" t="s">
         <v>17</v>
@@ -8720,7 +8720,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B347" s="30" t="s">
         <v>17</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B348" s="30" t="s">
         <v>17</v>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B349" s="30" t="s">
         <v>17</v>
@@ -8756,7 +8756,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B350" s="30" t="s">
         <v>17</v>
@@ -8768,7 +8768,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B351" s="30" t="s">
         <v>17</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B352" s="30" t="s">
         <v>17</v>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B353" s="30" t="s">
         <v>17</v>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B354" s="30" t="s">
         <v>17</v>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B355" s="30" t="s">
         <v>17</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B356" s="30" t="s">
         <v>17</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B357" s="30" t="s">
         <v>17</v>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B358" s="30" t="s">
         <v>17</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B359" s="30" t="s">
         <v>17</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B360" s="30" t="s">
         <v>17</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B361" s="30" t="s">
         <v>17</v>
@@ -8900,7 +8900,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B362" s="30" t="s">
         <v>17</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B363" s="30" t="s">
         <v>17</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B364" s="30" t="s">
         <v>17</v>
@@ -8936,7 +8936,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B365" s="30" t="s">
         <v>17</v>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B366" s="30" t="s">
         <v>17</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B367" s="30" t="s">
         <v>17</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B368" s="30" t="s">
         <v>17</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B369" s="30" t="s">
         <v>17</v>
@@ -8996,7 +8996,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B370" s="30" t="s">
         <v>17</v>
@@ -9008,7 +9008,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B371" s="30" t="s">
         <v>17</v>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B372" s="30" t="s">
         <v>17</v>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B373" s="30" t="s">
         <v>17</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B374" s="30" t="s">
         <v>17</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B375" s="30" t="s">
         <v>17</v>
@@ -9068,7 +9068,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B376" s="30" t="s">
         <v>17</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B377" s="30" t="s">
         <v>17</v>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B378" s="30" t="s">
         <v>17</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B379" s="30" t="s">
         <v>17</v>
@@ -9116,7 +9116,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B380" s="30" t="s">
         <v>17</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B381" s="30" t="s">
         <v>17</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B382" s="30" t="s">
         <v>17</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B383" s="30" t="s">
         <v>17</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B384" s="30" t="s">
         <v>17</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B385" s="30" t="s">
         <v>17</v>
@@ -9188,7 +9188,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B386" s="30" t="s">
         <v>17</v>
@@ -9200,7 +9200,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B387" s="30" t="s">
         <v>17</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B388" s="30" t="s">
         <v>17</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="30" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B389" s="30" t="s">
         <v>17</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B390" s="30" t="s">
         <v>17</v>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B391" s="30" t="s">
         <v>17</v>
@@ -9260,7 +9260,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="30" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B392" s="30" t="s">
         <v>17</v>
@@ -9272,7 +9272,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="30" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B393" s="30" t="s">
         <v>17</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B394" s="30" t="s">
         <v>17</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B395" s="30" t="s">
         <v>17</v>
@@ -9308,7 +9308,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B396" s="30" t="s">
         <v>17</v>
@@ -9320,7 +9320,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B397" s="30" t="s">
         <v>17</v>
@@ -9332,7 +9332,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B398" s="30" t="s">
         <v>17</v>
@@ -9344,7 +9344,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B399" s="30" t="s">
         <v>17</v>
@@ -9356,7 +9356,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B400" s="30" t="s">
         <v>17</v>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B401" s="30" t="s">
         <v>17</v>
@@ -9380,7 +9380,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B402" s="30" t="s">
         <v>17</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B403" s="30" t="s">
         <v>17</v>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B404" s="30" t="s">
         <v>17</v>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B405" s="30" t="s">
         <v>17</v>
@@ -9428,7 +9428,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B406" s="30" t="s">
         <v>17</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B407" s="30" t="s">
         <v>17</v>
@@ -9452,7 +9452,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B408" s="30" t="s">
         <v>17</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B409" s="30" t="s">
         <v>17</v>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="30" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B410" s="30" t="s">
         <v>17</v>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B411" s="30" t="s">
         <v>17</v>
@@ -9500,7 +9500,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B412" s="30" t="s">
         <v>17</v>
@@ -9512,7 +9512,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B413" s="30" t="s">
         <v>17</v>
@@ -9524,7 +9524,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B414" s="30" t="s">
         <v>17</v>
@@ -9536,7 +9536,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B415" s="30" t="s">
         <v>17</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B416" s="30" t="s">
         <v>17</v>
@@ -9560,7 +9560,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B417" s="30" t="s">
         <v>17</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B418" s="30" t="s">
         <v>17</v>
@@ -9584,7 +9584,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B419" s="30" t="s">
         <v>17</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="30" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B420" s="30" t="s">
         <v>17</v>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B421" s="30" t="s">
         <v>17</v>
@@ -9620,7 +9620,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B422" s="30" t="s">
         <v>17</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B423" s="30" t="s">
         <v>17</v>
@@ -9644,7 +9644,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B424" s="30" t="s">
         <v>17</v>
@@ -9656,7 +9656,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B425" s="30" t="s">
         <v>17</v>
@@ -9668,7 +9668,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B426" s="30" t="s">
         <v>17</v>
@@ -9680,7 +9680,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B427" s="30" t="s">
         <v>17</v>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B428" s="30" t="s">
         <v>17</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B429" s="30" t="s">
         <v>17</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B430" s="30" t="s">
         <v>17</v>
@@ -9728,7 +9728,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B431" s="30" t="s">
         <v>17</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B432" s="30" t="s">
         <v>17</v>
@@ -9752,7 +9752,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B433" s="30" t="s">
         <v>17</v>
@@ -9764,7 +9764,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B434" s="30" t="s">
         <v>17</v>
@@ -9776,7 +9776,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B435" s="30" t="s">
         <v>17</v>
@@ -9788,7 +9788,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B436" s="30" t="s">
         <v>17</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B437" s="30" t="s">
         <v>17</v>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B438" s="30" t="s">
         <v>17</v>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B439" s="30" t="s">
         <v>17</v>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B440" s="30" t="s">
         <v>17</v>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B441" s="30" t="s">
         <v>17</v>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B442" s="30" t="s">
         <v>17</v>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B443" s="30" t="s">
         <v>17</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B444" s="30" t="s">
         <v>17</v>
@@ -9896,7 +9896,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B445" s="30" t="s">
         <v>17</v>
@@ -9908,7 +9908,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B446" s="30" t="s">
         <v>17</v>
@@ -9920,7 +9920,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="30" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B447" s="30" t="s">
         <v>17</v>
@@ -9932,7 +9932,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B448" s="30" t="s">
         <v>17</v>
@@ -9944,7 +9944,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B449" s="30" t="s">
         <v>17</v>
@@ -9956,7 +9956,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="30" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B450" s="30" t="s">
         <v>17</v>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B451" s="30" t="s">
         <v>17</v>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B452" s="30" t="s">
         <v>17</v>
@@ -9992,7 +9992,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B453" s="30" t="s">
         <v>17</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B454" s="30" t="s">
         <v>17</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B455" s="30" t="s">
         <v>17</v>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="30" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B456" s="30" t="s">
         <v>17</v>
@@ -10040,7 +10040,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="30" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B457" s="30" t="s">
         <v>17</v>
@@ -10052,7 +10052,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B458" s="30" t="s">
         <v>17</v>
@@ -10064,7 +10064,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B459" s="30" t="s">
         <v>17</v>
@@ -10076,7 +10076,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B460" s="30" t="s">
         <v>17</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B461" s="30" t="s">
         <v>17</v>
@@ -10100,7 +10100,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="30" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B462" s="30" t="s">
         <v>17</v>
@@ -10112,7 +10112,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B463" s="30" t="s">
         <v>17</v>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B464" s="30" t="s">
         <v>17</v>
@@ -10136,7 +10136,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B465" s="30" t="s">
         <v>17</v>
@@ -10148,7 +10148,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B466" s="30" t="s">
         <v>17</v>
@@ -10160,7 +10160,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B467" s="30" t="s">
         <v>17</v>
@@ -10172,7 +10172,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B468" s="30" t="s">
         <v>17</v>
@@ -10184,7 +10184,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B469" s="30" t="s">
         <v>17</v>
@@ -10196,7 +10196,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B470" s="30" t="s">
         <v>17</v>
@@ -10208,7 +10208,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B471" s="30" t="s">
         <v>17</v>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B472" s="30" t="s">
         <v>17</v>
@@ -10232,7 +10232,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B473" s="30" t="s">
         <v>17</v>
@@ -10244,7 +10244,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B474" s="30" t="s">
         <v>17</v>
@@ -10256,7 +10256,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B475" s="30" t="s">
         <v>17</v>
@@ -10268,7 +10268,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B476" s="30" t="s">
         <v>17</v>
@@ -10280,7 +10280,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B477" s="30" t="s">
         <v>17</v>
@@ -13497,7 +13497,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -13533,7 +13533,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -13569,7 +13569,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -13605,7 +13605,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -13641,7 +13641,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -13677,7 +13677,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -13713,7 +13713,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -13749,7 +13749,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -13785,7 +13785,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -13821,7 +13821,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -13857,7 +13857,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -13893,7 +13893,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -13929,7 +13929,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -13965,7 +13965,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -14001,7 +14001,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -14037,7 +14037,7 @@
         <v>73</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -14073,7 +14073,7 @@
         <v>54</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -14109,7 +14109,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -14145,7 +14145,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -14181,7 +14181,7 @@
         <v>54</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -14217,7 +14217,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -14253,7 +14253,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -14289,7 +14289,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -14325,7 +14325,7 @@
         <v>84</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -14361,7 +14361,7 @@
         <v>54</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -14397,7 +14397,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -14433,7 +14433,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -14469,7 +14469,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -14505,7 +14505,7 @@
         <v>54</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -14541,7 +14541,7 @@
         <v>54</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -14577,7 +14577,7 @@
         <v>54</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -14613,7 +14613,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
@@ -14649,7 +14649,7 @@
         <v>54</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -14685,7 +14685,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -14721,7 +14721,7 @@
         <v>99</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -14757,7 +14757,7 @@
         <v>57</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -14793,7 +14793,7 @@
         <v>54</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
@@ -14829,7 +14829,7 @@
         <v>54</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
@@ -14865,7 +14865,7 @@
         <v>99</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
@@ -14901,7 +14901,7 @@
         <v>90</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
@@ -14937,7 +14937,7 @@
         <v>54</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
@@ -14973,7 +14973,7 @@
         <v>107</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
@@ -15009,7 +15009,7 @@
         <v>57</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -15045,7 +15045,7 @@
         <v>95</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -15081,7 +15081,7 @@
         <v>82</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
@@ -15117,7 +15117,7 @@
         <v>82</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -15153,7 +15153,7 @@
         <v>113</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
@@ -15189,7 +15189,7 @@
         <v>54</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
@@ -15225,7 +15225,7 @@
         <v>54</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
@@ -15261,7 +15261,7 @@
         <v>88</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
@@ -15297,7 +15297,7 @@
         <v>54</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
@@ -15333,7 +15333,7 @@
         <v>54</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
@@ -15369,7 +15369,7 @@
         <v>54</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
@@ -15405,7 +15405,7 @@
         <v>121</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
@@ -15441,7 +15441,7 @@
         <v>54</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
@@ -15477,7 +15477,7 @@
         <v>54</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
@@ -15513,7 +15513,7 @@
         <v>54</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
@@ -15549,7 +15549,7 @@
         <v>54</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
@@ -15585,7 +15585,7 @@
         <v>54</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
@@ -15621,7 +15621,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
@@ -15657,7 +15657,7 @@
         <v>54</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
@@ -15693,7 +15693,7 @@
         <v>130</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
@@ -15729,7 +15729,7 @@
         <v>54</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
@@ -15765,7 +15765,7 @@
         <v>54</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
@@ -15801,7 +15801,7 @@
         <v>54</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
@@ -15837,7 +15837,7 @@
         <v>54</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
@@ -15873,7 +15873,7 @@
         <v>54</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
@@ -15909,7 +15909,7 @@
         <v>57</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
@@ -15945,7 +15945,7 @@
         <v>54</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
@@ -15981,7 +15981,7 @@
         <v>82</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
@@ -16017,7 +16017,7 @@
         <v>82</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
@@ -16053,7 +16053,7 @@
         <v>57</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
@@ -16089,7 +16089,7 @@
         <v>142</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
@@ -16125,7 +16125,7 @@
         <v>142</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
@@ -16161,7 +16161,7 @@
         <v>142</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
@@ -16197,7 +16197,7 @@
         <v>99</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
@@ -16233,7 +16233,7 @@
         <v>121</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
@@ -16269,7 +16269,7 @@
         <v>65</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
@@ -16305,7 +16305,7 @@
         <v>65</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
@@ -16341,7 +16341,7 @@
         <v>54</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
@@ -16377,7 +16377,7 @@
         <v>73</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
@@ -16413,7 +16413,7 @@
         <v>54</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
@@ -16449,7 +16449,7 @@
         <v>57</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
@@ -16485,7 +16485,7 @@
         <v>90</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
@@ -16521,7 +16521,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
@@ -16557,7 +16557,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
@@ -16593,7 +16593,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -16629,7 +16629,7 @@
         <v>57</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
@@ -16665,7 +16665,7 @@
         <v>54</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -16701,7 +16701,7 @@
         <v>54</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -16737,7 +16737,7 @@
         <v>54</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -16773,7 +16773,7 @@
         <v>54</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -16809,7 +16809,7 @@
         <v>54</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
@@ -16845,7 +16845,7 @@
         <v>65</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -16881,7 +16881,7 @@
         <v>165</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
@@ -16917,7 +16917,7 @@
         <v>54</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -16953,7 +16953,7 @@
         <v>54</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
@@ -16989,7 +16989,7 @@
         <v>169</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
@@ -17025,7 +17025,7 @@
         <v>82</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E100" s="28"/>
       <c r="F100" s="28"/>
@@ -17061,7 +17061,7 @@
         <v>95</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="28"/>
@@ -17097,7 +17097,7 @@
         <v>95</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
@@ -17133,7 +17133,7 @@
         <v>54</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E103" s="28"/>
       <c r="F103" s="28"/>
@@ -17169,7 +17169,7 @@
         <v>54</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
@@ -17205,7 +17205,7 @@
         <v>54</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E105" s="28"/>
       <c r="F105" s="28"/>
@@ -17241,7 +17241,7 @@
         <v>54</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="28"/>
@@ -17277,7 +17277,7 @@
         <v>54</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="28"/>
@@ -17313,7 +17313,7 @@
         <v>54</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
@@ -17349,7 +17349,7 @@
         <v>180</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="28"/>
@@ -17385,7 +17385,7 @@
         <v>121</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E110" s="28"/>
       <c r="F110" s="28"/>
@@ -17421,7 +17421,7 @@
         <v>54</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E111" s="28"/>
       <c r="F111" s="28"/>
@@ -17457,7 +17457,7 @@
         <v>54</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E112" s="28"/>
       <c r="F112" s="28"/>
@@ -17493,7 +17493,7 @@
         <v>54</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="28"/>
@@ -17529,7 +17529,7 @@
         <v>54</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
@@ -17565,7 +17565,7 @@
         <v>54</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="28"/>
@@ -17601,7 +17601,7 @@
         <v>54</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
@@ -17637,7 +17637,7 @@
         <v>57</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
@@ -17673,7 +17673,7 @@
         <v>57</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E118" s="28"/>
       <c r="F118" s="28"/>
@@ -17709,7 +17709,7 @@
         <v>57</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="28"/>
@@ -17745,7 +17745,7 @@
         <v>57</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
@@ -17781,7 +17781,7 @@
         <v>57</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
@@ -17817,7 +17817,7 @@
         <v>57</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
@@ -17853,7 +17853,7 @@
         <v>57</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
@@ -17889,7 +17889,7 @@
         <v>57</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
@@ -17925,7 +17925,7 @@
         <v>57</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="28"/>
@@ -17961,7 +17961,7 @@
         <v>57</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="28"/>
@@ -17997,7 +17997,7 @@
         <v>57</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="28"/>
@@ -18033,7 +18033,7 @@
         <v>57</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
@@ -18069,7 +18069,7 @@
         <v>57</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E129" s="28"/>
       <c r="F129" s="28"/>
@@ -18105,7 +18105,7 @@
         <v>202</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
@@ -44096,13 +44096,13 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -44111,12 +44111,12 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/OPG/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F207BF-EEAA-7342-9BA3-91D72B7D2AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF51235-AE82-654F-87C9-3B4E65D3E5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8660" yWindow="9140" windowWidth="40920" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="720">
   <si>
     <t>table_name</t>
   </si>
@@ -2701,7 +2701,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2960,9 +2960,13 @@
       <c r="E8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I8" s="20"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="P8" s="7" t="s">
         <v>21</v>
       </c>
@@ -2995,8 +2999,8 @@
       <c r="J9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>21</v>
+      <c r="P9" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="23" customFormat="1" ht="15">

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/OPG/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF51235-AE82-654F-87C9-3B4E65D3E5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E24F9C5-94DD-AB4C-8298-BDC9CAC0FFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8660" yWindow="9140" windowWidth="40920" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2701,7 +2701,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2711,7 +2711,7 @@
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="6" max="6" width="45.1640625" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/OPG/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E24F9C5-94DD-AB4C-8298-BDC9CAC0FFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF322E9B-9246-6B47-AE15-A85CE3E6F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="9140" windowWidth="40920" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21320" yWindow="7260" windowWidth="10000" windowHeight="21820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="728">
   <si>
     <t>table_name</t>
   </si>
@@ -2185,6 +2185,30 @@
   </si>
   <si>
     <t>include_values = {"col": "Status", "values": ["ACTIVE"]}</t>
+  </si>
+  <si>
+    <t>LT1</t>
+  </si>
+  <si>
+    <t>LT2</t>
+  </si>
+  <si>
+    <t>LT3</t>
+  </si>
+  <si>
+    <t>LT4</t>
+  </si>
+  <si>
+    <t>LT5</t>
+  </si>
+  <si>
+    <t>LT6</t>
+  </si>
+  <si>
+    <t>LT7</t>
+  </si>
+  <si>
+    <t>LT8</t>
   </si>
 </sst>
 </file>
@@ -2699,7 +2723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
@@ -4556,8 +4580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DF6ECF-5AE3-8A43-AD4D-9889B3A07CBB}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="D485" sqref="A478:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10295,52 +10319,100 @@
       </c>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="32"/>
-      <c r="B478" s="32"/>
+      <c r="A478" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="B478" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C478" s="32"/>
-      <c r="D478" s="32"/>
+      <c r="D478" s="30">
+        <v>2409</v>
+      </c>
     </row>
     <row r="479" spans="1:4">
-      <c r="A479" s="32"/>
-      <c r="B479" s="32"/>
+      <c r="A479" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="B479" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C479" s="32"/>
-      <c r="D479" s="32"/>
+      <c r="D479" s="30">
+        <v>2443</v>
+      </c>
     </row>
     <row r="480" spans="1:4">
-      <c r="A480" s="32"/>
-      <c r="B480" s="32"/>
+      <c r="A480" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="B480" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C480" s="32"/>
-      <c r="D480" s="32"/>
+      <c r="D480" s="30">
+        <v>2444</v>
+      </c>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="32"/>
-      <c r="B481" s="32"/>
+      <c r="A481" s="30" t="s">
+        <v>723</v>
+      </c>
+      <c r="B481" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C481" s="32"/>
-      <c r="D481" s="32"/>
+      <c r="D481" s="30">
+        <v>2523</v>
+      </c>
     </row>
     <row r="482" spans="1:4">
-      <c r="A482" s="32"/>
-      <c r="B482" s="32"/>
+      <c r="A482" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="B482" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C482" s="32"/>
-      <c r="D482" s="32"/>
+      <c r="D482" s="30">
+        <v>2524</v>
+      </c>
     </row>
     <row r="483" spans="1:4">
-      <c r="A483" s="32"/>
-      <c r="B483" s="32"/>
+      <c r="A483" s="30" t="s">
+        <v>725</v>
+      </c>
+      <c r="B483" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C483" s="32"/>
-      <c r="D483" s="32"/>
+      <c r="D483" s="30">
+        <v>2525</v>
+      </c>
     </row>
     <row r="484" spans="1:4">
-      <c r="A484" s="32"/>
-      <c r="B484" s="32"/>
+      <c r="A484" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="B484" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C484" s="32"/>
-      <c r="D484" s="32"/>
+      <c r="D484" s="30">
+        <v>2572</v>
+      </c>
     </row>
     <row r="485" spans="1:4">
-      <c r="A485" s="32"/>
-      <c r="B485" s="32"/>
+      <c r="A485" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="B485" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C485" s="32"/>
-      <c r="D485" s="32"/>
+      <c r="D485" s="30">
+        <v>3945</v>
+      </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="32"/>

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/OPG/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF322E9B-9246-6B47-AE15-A85CE3E6F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC9AE2F-9E65-4B49-88F6-D90217A6C1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21320" yWindow="7260" windowWidth="10000" windowHeight="21820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21320" yWindow="7260" windowWidth="27440" windowHeight="18720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="741">
   <si>
     <t>table_name</t>
   </si>
@@ -2209,6 +2209,45 @@
   </si>
   <si>
     <t>LT8</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>C94</t>
+  </si>
+  <si>
+    <t>O24</t>
+  </si>
+  <si>
+    <t>R62</t>
+  </si>
+  <si>
+    <t>R96</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>S52</t>
+  </si>
+  <si>
+    <t>S82</t>
   </si>
 </sst>
 </file>
@@ -2725,7 +2764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -4581,7 +4620,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="D485" sqref="A478:D485"/>
+      <selection activeCell="G502" sqref="G502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10415,82 +10454,160 @@
       </c>
     </row>
     <row r="486" spans="1:4">
-      <c r="A486" s="32"/>
-      <c r="B486" s="32"/>
+      <c r="A486" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="B486" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C486" s="32"/>
-      <c r="D486" s="32"/>
+      <c r="D486" s="32">
+        <v>8631</v>
+      </c>
     </row>
     <row r="487" spans="1:4">
-      <c r="A487" s="32"/>
-      <c r="B487" s="32"/>
+      <c r="A487" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="B487" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C487" s="32"/>
-      <c r="D487" s="32"/>
+      <c r="D487" s="32">
+        <v>743</v>
+      </c>
     </row>
     <row r="488" spans="1:4">
-      <c r="A488" s="32"/>
-      <c r="B488" s="32"/>
+      <c r="A488" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="B488" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C488" s="32"/>
-      <c r="D488" s="32"/>
+      <c r="D488" s="32">
+        <v>1145</v>
+      </c>
     </row>
     <row r="489" spans="1:4">
-      <c r="A489" s="32"/>
-      <c r="B489" s="32"/>
+      <c r="A489" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="B489" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C489" s="32"/>
-      <c r="D489" s="32"/>
+      <c r="D489" s="32">
+        <v>2639</v>
+      </c>
     </row>
     <row r="490" spans="1:4">
-      <c r="A490" s="32"/>
-      <c r="B490" s="32"/>
+      <c r="A490" s="32" t="s">
+        <v>732</v>
+      </c>
+      <c r="B490" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C490" s="32"/>
-      <c r="D490" s="32"/>
+      <c r="D490" s="32">
+        <v>1003</v>
+      </c>
     </row>
     <row r="491" spans="1:4">
-      <c r="A491" s="32"/>
-      <c r="B491" s="32"/>
+      <c r="A491" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="B491" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C491" s="32"/>
-      <c r="D491" s="32"/>
+      <c r="D491" s="32">
+        <v>1980</v>
+      </c>
     </row>
     <row r="492" spans="1:4">
-      <c r="A492" s="32"/>
-      <c r="B492" s="32"/>
+      <c r="A492" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="B492" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C492" s="32"/>
-      <c r="D492" s="32"/>
+      <c r="D492" s="32">
+        <v>8764</v>
+      </c>
     </row>
     <row r="493" spans="1:4">
-      <c r="A493" s="32"/>
-      <c r="B493" s="32"/>
+      <c r="A493" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="B493" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C493" s="32"/>
-      <c r="D493" s="32"/>
+      <c r="D493" s="32">
+        <v>8765</v>
+      </c>
     </row>
     <row r="494" spans="1:4">
-      <c r="A494" s="32"/>
-      <c r="B494" s="32"/>
+      <c r="A494" s="32" t="s">
+        <v>736</v>
+      </c>
+      <c r="B494" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C494" s="32"/>
-      <c r="D494" s="32"/>
+      <c r="D494" s="32">
+        <v>8766</v>
+      </c>
     </row>
     <row r="495" spans="1:4">
-      <c r="A495" s="32"/>
-      <c r="B495" s="32"/>
+      <c r="A495" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="B495" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C495" s="32"/>
-      <c r="D495" s="32"/>
+      <c r="D495" s="32">
+        <v>8664</v>
+      </c>
     </row>
     <row r="496" spans="1:4">
-      <c r="A496" s="32"/>
-      <c r="B496" s="32"/>
+      <c r="A496" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="B496" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C496" s="32"/>
-      <c r="D496" s="32"/>
+      <c r="D496" s="32">
+        <v>8767</v>
+      </c>
     </row>
     <row r="497" spans="1:4">
-      <c r="A497" s="32"/>
-      <c r="B497" s="32"/>
+      <c r="A497" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="B497" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C497" s="32"/>
-      <c r="D497" s="32"/>
+      <c r="D497" s="32">
+        <v>8763</v>
+      </c>
     </row>
     <row r="498" spans="1:4">
-      <c r="A498" s="32"/>
-      <c r="B498" s="32"/>
+      <c r="A498" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="B498" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C498" s="32"/>
-      <c r="D498" s="32"/>
+      <c r="D498" s="32">
+        <v>7123</v>
+      </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="32"/>

--- a/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
+++ b/migration_steps/shared/mapping_spreadsheet/Casrec_Mapping_Document_Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/OPG/opg-data-casrec-migration/migration_steps/shared/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC9AE2F-9E65-4B49-88F6-D90217A6C1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB0532F-B9CD-F740-B4F8-4BF155F344DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21320" yWindow="7260" windowWidth="27440" windowHeight="18720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21320" yWindow="7260" windowWidth="27440" windowHeight="18720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="744">
   <si>
     <t>table_name</t>
   </si>
@@ -348,9 +348,6 @@
     <t>Automatic introductory prompt on the first assessment for HW.</t>
   </si>
   <si>
-    <t>Casework - reassessment decision required</t>
-  </si>
-  <si>
     <t>visit to be commissioned on a set date. Also to be furthered on 8 weeks when visit is commissioned.</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>Activity to prompt proof of death checks etc.</t>
   </si>
   <si>
-    <t>Casework - Proof of death</t>
-  </si>
-  <si>
     <t>Annual report required for H+W only.</t>
   </si>
   <si>
@@ -726,9 +720,6 @@
     <t>FCQS</t>
   </si>
   <si>
-    <t>CPOD</t>
-  </si>
-  <si>
     <t>RERR</t>
   </si>
   <si>
@@ -2248,6 +2239,24 @@
   </si>
   <si>
     <t>S82</t>
+  </si>
+  <si>
+    <t>Visit D,P or 3rd party to advise on financial report or examine financial records</t>
+  </si>
+  <si>
+    <t>Reminder to check case - not to be used, use deadline</t>
+  </si>
+  <si>
+    <t>Reminder to check case - not to be used, use Deadline</t>
+  </si>
+  <si>
+    <t>Send out an ad-hoc financial report. Review and consider follow-up action.</t>
+  </si>
+  <si>
+    <t>Use chase process for non compliant                                                                                               +</t>
+  </si>
+  <si>
+    <t>Review the annual financial report. Consider follow-up action.</t>
   </si>
 </sst>
 </file>
@@ -2400,7 +2409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2446,6 +2455,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2678,28 +2688,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1">
       <c r="A1" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2713,44 +2723,44 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2895,10 +2905,10 @@
         <v>34</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M3" s="7">
         <v>2657</v>
@@ -2935,7 +2945,7 @@
         <v>40</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P4" s="19" t="s">
         <v>21</v>
@@ -2978,13 +2988,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="15" customFormat="1" ht="15">
@@ -3034,7 +3044,7 @@
         <v>21</v>
       </c>
       <c r="Q8" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15">
@@ -4619,7 +4629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DF6ECF-5AE3-8A43-AD4D-9889B3A07CBB}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+    <sheetView topLeftCell="A475" workbookViewId="0">
       <selection activeCell="G502" sqref="G502"/>
     </sheetView>
   </sheetViews>
@@ -4647,7 +4657,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="30" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>17</v>
@@ -4659,7 +4669,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="30" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>17</v>
@@ -4671,7 +4681,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>17</v>
@@ -4683,7 +4693,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>17</v>
@@ -4695,7 +4705,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>17</v>
@@ -4707,7 +4717,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="30" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>17</v>
@@ -4719,7 +4729,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="30" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>17</v>
@@ -4731,7 +4741,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="30" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>17</v>
@@ -4743,7 +4753,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>17</v>
@@ -4755,7 +4765,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="30" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>17</v>
@@ -4767,7 +4777,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>17</v>
@@ -4779,7 +4789,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="30" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>17</v>
@@ -4791,7 +4801,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="30" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>17</v>
@@ -4803,7 +4813,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="30" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>17</v>
@@ -4815,7 +4825,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="30" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>17</v>
@@ -4827,7 +4837,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="30" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>17</v>
@@ -4839,7 +4849,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>17</v>
@@ -4851,7 +4861,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>17</v>
@@ -4863,7 +4873,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="30" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>17</v>
@@ -4875,7 +4885,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="30" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>17</v>
@@ -4887,7 +4897,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="30" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>17</v>
@@ -4899,7 +4909,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="30" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>17</v>
@@ -4911,7 +4921,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="30" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>17</v>
@@ -4923,7 +4933,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>17</v>
@@ -4935,7 +4945,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="30" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>17</v>
@@ -4947,7 +4957,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="30" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>17</v>
@@ -4959,7 +4969,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="30" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>17</v>
@@ -4971,7 +4981,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>17</v>
@@ -4983,7 +4993,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="30" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>17</v>
@@ -4995,7 +5005,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="30" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>17</v>
@@ -5007,7 +5017,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="30" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>17</v>
@@ -5019,7 +5029,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="30" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>17</v>
@@ -5031,7 +5041,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="30" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>17</v>
@@ -5043,7 +5053,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="30" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>17</v>
@@ -5055,7 +5065,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="30" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>17</v>
@@ -5067,7 +5077,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="30" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>17</v>
@@ -5079,7 +5089,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="30" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>17</v>
@@ -5091,7 +5101,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="30" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>17</v>
@@ -5103,7 +5113,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="30" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>17</v>
@@ -5115,7 +5125,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>17</v>
@@ -5127,7 +5137,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="30" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>17</v>
@@ -5139,7 +5149,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="30" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>17</v>
@@ -5151,7 +5161,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="30" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>17</v>
@@ -5163,7 +5173,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="30" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>17</v>
@@ -5175,7 +5185,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="30" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>17</v>
@@ -5187,7 +5197,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>17</v>
@@ -5199,7 +5209,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="30" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>17</v>
@@ -5211,7 +5221,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>17</v>
@@ -5223,7 +5233,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="30" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>17</v>
@@ -5235,7 +5245,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="30" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>17</v>
@@ -5247,7 +5257,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="30" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>17</v>
@@ -5259,7 +5269,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="30" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>17</v>
@@ -5271,7 +5281,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="30" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>17</v>
@@ -5283,7 +5293,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="30" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>17</v>
@@ -5295,7 +5305,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="30" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>17</v>
@@ -5307,7 +5317,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>17</v>
@@ -5319,7 +5329,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B58" s="30" t="s">
         <v>17</v>
@@ -5331,7 +5341,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B59" s="30" t="s">
         <v>17</v>
@@ -5343,7 +5353,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>17</v>
@@ -5355,7 +5365,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="30" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>17</v>
@@ -5367,7 +5377,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="30" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>17</v>
@@ -5379,7 +5389,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="30" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>17</v>
@@ -5391,7 +5401,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="30" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B64" s="30" t="s">
         <v>17</v>
@@ -5403,7 +5413,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="30" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>17</v>
@@ -5415,7 +5425,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="30" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B66" s="30" t="s">
         <v>17</v>
@@ -5427,7 +5437,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="30" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B67" s="30" t="s">
         <v>17</v>
@@ -5439,7 +5449,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="30" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B68" s="30" t="s">
         <v>17</v>
@@ -5451,7 +5461,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="30" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B69" s="30" t="s">
         <v>17</v>
@@ -5463,7 +5473,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="30" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>17</v>
@@ -5475,7 +5485,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="30" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>17</v>
@@ -5487,7 +5497,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="30" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>17</v>
@@ -5499,7 +5509,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="30" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>17</v>
@@ -5511,7 +5521,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="30" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B74" s="30" t="s">
         <v>17</v>
@@ -5523,7 +5533,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>17</v>
@@ -5535,7 +5545,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="30" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>17</v>
@@ -5547,7 +5557,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="30" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>17</v>
@@ -5559,7 +5569,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>17</v>
@@ -5571,7 +5581,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="30" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>17</v>
@@ -5583,7 +5593,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>17</v>
@@ -5595,7 +5605,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="30" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B81" s="30" t="s">
         <v>17</v>
@@ -5607,7 +5617,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>17</v>
@@ -5619,7 +5629,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="30" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>17</v>
@@ -5631,7 +5641,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="30" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>17</v>
@@ -5643,7 +5653,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="30" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>17</v>
@@ -5655,7 +5665,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="30" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>17</v>
@@ -5667,7 +5677,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="30" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>17</v>
@@ -5679,7 +5689,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="30" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>17</v>
@@ -5691,7 +5701,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="30" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B89" s="30" t="s">
         <v>17</v>
@@ -5703,7 +5713,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="30" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>17</v>
@@ -5715,7 +5725,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="30" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>17</v>
@@ -5727,7 +5737,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="30" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>17</v>
@@ -5739,7 +5749,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>17</v>
@@ -5751,7 +5761,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="30" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>17</v>
@@ -5763,7 +5773,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="30" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>17</v>
@@ -5775,7 +5785,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="30" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>17</v>
@@ -5787,7 +5797,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="30" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>17</v>
@@ -5799,7 +5809,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="30" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>17</v>
@@ -5811,7 +5821,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="30" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>17</v>
@@ -5823,7 +5833,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="30" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>17</v>
@@ -5835,7 +5845,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="30" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>17</v>
@@ -5847,7 +5857,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>17</v>
@@ -5859,7 +5869,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="30" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>17</v>
@@ -5871,7 +5881,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="30" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>17</v>
@@ -5883,7 +5893,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>17</v>
@@ -5895,7 +5905,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>17</v>
@@ -5907,7 +5917,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="30" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>17</v>
@@ -5919,7 +5929,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="30" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>17</v>
@@ -5931,7 +5941,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="30" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>17</v>
@@ -5943,7 +5953,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="30" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>17</v>
@@ -5955,7 +5965,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="30" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B111" s="30" t="s">
         <v>17</v>
@@ -5967,7 +5977,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="30" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>17</v>
@@ -5979,7 +5989,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="30" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B113" s="30" t="s">
         <v>17</v>
@@ -5991,7 +6001,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="30" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>17</v>
@@ -6003,7 +6013,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="30" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>17</v>
@@ -6015,7 +6025,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="30" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>17</v>
@@ -6027,7 +6037,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="30" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>17</v>
@@ -6039,7 +6049,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="30" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>17</v>
@@ -6051,7 +6061,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="30" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>17</v>
@@ -6063,7 +6073,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="30" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B120" s="30" t="s">
         <v>17</v>
@@ -6075,7 +6085,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="30" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>17</v>
@@ -6087,7 +6097,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>17</v>
@@ -6099,7 +6109,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="30" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>17</v>
@@ -6111,7 +6121,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="30" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>17</v>
@@ -6123,7 +6133,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="30" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B125" s="30" t="s">
         <v>17</v>
@@ -6135,7 +6145,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B126" s="30" t="s">
         <v>17</v>
@@ -6147,7 +6157,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="30" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B127" s="30" t="s">
         <v>17</v>
@@ -6159,7 +6169,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="30" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B128" s="30" t="s">
         <v>17</v>
@@ -6171,7 +6181,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="30" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B129" s="30" t="s">
         <v>17</v>
@@ -6183,7 +6193,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="30" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B130" s="30" t="s">
         <v>17</v>
@@ -6195,7 +6205,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="30" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B131" s="30" t="s">
         <v>17</v>
@@ -6207,7 +6217,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B132" s="30" t="s">
         <v>17</v>
@@ -6219,7 +6229,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B133" s="30" t="s">
         <v>17</v>
@@ -6231,7 +6241,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="30" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B134" s="30" t="s">
         <v>17</v>
@@ -6243,7 +6253,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="30" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B135" s="30" t="s">
         <v>17</v>
@@ -6255,7 +6265,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="30" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B136" s="30" t="s">
         <v>17</v>
@@ -6267,7 +6277,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="30" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B137" s="30" t="s">
         <v>17</v>
@@ -6279,7 +6289,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="30" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B138" s="30" t="s">
         <v>17</v>
@@ -6291,7 +6301,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="30" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B139" s="30" t="s">
         <v>17</v>
@@ -6303,7 +6313,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="30" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B140" s="30" t="s">
         <v>17</v>
@@ -6315,7 +6325,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="30" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B141" s="30" t="s">
         <v>17</v>
@@ -6327,7 +6337,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="30" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B142" s="30" t="s">
         <v>17</v>
@@ -6339,7 +6349,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="30" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B143" s="30" t="s">
         <v>17</v>
@@ -6351,7 +6361,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="30" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B144" s="30" t="s">
         <v>17</v>
@@ -6363,7 +6373,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B145" s="30" t="s">
         <v>17</v>
@@ -6375,7 +6385,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="30" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B146" s="30" t="s">
         <v>17</v>
@@ -6387,7 +6397,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="30" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B147" s="30" t="s">
         <v>17</v>
@@ -6399,7 +6409,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="30" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B148" s="30" t="s">
         <v>17</v>
@@ -6411,7 +6421,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="30" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B149" s="30" t="s">
         <v>17</v>
@@ -6423,7 +6433,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="30" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B150" s="30" t="s">
         <v>17</v>
@@ -6435,7 +6445,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="30" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B151" s="30" t="s">
         <v>17</v>
@@ -6447,7 +6457,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="30" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B152" s="30" t="s">
         <v>17</v>
@@ -6459,7 +6469,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="30" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B153" s="30" t="s">
         <v>17</v>
@@ -6471,7 +6481,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="30" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B154" s="30" t="s">
         <v>17</v>
@@ -6483,7 +6493,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="30" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B155" s="30" t="s">
         <v>17</v>
@@ -6495,7 +6505,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="30" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B156" s="30" t="s">
         <v>17</v>
@@ -6507,7 +6517,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="30" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B157" s="30" t="s">
         <v>17</v>
@@ -6519,7 +6529,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B158" s="30" t="s">
         <v>17</v>
@@ -6531,7 +6541,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="30" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B159" s="30" t="s">
         <v>17</v>
@@ -6543,7 +6553,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="30" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B160" s="30" t="s">
         <v>17</v>
@@ -6555,7 +6565,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="30" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B161" s="30" t="s">
         <v>17</v>
@@ -6567,7 +6577,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B162" s="30" t="s">
         <v>17</v>
@@ -6579,7 +6589,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="30" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B163" s="30" t="s">
         <v>17</v>
@@ -6591,7 +6601,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="30" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B164" s="30" t="s">
         <v>17</v>
@@ -6603,7 +6613,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="30" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B165" s="30" t="s">
         <v>17</v>
@@ -6615,7 +6625,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="30" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B166" s="30" t="s">
         <v>17</v>
@@ -6627,7 +6637,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="30" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B167" s="30" t="s">
         <v>17</v>
@@ -6639,7 +6649,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="30" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B168" s="30" t="s">
         <v>17</v>
@@ -6651,7 +6661,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="30" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B169" s="30" t="s">
         <v>17</v>
@@ -6663,7 +6673,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B170" s="30" t="s">
         <v>17</v>
@@ -6675,7 +6685,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="30" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B171" s="30" t="s">
         <v>17</v>
@@ -6687,7 +6697,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="30" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B172" s="30" t="s">
         <v>17</v>
@@ -6699,7 +6709,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="30" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B173" s="30" t="s">
         <v>17</v>
@@ -6711,7 +6721,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="30" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B174" s="30" t="s">
         <v>17</v>
@@ -6723,7 +6733,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B175" s="30" t="s">
         <v>17</v>
@@ -6735,7 +6745,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B176" s="30" t="s">
         <v>17</v>
@@ -6747,7 +6757,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="30" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B177" s="30" t="s">
         <v>17</v>
@@ -6759,7 +6769,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B178" s="30" t="s">
         <v>17</v>
@@ -6771,7 +6781,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="30" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B179" s="30" t="s">
         <v>17</v>
@@ -6783,7 +6793,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="30" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B180" s="30" t="s">
         <v>17</v>
@@ -6795,7 +6805,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="30" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B181" s="30" t="s">
         <v>17</v>
@@ -6807,7 +6817,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B182" s="30" t="s">
         <v>17</v>
@@ -6819,7 +6829,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="30" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B183" s="30" t="s">
         <v>17</v>
@@ -6831,7 +6841,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B184" s="30" t="s">
         <v>17</v>
@@ -6843,7 +6853,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="30" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B185" s="30" t="s">
         <v>17</v>
@@ -6855,7 +6865,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="30" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B186" s="30" t="s">
         <v>17</v>
@@ -6867,7 +6877,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="30" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B187" s="30" t="s">
         <v>17</v>
@@ -6879,7 +6889,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B188" s="30" t="s">
         <v>17</v>
@@ -6891,7 +6901,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="30" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B189" s="30" t="s">
         <v>17</v>
@@ -6903,7 +6913,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="30" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B190" s="30" t="s">
         <v>17</v>
@@ -6915,7 +6925,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="30" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B191" s="30" t="s">
         <v>17</v>
@@ -6927,7 +6937,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="30" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B192" s="30" t="s">
         <v>17</v>
@@ -6939,7 +6949,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="30" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B193" s="30" t="s">
         <v>17</v>
@@ -6951,7 +6961,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="30" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B194" s="30" t="s">
         <v>17</v>
@@ -6963,7 +6973,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="30" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B195" s="30" t="s">
         <v>17</v>
@@ -6975,7 +6985,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="30" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B196" s="30" t="s">
         <v>17</v>
@@ -6987,7 +6997,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B197" s="30" t="s">
         <v>17</v>
@@ -6999,7 +7009,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="30" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B198" s="30" t="s">
         <v>17</v>
@@ -7011,7 +7021,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="30" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B199" s="30" t="s">
         <v>17</v>
@@ -7023,7 +7033,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B200" s="30" t="s">
         <v>17</v>
@@ -7035,7 +7045,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="30" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B201" s="30" t="s">
         <v>17</v>
@@ -7047,7 +7057,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="30" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B202" s="30" t="s">
         <v>17</v>
@@ -7059,7 +7069,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="30" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B203" s="30" t="s">
         <v>17</v>
@@ -7071,7 +7081,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="30" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B204" s="30" t="s">
         <v>17</v>
@@ -7083,7 +7093,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="30" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B205" s="30" t="s">
         <v>17</v>
@@ -7095,7 +7105,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="30" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B206" s="30" t="s">
         <v>17</v>
@@ -7107,7 +7117,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="30" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B207" s="30" t="s">
         <v>17</v>
@@ -7119,7 +7129,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="30" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B208" s="30" t="s">
         <v>17</v>
@@ -7131,7 +7141,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="30" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B209" s="30" t="s">
         <v>17</v>
@@ -7143,7 +7153,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="30" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B210" s="30" t="s">
         <v>17</v>
@@ -7155,7 +7165,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="30" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B211" s="30" t="s">
         <v>17</v>
@@ -7167,7 +7177,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="30" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B212" s="30" t="s">
         <v>17</v>
@@ -7179,7 +7189,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="30" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B213" s="30" t="s">
         <v>17</v>
@@ -7191,7 +7201,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="30" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B214" s="30" t="s">
         <v>17</v>
@@ -7203,7 +7213,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B215" s="30" t="s">
         <v>17</v>
@@ -7215,7 +7225,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="30" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B216" s="30" t="s">
         <v>17</v>
@@ -7227,7 +7237,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="30" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B217" s="30" t="s">
         <v>17</v>
@@ -7239,7 +7249,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="30" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B218" s="30" t="s">
         <v>17</v>
@@ -7251,7 +7261,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="30" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B219" s="30" t="s">
         <v>17</v>
@@ -7263,7 +7273,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="30" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B220" s="30" t="s">
         <v>17</v>
@@ -7275,7 +7285,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B221" s="30" t="s">
         <v>17</v>
@@ -7287,7 +7297,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="30" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B222" s="30" t="s">
         <v>17</v>
@@ -7299,7 +7309,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="30" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B223" s="30" t="s">
         <v>17</v>
@@ -7311,7 +7321,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B224" s="30" t="s">
         <v>17</v>
@@ -7323,7 +7333,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="30" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B225" s="30" t="s">
         <v>17</v>
@@ -7335,7 +7345,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="30" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B226" s="30" t="s">
         <v>17</v>
@@ -7347,7 +7357,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="30" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B227" s="30" t="s">
         <v>17</v>
@@ -7359,7 +7369,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B228" s="30" t="s">
         <v>17</v>
@@ -7371,7 +7381,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="30" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B229" s="30" t="s">
         <v>17</v>
@@ -7383,7 +7393,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="30" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B230" s="30" t="s">
         <v>17</v>
@@ -7395,7 +7405,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="30" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B231" s="30" t="s">
         <v>17</v>
@@ -7407,7 +7417,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="30" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B232" s="30" t="s">
         <v>17</v>
@@ -7419,7 +7429,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B233" s="30" t="s">
         <v>17</v>
@@ -7431,7 +7441,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="30" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B234" s="30" t="s">
         <v>17</v>
@@ -7443,7 +7453,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="30" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B235" s="30" t="s">
         <v>17</v>
@@ -7455,7 +7465,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="30" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B236" s="30" t="s">
         <v>17</v>
@@ -7467,7 +7477,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="30" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B237" s="30" t="s">
         <v>17</v>
@@ -7479,7 +7489,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="30" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B238" s="30" t="s">
         <v>17</v>
@@ -7491,7 +7501,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="30" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B239" s="30" t="s">
         <v>17</v>
@@ -7503,7 +7513,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="30" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B240" s="30" t="s">
         <v>17</v>
@@ -7515,7 +7525,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="30" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B241" s="30" t="s">
         <v>17</v>
@@ -7527,7 +7537,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="30" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B242" s="30" t="s">
         <v>17</v>
@@ -7539,7 +7549,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="30" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B243" s="30" t="s">
         <v>17</v>
@@ -7551,7 +7561,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="30" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B244" s="30" t="s">
         <v>17</v>
@@ -7563,7 +7573,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="30" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B245" s="30" t="s">
         <v>17</v>
@@ -7575,7 +7585,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="30" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B246" s="30" t="s">
         <v>17</v>
@@ -7587,7 +7597,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="30" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B247" s="30" t="s">
         <v>17</v>
@@ -7599,7 +7609,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="30" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B248" s="30" t="s">
         <v>17</v>
@@ -7611,7 +7621,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="30" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B249" s="30" t="s">
         <v>17</v>
@@ -7623,7 +7633,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B250" s="30" t="s">
         <v>17</v>
@@ -7635,7 +7645,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="30" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B251" s="30" t="s">
         <v>17</v>
@@ -7647,7 +7657,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="30" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B252" s="30" t="s">
         <v>17</v>
@@ -7659,7 +7669,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="30" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B253" s="30" t="s">
         <v>17</v>
@@ -7671,7 +7681,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B254" s="30" t="s">
         <v>17</v>
@@ -7683,7 +7693,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="30" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B255" s="30" t="s">
         <v>17</v>
@@ -7695,7 +7705,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="30" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B256" s="30" t="s">
         <v>17</v>
@@ -7707,7 +7717,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B257" s="30" t="s">
         <v>17</v>
@@ -7719,7 +7729,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="30" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B258" s="30" t="s">
         <v>17</v>
@@ -7731,7 +7741,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="30" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B259" s="30" t="s">
         <v>17</v>
@@ -7743,7 +7753,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="30" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B260" s="30" t="s">
         <v>17</v>
@@ -7755,7 +7765,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="30" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B261" s="30" t="s">
         <v>17</v>
@@ -7767,7 +7777,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="30" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B262" s="30" t="s">
         <v>17</v>
@@ -7779,7 +7789,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="30" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B263" s="30" t="s">
         <v>17</v>
@@ -7791,7 +7801,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="30" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B264" s="30" t="s">
         <v>17</v>
@@ -7803,7 +7813,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="30" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B265" s="30" t="s">
         <v>17</v>
@@ -7815,7 +7825,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="30" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B266" s="30" t="s">
         <v>17</v>
@@ -7827,7 +7837,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B267" s="30" t="s">
         <v>17</v>
@@ -7839,7 +7849,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="30" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B268" s="30" t="s">
         <v>17</v>
@@ -7851,7 +7861,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="30" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B269" s="30" t="s">
         <v>17</v>
@@ -7863,7 +7873,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="30" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B270" s="30" t="s">
         <v>17</v>
@@ -7875,7 +7885,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="30" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B271" s="30" t="s">
         <v>17</v>
@@ -7887,7 +7897,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="30" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B272" s="30" t="s">
         <v>17</v>
@@ -7899,7 +7909,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="30" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B273" s="30" t="s">
         <v>17</v>
@@ -7911,7 +7921,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="30" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B274" s="30" t="s">
         <v>17</v>
@@ -7923,7 +7933,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="30" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B275" s="30" t="s">
         <v>17</v>
@@ -7935,7 +7945,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="30" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B276" s="30" t="s">
         <v>17</v>
@@ -7947,7 +7957,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B277" s="30" t="s">
         <v>17</v>
@@ -7959,7 +7969,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="30" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B278" s="30" t="s">
         <v>17</v>
@@ -7971,7 +7981,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="30" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B279" s="30" t="s">
         <v>17</v>
@@ -7983,7 +7993,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="30" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B280" s="30" t="s">
         <v>17</v>
@@ -7995,7 +8005,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B281" s="30" t="s">
         <v>17</v>
@@ -8007,7 +8017,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="30" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B282" s="30" t="s">
         <v>17</v>
@@ -8019,7 +8029,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="30" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B283" s="30" t="s">
         <v>17</v>
@@ -8031,7 +8041,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="30" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B284" s="30" t="s">
         <v>17</v>
@@ -8043,7 +8053,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B285" s="30" t="s">
         <v>17</v>
@@ -8055,7 +8065,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="30" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B286" s="30" t="s">
         <v>17</v>
@@ -8067,7 +8077,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="30" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B287" s="30" t="s">
         <v>17</v>
@@ -8079,7 +8089,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="30" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B288" s="30" t="s">
         <v>17</v>
@@ -8091,7 +8101,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="30" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B289" s="30" t="s">
         <v>17</v>
@@ -8103,7 +8113,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B290" s="30" t="s">
         <v>17</v>
@@ -8115,7 +8125,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="30" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B291" s="30" t="s">
         <v>17</v>
@@ -8127,7 +8137,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="30" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B292" s="30" t="s">
         <v>17</v>
@@ -8139,7 +8149,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B293" s="30" t="s">
         <v>17</v>
@@ -8151,7 +8161,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="30" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B294" s="30" t="s">
         <v>17</v>
@@ -8163,7 +8173,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="30" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B295" s="30" t="s">
         <v>17</v>
@@ -8175,7 +8185,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="30" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B296" s="30" t="s">
         <v>17</v>
@@ -8187,7 +8197,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B297" s="30" t="s">
         <v>17</v>
@@ -8199,7 +8209,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="30" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B298" s="30" t="s">
         <v>17</v>
@@ -8211,7 +8221,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="30" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B299" s="30" t="s">
         <v>17</v>
@@ -8223,7 +8233,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="30" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B300" s="30" t="s">
         <v>17</v>
@@ -8235,7 +8245,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="30" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B301" s="30" t="s">
         <v>17</v>
@@ -8247,7 +8257,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="30" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B302" s="30" t="s">
         <v>17</v>
@@ -8259,7 +8269,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="30" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B303" s="30" t="s">
         <v>17</v>
@@ -8271,7 +8281,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="30" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B304" s="30" t="s">
         <v>17</v>
@@ -8283,7 +8293,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="30" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B305" s="30" t="s">
         <v>17</v>
@@ -8295,7 +8305,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="30" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B306" s="30" t="s">
         <v>17</v>
@@ -8307,7 +8317,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="30" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B307" s="30" t="s">
         <v>17</v>
@@ -8319,7 +8329,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B308" s="30" t="s">
         <v>17</v>
@@ -8331,7 +8341,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="30" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B309" s="30" t="s">
         <v>17</v>
@@ -8343,7 +8353,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B310" s="30" t="s">
         <v>17</v>
@@ -8355,7 +8365,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B311" s="30" t="s">
         <v>17</v>
@@ -8367,7 +8377,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="30" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B312" s="30" t="s">
         <v>17</v>
@@ -8379,7 +8389,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="30" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B313" s="30" t="s">
         <v>17</v>
@@ -8391,7 +8401,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="30" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B314" s="30" t="s">
         <v>17</v>
@@ -8403,7 +8413,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="30" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B315" s="30" t="s">
         <v>17</v>
@@ -8415,7 +8425,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="30" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B316" s="30" t="s">
         <v>17</v>
@@ -8427,7 +8437,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="30" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B317" s="30" t="s">
         <v>17</v>
@@ -8439,7 +8449,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="30" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B318" s="30" t="s">
         <v>17</v>
@@ -8451,7 +8461,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="30" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B319" s="30" t="s">
         <v>17</v>
@@ -8463,7 +8473,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="30" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B320" s="30" t="s">
         <v>17</v>
@@ -8475,7 +8485,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="30" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B321" s="30" t="s">
         <v>17</v>
@@ -8487,7 +8497,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="30" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B322" s="30" t="s">
         <v>17</v>
@@ -8499,7 +8509,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="30" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B323" s="30" t="s">
         <v>17</v>
@@ -8511,7 +8521,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="30" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B324" s="30" t="s">
         <v>17</v>
@@ -8523,7 +8533,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="30" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B325" s="30" t="s">
         <v>17</v>
@@ -8535,7 +8545,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B326" s="30" t="s">
         <v>17</v>
@@ -8547,7 +8557,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="30" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B327" s="30" t="s">
         <v>17</v>
@@ -8559,7 +8569,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="30" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B328" s="30" t="s">
         <v>17</v>
@@ -8571,7 +8581,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="30" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B329" s="30" t="s">
         <v>17</v>
@@ -8583,7 +8593,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="30" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B330" s="30" t="s">
         <v>17</v>
@@ -8595,7 +8605,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="30" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B331" s="30" t="s">
         <v>17</v>
@@ -8607,7 +8617,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="30" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B332" s="30" t="s">
         <v>17</v>
@@ -8619,7 +8629,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="30" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B333" s="30" t="s">
         <v>17</v>
@@ -8631,7 +8641,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="30" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B334" s="30" t="s">
         <v>17</v>
@@ -8643,7 +8653,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="30" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B335" s="30" t="s">
         <v>17</v>
@@ -8655,7 +8665,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="30" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B336" s="30" t="s">
         <v>17</v>
@@ -8667,7 +8677,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B337" s="30" t="s">
         <v>17</v>
@@ -8679,7 +8689,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B338" s="30" t="s">
         <v>17</v>
@@ -8691,7 +8701,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="30" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B339" s="30" t="s">
         <v>17</v>
@@ -8703,7 +8713,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="30" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B340" s="30" t="s">
         <v>17</v>
@@ -8715,7 +8725,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="30" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B341" s="30" t="s">
         <v>17</v>
@@ -8727,7 +8737,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="30" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B342" s="30" t="s">
         <v>17</v>
@@ -8739,7 +8749,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="30" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B343" s="30" t="s">
         <v>17</v>
@@ -8751,7 +8761,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="30" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B344" s="30" t="s">
         <v>17</v>
@@ -8763,7 +8773,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B345" s="30" t="s">
         <v>17</v>
@@ -8775,7 +8785,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="30" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B346" s="30" t="s">
         <v>17</v>
@@ -8787,7 +8797,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="30" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B347" s="30" t="s">
         <v>17</v>
@@ -8799,7 +8809,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="30" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B348" s="30" t="s">
         <v>17</v>
@@ -8811,7 +8821,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="30" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B349" s="30" t="s">
         <v>17</v>
@@ -8823,7 +8833,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="30" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B350" s="30" t="s">
         <v>17</v>
@@ -8835,7 +8845,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="30" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B351" s="30" t="s">
         <v>17</v>
@@ -8847,7 +8857,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B352" s="30" t="s">
         <v>17</v>
@@ -8859,7 +8869,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="30" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B353" s="30" t="s">
         <v>17</v>
@@ -8871,7 +8881,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B354" s="30" t="s">
         <v>17</v>
@@ -8883,7 +8893,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B355" s="30" t="s">
         <v>17</v>
@@ -8895,7 +8905,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="30" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B356" s="30" t="s">
         <v>17</v>
@@ -8907,7 +8917,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="30" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B357" s="30" t="s">
         <v>17</v>
@@ -8919,7 +8929,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="30" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B358" s="30" t="s">
         <v>17</v>
@@ -8931,7 +8941,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B359" s="30" t="s">
         <v>17</v>
@@ -8943,7 +8953,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="30" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B360" s="30" t="s">
         <v>17</v>
@@ -8955,7 +8965,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="30" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B361" s="30" t="s">
         <v>17</v>
@@ -8967,7 +8977,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="30" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B362" s="30" t="s">
         <v>17</v>
@@ -8979,7 +8989,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B363" s="30" t="s">
         <v>17</v>
@@ -8991,7 +9001,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B364" s="30" t="s">
         <v>17</v>
@@ -9003,7 +9013,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B365" s="30" t="s">
         <v>17</v>
@@ -9015,7 +9025,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="30" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B366" s="30" t="s">
         <v>17</v>
@@ -9027,7 +9037,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="30" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B367" s="30" t="s">
         <v>17</v>
@@ -9039,7 +9049,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="30" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B368" s="30" t="s">
         <v>17</v>
@@ -9051,7 +9061,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="30" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B369" s="30" t="s">
         <v>17</v>
@@ -9063,7 +9073,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="30" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B370" s="30" t="s">
         <v>17</v>
@@ -9075,7 +9085,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="30" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B371" s="30" t="s">
         <v>17</v>
@@ -9087,7 +9097,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="30" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B372" s="30" t="s">
         <v>17</v>
@@ -9099,7 +9109,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="30" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B373" s="30" t="s">
         <v>17</v>
@@ -9111,7 +9121,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="30" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B374" s="30" t="s">
         <v>17</v>
@@ -9123,7 +9133,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B375" s="30" t="s">
         <v>17</v>
@@ -9135,7 +9145,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="30" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B376" s="30" t="s">
         <v>17</v>
@@ -9147,7 +9157,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="30" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B377" s="30" t="s">
         <v>17</v>
@@ -9159,7 +9169,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="30" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B378" s="30" t="s">
         <v>17</v>
@@ -9171,7 +9181,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="30" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B379" s="30" t="s">
         <v>17</v>
@@ -9183,7 +9193,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B380" s="30" t="s">
         <v>17</v>
@@ -9195,7 +9205,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="30" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B381" s="30" t="s">
         <v>17</v>
@@ -9207,7 +9217,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="30" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B382" s="30" t="s">
         <v>17</v>
@@ -9219,7 +9229,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="30" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B383" s="30" t="s">
         <v>17</v>
@@ -9231,7 +9241,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="30" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B384" s="30" t="s">
         <v>17</v>
@@ -9243,7 +9253,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="30" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B385" s="30" t="s">
         <v>17</v>
@@ -9255,7 +9265,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B386" s="30" t="s">
         <v>17</v>
@@ -9267,7 +9277,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="30" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B387" s="30" t="s">
         <v>17</v>
@@ -9279,7 +9289,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="30" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B388" s="30" t="s">
         <v>17</v>
@@ -9291,7 +9301,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="30" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B389" s="30" t="s">
         <v>17</v>
@@ -9303,7 +9313,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="30" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B390" s="30" t="s">
         <v>17</v>
@@ -9315,7 +9325,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="30" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B391" s="30" t="s">
         <v>17</v>
@@ -9327,7 +9337,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="30" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B392" s="30" t="s">
         <v>17</v>
@@ -9339,7 +9349,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="30" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B393" s="30" t="s">
         <v>17</v>
@@ -9351,7 +9361,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="30" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B394" s="30" t="s">
         <v>17</v>
@@ -9363,7 +9373,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="30" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B395" s="30" t="s">
         <v>17</v>
@@ -9375,7 +9385,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="30" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B396" s="30" t="s">
         <v>17</v>
@@ -9387,7 +9397,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B397" s="30" t="s">
         <v>17</v>
@@ -9399,7 +9409,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="30" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B398" s="30" t="s">
         <v>17</v>
@@ -9411,7 +9421,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="30" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B399" s="30" t="s">
         <v>17</v>
@@ -9423,7 +9433,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="30" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B400" s="30" t="s">
         <v>17</v>
@@ -9435,7 +9445,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="30" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B401" s="30" t="s">
         <v>17</v>
@@ -9447,7 +9457,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B402" s="30" t="s">
         <v>17</v>
@@ -9459,7 +9469,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="30" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B403" s="30" t="s">
         <v>17</v>
@@ -9471,7 +9481,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="30" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B404" s="30" t="s">
         <v>17</v>
@@ -9483,7 +9493,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="30" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B405" s="30" t="s">
         <v>17</v>
@@ -9495,7 +9505,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="30" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B406" s="30" t="s">
         <v>17</v>
@@ -9507,7 +9517,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="30" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B407" s="30" t="s">
         <v>17</v>
@@ -9519,7 +9529,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="30" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B408" s="30" t="s">
         <v>17</v>
@@ -9531,7 +9541,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B409" s="30" t="s">
         <v>17</v>
@@ -9543,7 +9553,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="30" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B410" s="30" t="s">
         <v>17</v>
@@ -9555,7 +9565,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="30" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B411" s="30" t="s">
         <v>17</v>
@@ -9567,7 +9577,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="30" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B412" s="30" t="s">
         <v>17</v>
@@ -9579,7 +9589,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="30" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B413" s="30" t="s">
         <v>17</v>
@@ -9591,7 +9601,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="30" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B414" s="30" t="s">
         <v>17</v>
@@ -9603,7 +9613,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B415" s="30" t="s">
         <v>17</v>
@@ -9615,7 +9625,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="30" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B416" s="30" t="s">
         <v>17</v>
@@ -9627,7 +9637,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="30" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B417" s="30" t="s">
         <v>17</v>
@@ -9639,7 +9649,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="30" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B418" s="30" t="s">
         <v>17</v>
@@ -9651,7 +9661,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="30" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B419" s="30" t="s">
         <v>17</v>
@@ -9663,7 +9673,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="30" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B420" s="30" t="s">
         <v>17</v>
@@ -9675,7 +9685,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="30" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B421" s="30" t="s">
         <v>17</v>
@@ -9687,7 +9697,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="30" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B422" s="30" t="s">
         <v>17</v>
@@ -9699,7 +9709,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="30" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B423" s="30" t="s">
         <v>17</v>
@@ -9711,7 +9721,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="30" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B424" s="30" t="s">
         <v>17</v>
@@ -9723,7 +9733,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B425" s="30" t="s">
         <v>17</v>
@@ -9735,7 +9745,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="30" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B426" s="30" t="s">
         <v>17</v>
@@ -9747,7 +9757,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B427" s="30" t="s">
         <v>17</v>
@@ -9759,7 +9769,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="30" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B428" s="30" t="s">
         <v>17</v>
@@ -9771,7 +9781,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B429" s="30" t="s">
         <v>17</v>
@@ -9783,7 +9793,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="30" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B430" s="30" t="s">
         <v>17</v>
@@ -9795,7 +9805,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="30" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B431" s="30" t="s">
         <v>17</v>
@@ -9807,7 +9817,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="30" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B432" s="30" t="s">
         <v>17</v>
@@ -9819,7 +9829,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="30" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B433" s="30" t="s">
         <v>17</v>
@@ -9831,7 +9841,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="30" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B434" s="30" t="s">
         <v>17</v>
@@ -9843,7 +9853,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B435" s="30" t="s">
         <v>17</v>
@@ -9855,7 +9865,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B436" s="30" t="s">
         <v>17</v>
@@ -9867,7 +9877,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B437" s="30" t="s">
         <v>17</v>
@@ -9879,7 +9889,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B438" s="30" t="s">
         <v>17</v>
@@ -9891,7 +9901,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="30" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B439" s="30" t="s">
         <v>17</v>
@@ -9903,7 +9913,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="30" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B440" s="30" t="s">
         <v>17</v>
@@ -9915,7 +9925,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="30" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B441" s="30" t="s">
         <v>17</v>
@@ -9927,7 +9937,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B442" s="30" t="s">
         <v>17</v>
@@ -9939,7 +9949,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="30" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B443" s="30" t="s">
         <v>17</v>
@@ -9951,7 +9961,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="30" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B444" s="30" t="s">
         <v>17</v>
@@ -9963,7 +9973,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="30" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B445" s="30" t="s">
         <v>17</v>
@@ -9975,7 +9985,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="30" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B446" s="30" t="s">
         <v>17</v>
@@ -9987,7 +9997,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="30" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B447" s="30" t="s">
         <v>17</v>
@@ -9999,7 +10009,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="30" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B448" s="30" t="s">
         <v>17</v>
@@ -10011,7 +10021,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="30" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B449" s="30" t="s">
         <v>17</v>
@@ -10023,7 +10033,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="30" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B450" s="30" t="s">
         <v>17</v>
@@ -10035,7 +10045,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="30" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B451" s="30" t="s">
         <v>17</v>
@@ -10047,7 +10057,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="30" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B452" s="30" t="s">
         <v>17</v>
@@ -10059,7 +10069,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="30" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B453" s="30" t="s">
         <v>17</v>
@@ -10071,7 +10081,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="30" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B454" s="30" t="s">
         <v>17</v>
@@ -10083,7 +10093,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="30" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B455" s="30" t="s">
         <v>17</v>
@@ -10095,7 +10105,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="30" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B456" s="30" t="s">
         <v>17</v>
@@ -10107,7 +10117,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="30" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B457" s="30" t="s">
         <v>17</v>
@@ -10119,7 +10129,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="30" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B458" s="30" t="s">
         <v>17</v>
@@ -10131,7 +10141,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="30" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B459" s="30" t="s">
         <v>17</v>
@@ -10143,7 +10153,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="30" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B460" s="30" t="s">
         <v>17</v>
@@ -10155,7 +10165,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="30" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B461" s="30" t="s">
         <v>17</v>
@@ -10167,7 +10177,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="30" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B462" s="30" t="s">
         <v>17</v>
@@ -10179,7 +10189,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="30" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B463" s="30" t="s">
         <v>17</v>
@@ -10191,7 +10201,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="30" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B464" s="30" t="s">
         <v>17</v>
@@ -10203,7 +10213,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="30" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B465" s="30" t="s">
         <v>17</v>
@@ -10215,7 +10225,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B466" s="30" t="s">
         <v>17</v>
@@ -10227,7 +10237,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="30" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B467" s="30" t="s">
         <v>17</v>
@@ -10239,7 +10249,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="30" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B468" s="30" t="s">
         <v>17</v>
@@ -10251,7 +10261,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="30" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B469" s="30" t="s">
         <v>17</v>
@@ -10263,7 +10273,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B470" s="30" t="s">
         <v>17</v>
@@ -10275,7 +10285,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B471" s="30" t="s">
         <v>17</v>
@@ -10287,7 +10297,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="30" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B472" s="30" t="s">
         <v>17</v>
@@ -10299,7 +10309,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="30" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B473" s="30" t="s">
         <v>17</v>
@@ -10311,7 +10321,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="30" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B474" s="30" t="s">
         <v>17</v>
@@ -10323,7 +10333,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B475" s="30" t="s">
         <v>17</v>
@@ -10335,7 +10345,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B476" s="30" t="s">
         <v>17</v>
@@ -10347,7 +10357,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="30" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B477" s="30" t="s">
         <v>17</v>
@@ -10359,7 +10369,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="30" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B478" s="30" t="s">
         <v>17</v>
@@ -10371,7 +10381,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="30" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B479" s="30" t="s">
         <v>17</v>
@@ -10383,7 +10393,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="30" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B480" s="30" t="s">
         <v>17</v>
@@ -10395,7 +10405,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="30" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B481" s="30" t="s">
         <v>17</v>
@@ -10407,7 +10417,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="30" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B482" s="30" t="s">
         <v>17</v>
@@ -10419,7 +10429,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="30" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B483" s="30" t="s">
         <v>17</v>
@@ -10431,7 +10441,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="30" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B484" s="30" t="s">
         <v>17</v>
@@ -10443,7 +10453,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="30" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B485" s="30" t="s">
         <v>17</v>
@@ -10455,7 +10465,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="32" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B486" s="30" t="s">
         <v>17</v>
@@ -10467,7 +10477,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="32" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B487" s="30" t="s">
         <v>17</v>
@@ -10479,7 +10489,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="32" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B488" s="30" t="s">
         <v>17</v>
@@ -10491,7 +10501,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="32" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B489" s="30" t="s">
         <v>17</v>
@@ -10503,7 +10513,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="32" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B490" s="30" t="s">
         <v>17</v>
@@ -10515,7 +10525,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="32" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B491" s="30" t="s">
         <v>17</v>
@@ -10527,7 +10537,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="32" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B492" s="30" t="s">
         <v>17</v>
@@ -10539,7 +10549,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="32" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B493" s="30" t="s">
         <v>17</v>
@@ -10551,7 +10561,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="32" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B494" s="30" t="s">
         <v>17</v>
@@ -10563,7 +10573,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="32" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B495" s="30" t="s">
         <v>17</v>
@@ -10575,7 +10585,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="32" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B496" s="30" t="s">
         <v>17</v>
@@ -10587,7 +10597,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="32" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B497" s="30" t="s">
         <v>17</v>
@@ -10599,7 +10609,7 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="32" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B498" s="30" t="s">
         <v>17</v>
@@ -13633,8 +13643,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -13690,7 +13700,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -13726,7 +13736,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -13762,7 +13772,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -13798,7 +13808,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -13834,7 +13844,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -13870,7 +13880,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -13906,7 +13916,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -13942,7 +13952,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -13978,7 +13988,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -14014,7 +14024,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -14050,7 +14060,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -14086,7 +14096,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -14122,7 +14132,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -14158,7 +14168,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -14194,7 +14204,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -14230,7 +14240,7 @@
         <v>73</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -14266,7 +14276,7 @@
         <v>54</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -14302,7 +14312,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -14338,7 +14348,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -14374,7 +14384,7 @@
         <v>54</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -14410,7 +14420,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -14446,7 +14456,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -14482,7 +14492,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -14518,7 +14528,7 @@
         <v>84</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -14554,7 +14564,7 @@
         <v>54</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -14590,7 +14600,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -14626,7 +14636,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -14662,7 +14672,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -14698,7 +14708,7 @@
         <v>54</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -14734,7 +14744,7 @@
         <v>54</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -14770,7 +14780,7 @@
         <v>54</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -14806,7 +14816,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
@@ -14842,7 +14852,7 @@
         <v>54</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -14878,7 +14888,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -14914,7 +14924,7 @@
         <v>99</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -14950,7 +14960,7 @@
         <v>57</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -14986,7 +14996,7 @@
         <v>54</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
@@ -15022,7 +15032,7 @@
         <v>54</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
@@ -15058,7 +15068,7 @@
         <v>99</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
@@ -15094,7 +15104,7 @@
         <v>90</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
@@ -15130,7 +15140,7 @@
         <v>54</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
@@ -15163,10 +15173,10 @@
         <v>17</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
@@ -15193,7 +15203,7 @@
     </row>
     <row r="44" spans="1:26" ht="15">
       <c r="A44" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>17</v>
@@ -15202,7 +15212,7 @@
         <v>57</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -15229,7 +15239,7 @@
     </row>
     <row r="45" spans="1:26" ht="15">
       <c r="A45" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>17</v>
@@ -15238,7 +15248,7 @@
         <v>95</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -15265,7 +15275,7 @@
     </row>
     <row r="46" spans="1:26" ht="15">
       <c r="A46" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="29" t="s">
         <v>17</v>
@@ -15274,7 +15284,7 @@
         <v>82</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
@@ -15301,7 +15311,7 @@
     </row>
     <row r="47" spans="1:26" ht="15">
       <c r="A47" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>17</v>
@@ -15310,7 +15320,7 @@
         <v>82</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -15337,16 +15347,16 @@
     </row>
     <row r="48" spans="1:26" ht="15">
       <c r="A48" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
@@ -15373,7 +15383,7 @@
     </row>
     <row r="49" spans="1:26" ht="15">
       <c r="A49" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>17</v>
@@ -15382,7 +15392,7 @@
         <v>54</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
@@ -15409,7 +15419,7 @@
     </row>
     <row r="50" spans="1:26" ht="15">
       <c r="A50" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>17</v>
@@ -15418,7 +15428,7 @@
         <v>54</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
@@ -15445,7 +15455,7 @@
     </row>
     <row r="51" spans="1:26" ht="15">
       <c r="A51" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B51" s="29" t="s">
         <v>17</v>
@@ -15454,7 +15464,7 @@
         <v>88</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
@@ -15481,7 +15491,7 @@
     </row>
     <row r="52" spans="1:26" ht="15">
       <c r="A52" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>17</v>
@@ -15490,7 +15500,7 @@
         <v>54</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
@@ -15517,7 +15527,7 @@
     </row>
     <row r="53" spans="1:26" ht="15">
       <c r="A53" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>17</v>
@@ -15526,7 +15536,7 @@
         <v>54</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
@@ -15553,7 +15563,7 @@
     </row>
     <row r="54" spans="1:26" ht="15">
       <c r="A54" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>17</v>
@@ -15562,7 +15572,7 @@
         <v>54</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
@@ -15589,16 +15599,16 @@
     </row>
     <row r="55" spans="1:26" ht="15">
       <c r="A55" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B55" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
@@ -15625,7 +15635,7 @@
     </row>
     <row r="56" spans="1:26" ht="15">
       <c r="A56" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>17</v>
@@ -15634,7 +15644,7 @@
         <v>54</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
@@ -15661,7 +15671,7 @@
     </row>
     <row r="57" spans="1:26" ht="15">
       <c r="A57" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>17</v>
@@ -15670,7 +15680,7 @@
         <v>54</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
@@ -15697,7 +15707,7 @@
     </row>
     <row r="58" spans="1:26" ht="15">
       <c r="A58" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>17</v>
@@ -15706,7 +15716,7 @@
         <v>54</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
@@ -15733,7 +15743,7 @@
     </row>
     <row r="59" spans="1:26" ht="15">
       <c r="A59" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59" s="29" t="s">
         <v>17</v>
@@ -15742,7 +15752,7 @@
         <v>54</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
@@ -15769,7 +15779,7 @@
     </row>
     <row r="60" spans="1:26" ht="15">
       <c r="A60" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B60" s="29" t="s">
         <v>17</v>
@@ -15778,7 +15788,7 @@
         <v>54</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
@@ -15805,7 +15815,7 @@
     </row>
     <row r="61" spans="1:26" ht="15">
       <c r="A61" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B61" s="29" t="s">
         <v>17</v>
@@ -15814,7 +15824,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
@@ -15841,7 +15851,7 @@
     </row>
     <row r="62" spans="1:26" ht="15">
       <c r="A62" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B62" s="29" t="s">
         <v>17</v>
@@ -15850,7 +15860,7 @@
         <v>54</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
@@ -15877,16 +15887,16 @@
     </row>
     <row r="63" spans="1:26" ht="15">
       <c r="A63" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B63" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
@@ -15913,7 +15923,7 @@
     </row>
     <row r="64" spans="1:26" ht="15">
       <c r="A64" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B64" s="29" t="s">
         <v>17</v>
@@ -15922,7 +15932,7 @@
         <v>54</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
@@ -15949,7 +15959,7 @@
     </row>
     <row r="65" spans="1:26" ht="15">
       <c r="A65" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B65" s="29" t="s">
         <v>17</v>
@@ -15958,7 +15968,7 @@
         <v>54</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
@@ -15985,7 +15995,7 @@
     </row>
     <row r="66" spans="1:26" ht="15">
       <c r="A66" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B66" s="29" t="s">
         <v>17</v>
@@ -15994,7 +16004,7 @@
         <v>54</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
@@ -16021,7 +16031,7 @@
     </row>
     <row r="67" spans="1:26" ht="15">
       <c r="A67" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B67" s="29" t="s">
         <v>17</v>
@@ -16030,7 +16040,7 @@
         <v>54</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
@@ -16057,7 +16067,7 @@
     </row>
     <row r="68" spans="1:26" ht="15">
       <c r="A68" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B68" s="29" t="s">
         <v>17</v>
@@ -16066,7 +16076,7 @@
         <v>54</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
@@ -16093,7 +16103,7 @@
     </row>
     <row r="69" spans="1:26" ht="15">
       <c r="A69" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B69" s="29" t="s">
         <v>17</v>
@@ -16102,7 +16112,7 @@
         <v>57</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
@@ -16129,7 +16139,7 @@
     </row>
     <row r="70" spans="1:26" ht="15">
       <c r="A70" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" s="29" t="s">
         <v>17</v>
@@ -16138,7 +16148,7 @@
         <v>54</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
@@ -16165,7 +16175,7 @@
     </row>
     <row r="71" spans="1:26" ht="15">
       <c r="A71" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>17</v>
@@ -16174,7 +16184,7 @@
         <v>82</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
@@ -16201,7 +16211,7 @@
     </row>
     <row r="72" spans="1:26" ht="15">
       <c r="A72" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>17</v>
@@ -16210,7 +16220,7 @@
         <v>82</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
@@ -16237,7 +16247,7 @@
     </row>
     <row r="73" spans="1:26" ht="15">
       <c r="A73" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>17</v>
@@ -16246,7 +16256,7 @@
         <v>57</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
@@ -16273,16 +16283,16 @@
     </row>
     <row r="74" spans="1:26" ht="15">
       <c r="A74" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B74" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
@@ -16309,16 +16319,16 @@
     </row>
     <row r="75" spans="1:26" ht="15">
       <c r="A75" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
@@ -16345,16 +16355,16 @@
     </row>
     <row r="76" spans="1:26" ht="15">
       <c r="A76" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B76" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
@@ -16381,7 +16391,7 @@
     </row>
     <row r="77" spans="1:26" ht="15">
       <c r="A77" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B77" s="29" t="s">
         <v>17</v>
@@ -16390,7 +16400,7 @@
         <v>99</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
@@ -16417,16 +16427,16 @@
     </row>
     <row r="78" spans="1:26" ht="15">
       <c r="A78" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
@@ -16453,7 +16463,7 @@
     </row>
     <row r="79" spans="1:26" ht="15">
       <c r="A79" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>17</v>
@@ -16462,7 +16472,7 @@
         <v>65</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
@@ -16489,7 +16499,7 @@
     </row>
     <row r="80" spans="1:26" ht="15">
       <c r="A80" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B80" s="29" t="s">
         <v>17</v>
@@ -16498,7 +16508,7 @@
         <v>65</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
@@ -16525,7 +16535,7 @@
     </row>
     <row r="81" spans="1:26" ht="15">
       <c r="A81" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B81" s="29" t="s">
         <v>17</v>
@@ -16534,7 +16544,7 @@
         <v>54</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
@@ -16561,7 +16571,7 @@
     </row>
     <row r="82" spans="1:26" ht="15">
       <c r="A82" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B82" s="29" t="s">
         <v>17</v>
@@ -16570,7 +16580,7 @@
         <v>73</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
@@ -16597,7 +16607,7 @@
     </row>
     <row r="83" spans="1:26" ht="15">
       <c r="A83" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B83" s="29" t="s">
         <v>17</v>
@@ -16606,7 +16616,7 @@
         <v>54</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
@@ -16633,7 +16643,7 @@
     </row>
     <row r="84" spans="1:26" ht="15">
       <c r="A84" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B84" s="29" t="s">
         <v>17</v>
@@ -16642,7 +16652,7 @@
         <v>57</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
@@ -16669,7 +16679,7 @@
     </row>
     <row r="85" spans="1:26" ht="15">
       <c r="A85" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>17</v>
@@ -16678,7 +16688,7 @@
         <v>90</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
@@ -16705,7 +16715,7 @@
     </row>
     <row r="86" spans="1:26" ht="15">
       <c r="A86" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>17</v>
@@ -16714,7 +16724,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
@@ -16741,7 +16751,7 @@
     </row>
     <row r="87" spans="1:26" ht="15">
       <c r="A87" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>17</v>
@@ -16750,7 +16760,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
@@ -16777,7 +16787,7 @@
     </row>
     <row r="88" spans="1:26" ht="15">
       <c r="A88" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>17</v>
@@ -16786,7 +16796,7 @@
         <v>82</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -16813,7 +16823,7 @@
     </row>
     <row r="89" spans="1:26" ht="15">
       <c r="A89" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B89" s="29" t="s">
         <v>17</v>
@@ -16822,7 +16832,7 @@
         <v>57</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
@@ -16849,7 +16859,7 @@
     </row>
     <row r="90" spans="1:26" ht="15">
       <c r="A90" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B90" s="29" t="s">
         <v>17</v>
@@ -16858,7 +16868,7 @@
         <v>54</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -16885,7 +16895,7 @@
     </row>
     <row r="91" spans="1:26" ht="15">
       <c r="A91" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B91" s="29" t="s">
         <v>17</v>
@@ -16894,7 +16904,7 @@
         <v>54</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -16921,7 +16931,7 @@
     </row>
     <row r="92" spans="1:26" ht="15">
       <c r="A92" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B92" s="29" t="s">
         <v>17</v>
@@ -16930,7 +16940,7 @@
         <v>54</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -16957,7 +16967,7 @@
     </row>
     <row r="93" spans="1:26" ht="15">
       <c r="A93" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B93" s="29" t="s">
         <v>17</v>
@@ -16966,7 +16976,7 @@
         <v>54</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -16993,7 +17003,7 @@
     </row>
     <row r="94" spans="1:26" ht="15">
       <c r="A94" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B94" s="29" t="s">
         <v>17</v>
@@ -17002,7 +17012,7 @@
         <v>54</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
@@ -17029,7 +17039,7 @@
     </row>
     <row r="95" spans="1:26" ht="15">
       <c r="A95" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B95" s="29" t="s">
         <v>17</v>
@@ -17038,7 +17048,7 @@
         <v>65</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -17065,16 +17075,16 @@
     </row>
     <row r="96" spans="1:26" ht="15">
       <c r="A96" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B96" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
@@ -17101,7 +17111,7 @@
     </row>
     <row r="97" spans="1:26" ht="15">
       <c r="A97" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B97" s="29" t="s">
         <v>17</v>
@@ -17110,7 +17120,7 @@
         <v>54</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -17137,7 +17147,7 @@
     </row>
     <row r="98" spans="1:26" ht="15">
       <c r="A98" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B98" s="29" t="s">
         <v>17</v>
@@ -17146,7 +17156,7 @@
         <v>54</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
@@ -17173,16 +17183,16 @@
     </row>
     <row r="99" spans="1:26" ht="15">
       <c r="A99" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B99" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
@@ -17209,7 +17219,7 @@
     </row>
     <row r="100" spans="1:26" ht="15">
       <c r="A100" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B100" s="29" t="s">
         <v>17</v>
@@ -17218,7 +17228,7 @@
         <v>82</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E100" s="28"/>
       <c r="F100" s="28"/>
@@ -17245,7 +17255,7 @@
     </row>
     <row r="101" spans="1:26" ht="15">
       <c r="A101" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B101" s="29" t="s">
         <v>17</v>
@@ -17254,7 +17264,7 @@
         <v>95</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="28"/>
@@ -17281,7 +17291,7 @@
     </row>
     <row r="102" spans="1:26" ht="15">
       <c r="A102" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B102" s="29" t="s">
         <v>17</v>
@@ -17290,7 +17300,7 @@
         <v>95</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
@@ -17317,7 +17327,7 @@
     </row>
     <row r="103" spans="1:26" ht="15">
       <c r="A103" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B103" s="29" t="s">
         <v>17</v>
@@ -17326,7 +17336,7 @@
         <v>54</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E103" s="28"/>
       <c r="F103" s="28"/>
@@ -17353,7 +17363,7 @@
     </row>
     <row r="104" spans="1:26" ht="15">
       <c r="A104" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B104" s="29" t="s">
         <v>17</v>
@@ -17362,7 +17372,7 @@
         <v>54</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
@@ -17389,7 +17399,7 @@
     </row>
     <row r="105" spans="1:26" ht="15">
       <c r="A105" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B105" s="29" t="s">
         <v>17</v>
@@ -17398,7 +17408,7 @@
         <v>54</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E105" s="28"/>
       <c r="F105" s="28"/>
@@ -17425,7 +17435,7 @@
     </row>
     <row r="106" spans="1:26" ht="15">
       <c r="A106" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B106" s="29" t="s">
         <v>17</v>
@@ -17434,7 +17444,7 @@
         <v>54</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="28"/>
@@ -17461,7 +17471,7 @@
     </row>
     <row r="107" spans="1:26" ht="15">
       <c r="A107" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B107" s="29" t="s">
         <v>17</v>
@@ -17470,7 +17480,7 @@
         <v>54</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="28"/>
@@ -17497,7 +17507,7 @@
     </row>
     <row r="108" spans="1:26" ht="15">
       <c r="A108" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B108" s="29" t="s">
         <v>17</v>
@@ -17506,7 +17516,7 @@
         <v>54</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
@@ -17533,16 +17543,16 @@
     </row>
     <row r="109" spans="1:26" ht="15">
       <c r="A109" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B109" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="28"/>
@@ -17569,16 +17579,16 @@
     </row>
     <row r="110" spans="1:26" ht="15">
       <c r="A110" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B110" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E110" s="28"/>
       <c r="F110" s="28"/>
@@ -17605,7 +17615,7 @@
     </row>
     <row r="111" spans="1:26" ht="15">
       <c r="A111" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B111" s="29" t="s">
         <v>17</v>
@@ -17614,7 +17624,7 @@
         <v>54</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E111" s="28"/>
       <c r="F111" s="28"/>
@@ -17641,7 +17651,7 @@
     </row>
     <row r="112" spans="1:26" ht="15">
       <c r="A112" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B112" s="29" t="s">
         <v>17</v>
@@ -17650,7 +17660,7 @@
         <v>54</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E112" s="28"/>
       <c r="F112" s="28"/>
@@ -17677,7 +17687,7 @@
     </row>
     <row r="113" spans="1:26" ht="15">
       <c r="A113" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B113" s="29" t="s">
         <v>17</v>
@@ -17686,7 +17696,7 @@
         <v>54</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="28"/>
@@ -17713,7 +17723,7 @@
     </row>
     <row r="114" spans="1:26" ht="15">
       <c r="A114" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B114" s="29" t="s">
         <v>17</v>
@@ -17722,7 +17732,7 @@
         <v>54</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
@@ -17749,7 +17759,7 @@
     </row>
     <row r="115" spans="1:26" ht="15">
       <c r="A115" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B115" s="29" t="s">
         <v>17</v>
@@ -17758,7 +17768,7 @@
         <v>54</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="28"/>
@@ -17785,7 +17795,7 @@
     </row>
     <row r="116" spans="1:26" ht="15">
       <c r="A116" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B116" s="29" t="s">
         <v>17</v>
@@ -17794,7 +17804,7 @@
         <v>54</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
@@ -17821,7 +17831,7 @@
     </row>
     <row r="117" spans="1:26" ht="15">
       <c r="A117" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B117" s="29" t="s">
         <v>17</v>
@@ -17830,7 +17840,7 @@
         <v>57</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
@@ -17857,7 +17867,7 @@
     </row>
     <row r="118" spans="1:26" ht="15">
       <c r="A118" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B118" s="29" t="s">
         <v>17</v>
@@ -17866,7 +17876,7 @@
         <v>57</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E118" s="28"/>
       <c r="F118" s="28"/>
@@ -17893,7 +17903,7 @@
     </row>
     <row r="119" spans="1:26" ht="15">
       <c r="A119" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B119" s="29" t="s">
         <v>17</v>
@@ -17902,7 +17912,7 @@
         <v>57</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="28"/>
@@ -17929,7 +17939,7 @@
     </row>
     <row r="120" spans="1:26" ht="15">
       <c r="A120" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B120" s="29" t="s">
         <v>17</v>
@@ -17938,7 +17948,7 @@
         <v>57</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
@@ -17965,7 +17975,7 @@
     </row>
     <row r="121" spans="1:26" ht="15">
       <c r="A121" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B121" s="29" t="s">
         <v>17</v>
@@ -17974,7 +17984,7 @@
         <v>57</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
@@ -18001,7 +18011,7 @@
     </row>
     <row r="122" spans="1:26" ht="15">
       <c r="A122" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B122" s="29" t="s">
         <v>17</v>
@@ -18010,7 +18020,7 @@
         <v>57</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
@@ -18037,7 +18047,7 @@
     </row>
     <row r="123" spans="1:26" ht="15">
       <c r="A123" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B123" s="29" t="s">
         <v>17</v>
@@ -18046,7 +18056,7 @@
         <v>57</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
@@ -18073,7 +18083,7 @@
     </row>
     <row r="124" spans="1:26" ht="15">
       <c r="A124" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B124" s="29" t="s">
         <v>17</v>
@@ -18082,7 +18092,7 @@
         <v>57</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
@@ -18109,7 +18119,7 @@
     </row>
     <row r="125" spans="1:26" ht="15">
       <c r="A125" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B125" s="29" t="s">
         <v>17</v>
@@ -18118,7 +18128,7 @@
         <v>57</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="28"/>
@@ -18145,7 +18155,7 @@
     </row>
     <row r="126" spans="1:26" ht="15">
       <c r="A126" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B126" s="29" t="s">
         <v>17</v>
@@ -18154,7 +18164,7 @@
         <v>57</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="28"/>
@@ -18181,7 +18191,7 @@
     </row>
     <row r="127" spans="1:26" ht="15">
       <c r="A127" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B127" s="29" t="s">
         <v>17</v>
@@ -18190,7 +18200,7 @@
         <v>57</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E127" s="28"/>
       <c r="F127" s="28"/>
@@ -18217,7 +18227,7 @@
     </row>
     <row r="128" spans="1:26" ht="15">
       <c r="A128" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B128" s="29" t="s">
         <v>17</v>
@@ -18226,7 +18236,7 @@
         <v>57</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
@@ -18253,7 +18263,7 @@
     </row>
     <row r="129" spans="1:26" ht="15">
       <c r="A129" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B129" s="29" t="s">
         <v>17</v>
@@ -18262,7 +18272,7 @@
         <v>57</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E129" s="28"/>
       <c r="F129" s="28"/>
@@ -18289,16 +18299,16 @@
     </row>
     <row r="130" spans="1:26" ht="15">
       <c r="A130" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B130" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
@@ -18324,10 +18334,18 @@
       <c r="Z130" s="28"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A131" s="28"/>
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
+      <c r="A131" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D131" s="32" t="s">
+        <v>231</v>
+      </c>
       <c r="E131" s="28"/>
       <c r="F131" s="28"/>
       <c r="G131" s="28"/>
@@ -18352,10 +18370,18 @@
       <c r="Z131" s="28"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A132" s="28"/>
-      <c r="B132" s="28"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
+      <c r="A132" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D132" s="32" t="s">
+        <v>225</v>
+      </c>
       <c r="E132" s="28"/>
       <c r="F132" s="28"/>
       <c r="G132" s="28"/>
@@ -18380,10 +18406,18 @@
       <c r="Z132" s="28"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A133" s="28"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
+      <c r="A133" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="32" t="s">
+        <v>219</v>
+      </c>
       <c r="E133" s="28"/>
       <c r="F133" s="28"/>
       <c r="G133" s="28"/>
@@ -18408,10 +18442,18 @@
       <c r="Z133" s="28"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A134" s="28"/>
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
+      <c r="A134" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134" s="32" t="s">
+        <v>219</v>
+      </c>
       <c r="E134" s="28"/>
       <c r="F134" s="28"/>
       <c r="G134" s="28"/>
@@ -18436,10 +18478,18 @@
       <c r="Z134" s="28"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A135" s="28"/>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
+      <c r="A135" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D135" s="32" t="s">
+        <v>219</v>
+      </c>
       <c r="E135" s="28"/>
       <c r="F135" s="28"/>
       <c r="G135" s="28"/>
@@ -18464,10 +18514,18 @@
       <c r="Z135" s="28"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A136" s="28"/>
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
+      <c r="A136" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D136" s="32" t="s">
+        <v>220</v>
+      </c>
       <c r="E136" s="28"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
@@ -42751,13 +42809,13 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -42766,18 +42824,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
@@ -42786,7 +42844,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14">
@@ -44289,13 +44347,13 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="6" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
@@ -44304,18 +44362,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="6" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
@@ -44324,7 +44382,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14">
